--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1717200</v>
+        <v>1798500</v>
       </c>
       <c r="E8" s="3">
-        <v>1717500</v>
+        <v>1662700</v>
       </c>
       <c r="F8" s="3">
-        <v>1603600</v>
+        <v>1662900</v>
       </c>
       <c r="G8" s="3">
-        <v>1700300</v>
+        <v>1552600</v>
       </c>
       <c r="H8" s="3">
-        <v>1567500</v>
+        <v>1646300</v>
       </c>
       <c r="I8" s="3">
-        <v>1522100</v>
+        <v>1517700</v>
       </c>
       <c r="J8" s="3">
+        <v>1473700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1619200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1019000</v>
+        <v>1122000</v>
       </c>
       <c r="E9" s="3">
-        <v>1003500</v>
+        <v>986600</v>
       </c>
       <c r="F9" s="3">
-        <v>951300</v>
+        <v>971700</v>
       </c>
       <c r="G9" s="3">
-        <v>1025500</v>
+        <v>921000</v>
       </c>
       <c r="H9" s="3">
-        <v>919500</v>
+        <v>992900</v>
       </c>
       <c r="I9" s="3">
-        <v>904300</v>
+        <v>890300</v>
       </c>
       <c r="J9" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K9" s="3">
         <v>981800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>698200</v>
+        <v>676500</v>
       </c>
       <c r="E10" s="3">
-        <v>713900</v>
+        <v>676100</v>
       </c>
       <c r="F10" s="3">
-        <v>652300</v>
+        <v>691200</v>
       </c>
       <c r="G10" s="3">
-        <v>674900</v>
+        <v>631600</v>
       </c>
       <c r="H10" s="3">
-        <v>647900</v>
+        <v>653400</v>
       </c>
       <c r="I10" s="3">
-        <v>617700</v>
+        <v>627400</v>
       </c>
       <c r="J10" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K10" s="3">
         <v>637400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K12" s="3">
         <v>16400</v>
       </c>
-      <c r="E12" s="3">
-        <v>18900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>16500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>16400</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,52 +904,58 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>-1000</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I14" s="3">
-        <v>142300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>-900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>137700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>24200</v>
+        <v>20600</v>
       </c>
       <c r="E15" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="F15" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H15" s="3">
         <v>24100</v>
       </c>
-      <c r="G15" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>23000</v>
-      </c>
       <c r="I15" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="J15" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K15" s="3">
         <v>23600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1399200</v>
+        <v>1630600</v>
       </c>
       <c r="E17" s="3">
-        <v>1454300</v>
+        <v>1354700</v>
       </c>
       <c r="F17" s="3">
-        <v>1316200</v>
+        <v>1408100</v>
       </c>
       <c r="G17" s="3">
-        <v>1506000</v>
+        <v>1274400</v>
       </c>
       <c r="H17" s="3">
-        <v>1268300</v>
+        <v>1458100</v>
       </c>
       <c r="I17" s="3">
-        <v>1438000</v>
+        <v>1228000</v>
       </c>
       <c r="J17" s="3">
+        <v>1392300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1354600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>318000</v>
+        <v>167900</v>
       </c>
       <c r="E18" s="3">
-        <v>263100</v>
+        <v>307900</v>
       </c>
       <c r="F18" s="3">
-        <v>287300</v>
+        <v>254800</v>
       </c>
       <c r="G18" s="3">
-        <v>194400</v>
+        <v>278200</v>
       </c>
       <c r="H18" s="3">
-        <v>299200</v>
+        <v>188200</v>
       </c>
       <c r="I18" s="3">
-        <v>84000</v>
+        <v>289700</v>
       </c>
       <c r="J18" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K18" s="3">
         <v>264600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>14100</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>9800</v>
+        <v>13700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3400</v>
+        <v>9500</v>
       </c>
       <c r="I20" s="3">
-        <v>14500</v>
+        <v>-3300</v>
       </c>
       <c r="J20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-18700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>409300</v>
+        <v>255000</v>
       </c>
       <c r="E21" s="3">
-        <v>353500</v>
+        <v>396300</v>
       </c>
       <c r="F21" s="3">
-        <v>382600</v>
+        <v>342200</v>
       </c>
       <c r="G21" s="3">
-        <v>283900</v>
+        <v>370400</v>
       </c>
       <c r="H21" s="3">
-        <v>374700</v>
+        <v>274900</v>
       </c>
       <c r="I21" s="3">
-        <v>176800</v>
+        <v>362800</v>
       </c>
       <c r="J21" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K21" s="3">
         <v>327600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>325000</v>
+        <v>173400</v>
       </c>
       <c r="E23" s="3">
-        <v>269000</v>
+        <v>314700</v>
       </c>
       <c r="F23" s="3">
-        <v>301500</v>
+        <v>260500</v>
       </c>
       <c r="G23" s="3">
-        <v>204200</v>
+        <v>291900</v>
       </c>
       <c r="H23" s="3">
-        <v>295800</v>
+        <v>197700</v>
       </c>
       <c r="I23" s="3">
-        <v>98500</v>
+        <v>286400</v>
       </c>
       <c r="J23" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K23" s="3">
         <v>245900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98400</v>
+        <v>69500</v>
       </c>
       <c r="E24" s="3">
-        <v>69700</v>
+        <v>95300</v>
       </c>
       <c r="F24" s="3">
-        <v>98200</v>
+        <v>67400</v>
       </c>
       <c r="G24" s="3">
-        <v>75900</v>
+        <v>95000</v>
       </c>
       <c r="H24" s="3">
-        <v>85500</v>
+        <v>73500</v>
       </c>
       <c r="I24" s="3">
-        <v>72900</v>
+        <v>82700</v>
       </c>
       <c r="J24" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K24" s="3">
         <v>58900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>226600</v>
+        <v>103900</v>
       </c>
       <c r="E26" s="3">
-        <v>199400</v>
+        <v>219400</v>
       </c>
       <c r="F26" s="3">
-        <v>203300</v>
+        <v>193000</v>
       </c>
       <c r="G26" s="3">
-        <v>128300</v>
+        <v>196800</v>
       </c>
       <c r="H26" s="3">
-        <v>210400</v>
+        <v>124200</v>
       </c>
       <c r="I26" s="3">
-        <v>25700</v>
+        <v>203700</v>
       </c>
       <c r="J26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K26" s="3">
         <v>187000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>193700</v>
+        <v>92100</v>
       </c>
       <c r="E27" s="3">
-        <v>174900</v>
+        <v>187500</v>
       </c>
       <c r="F27" s="3">
-        <v>177100</v>
+        <v>169400</v>
       </c>
       <c r="G27" s="3">
-        <v>108100</v>
+        <v>171500</v>
       </c>
       <c r="H27" s="3">
-        <v>183200</v>
+        <v>104700</v>
       </c>
       <c r="I27" s="3">
-        <v>600</v>
+        <v>177400</v>
       </c>
       <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3">
         <v>169300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-14100</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>-9800</v>
+        <v>-13700</v>
       </c>
       <c r="H32" s="3">
-        <v>3400</v>
+        <v>-9500</v>
       </c>
       <c r="I32" s="3">
-        <v>-14500</v>
+        <v>3300</v>
       </c>
       <c r="J32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K32" s="3">
         <v>18700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>193700</v>
+        <v>92100</v>
       </c>
       <c r="E33" s="3">
-        <v>174900</v>
+        <v>187500</v>
       </c>
       <c r="F33" s="3">
-        <v>177100</v>
+        <v>169400</v>
       </c>
       <c r="G33" s="3">
-        <v>108100</v>
+        <v>171500</v>
       </c>
       <c r="H33" s="3">
-        <v>183200</v>
+        <v>104700</v>
       </c>
       <c r="I33" s="3">
-        <v>600</v>
+        <v>177400</v>
       </c>
       <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3">
         <v>169300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>193700</v>
+        <v>92100</v>
       </c>
       <c r="E35" s="3">
-        <v>174900</v>
+        <v>187500</v>
       </c>
       <c r="F35" s="3">
-        <v>177100</v>
+        <v>169400</v>
       </c>
       <c r="G35" s="3">
-        <v>108100</v>
+        <v>171500</v>
       </c>
       <c r="H35" s="3">
-        <v>183200</v>
+        <v>104700</v>
       </c>
       <c r="I35" s="3">
-        <v>600</v>
+        <v>177400</v>
       </c>
       <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3">
         <v>169300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1646400</v>
+        <v>1599800</v>
       </c>
       <c r="E41" s="3">
-        <v>1898900</v>
+        <v>1594100</v>
       </c>
       <c r="F41" s="3">
-        <v>1854200</v>
+        <v>1838500</v>
       </c>
       <c r="G41" s="3">
-        <v>1757800</v>
+        <v>1795300</v>
       </c>
       <c r="H41" s="3">
-        <v>1612400</v>
+        <v>1701900</v>
       </c>
       <c r="I41" s="3">
-        <v>1490700</v>
+        <v>1561200</v>
       </c>
       <c r="J41" s="3">
+        <v>1443400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1273800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1003500</v>
+        <v>1021500</v>
       </c>
       <c r="E42" s="3">
-        <v>885700</v>
+        <v>971600</v>
       </c>
       <c r="F42" s="3">
-        <v>856600</v>
+        <v>857500</v>
       </c>
       <c r="G42" s="3">
-        <v>859800</v>
+        <v>829400</v>
       </c>
       <c r="H42" s="3">
-        <v>712700</v>
+        <v>832400</v>
       </c>
       <c r="I42" s="3">
-        <v>788700</v>
+        <v>690100</v>
       </c>
       <c r="J42" s="3">
+        <v>763600</v>
+      </c>
+      <c r="K42" s="3">
         <v>757100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>988500</v>
+        <v>1103500</v>
       </c>
       <c r="E43" s="3">
-        <v>961600</v>
+        <v>957100</v>
       </c>
       <c r="F43" s="3">
-        <v>953000</v>
+        <v>931000</v>
       </c>
       <c r="G43" s="3">
-        <v>992900</v>
+        <v>922700</v>
       </c>
       <c r="H43" s="3">
-        <v>885600</v>
+        <v>961300</v>
       </c>
       <c r="I43" s="3">
-        <v>879100</v>
+        <v>857500</v>
       </c>
       <c r="J43" s="3">
+        <v>851100</v>
+      </c>
+      <c r="K43" s="3">
         <v>910600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>712700</v>
+        <v>766100</v>
       </c>
       <c r="E44" s="3">
-        <v>643700</v>
+        <v>690000</v>
       </c>
       <c r="F44" s="3">
-        <v>588500</v>
+        <v>623200</v>
       </c>
       <c r="G44" s="3">
-        <v>542800</v>
+        <v>569800</v>
       </c>
       <c r="H44" s="3">
-        <v>584900</v>
+        <v>525600</v>
       </c>
       <c r="I44" s="3">
-        <v>572600</v>
+        <v>566400</v>
       </c>
       <c r="J44" s="3">
+        <v>554400</v>
+      </c>
+      <c r="K44" s="3">
         <v>522100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>182100</v>
+        <v>181400</v>
       </c>
       <c r="E45" s="3">
-        <v>171300</v>
+        <v>176300</v>
       </c>
       <c r="F45" s="3">
-        <v>164300</v>
+        <v>165900</v>
       </c>
       <c r="G45" s="3">
-        <v>172100</v>
+        <v>159100</v>
       </c>
       <c r="H45" s="3">
-        <v>163700</v>
+        <v>166700</v>
       </c>
       <c r="I45" s="3">
-        <v>167200</v>
+        <v>158500</v>
       </c>
       <c r="J45" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K45" s="3">
         <v>191900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4533100</v>
+        <v>4672200</v>
       </c>
       <c r="E46" s="3">
-        <v>4561100</v>
+        <v>4389100</v>
       </c>
       <c r="F46" s="3">
-        <v>4416700</v>
+        <v>4416100</v>
       </c>
       <c r="G46" s="3">
-        <v>4325400</v>
+        <v>4276300</v>
       </c>
       <c r="H46" s="3">
-        <v>3959400</v>
+        <v>4187900</v>
       </c>
       <c r="I46" s="3">
-        <v>3898300</v>
+        <v>3833500</v>
       </c>
       <c r="J46" s="3">
+        <v>3774400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3655500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>475900</v>
+        <v>570000</v>
       </c>
       <c r="E47" s="3">
-        <v>441700</v>
+        <v>460700</v>
       </c>
       <c r="F47" s="3">
-        <v>398800</v>
+        <v>427600</v>
       </c>
       <c r="G47" s="3">
-        <v>340400</v>
+        <v>386100</v>
       </c>
       <c r="H47" s="3">
-        <v>333400</v>
+        <v>329500</v>
       </c>
       <c r="I47" s="3">
+        <v>322800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>369200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>387300</v>
+      </c>
+      <c r="L47" s="3">
         <v>381300</v>
       </c>
-      <c r="J47" s="3">
-        <v>387300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>381300</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2351000</v>
+        <v>2317500</v>
       </c>
       <c r="E48" s="3">
-        <v>2351200</v>
+        <v>2276200</v>
       </c>
       <c r="F48" s="3">
-        <v>2338400</v>
+        <v>2276400</v>
       </c>
       <c r="G48" s="3">
-        <v>2280200</v>
+        <v>2264000</v>
       </c>
       <c r="H48" s="3">
-        <v>2272700</v>
+        <v>2207700</v>
       </c>
       <c r="I48" s="3">
-        <v>2301100</v>
+        <v>2200400</v>
       </c>
       <c r="J48" s="3">
+        <v>2227900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2416100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>779500</v>
+        <v>728500</v>
       </c>
       <c r="E49" s="3">
-        <v>796400</v>
+        <v>754700</v>
       </c>
       <c r="F49" s="3">
-        <v>815000</v>
+        <v>771100</v>
       </c>
       <c r="G49" s="3">
-        <v>793000</v>
+        <v>789100</v>
       </c>
       <c r="H49" s="3">
-        <v>787600</v>
+        <v>767800</v>
       </c>
       <c r="I49" s="3">
-        <v>806600</v>
+        <v>762600</v>
       </c>
       <c r="J49" s="3">
+        <v>781000</v>
+      </c>
+      <c r="K49" s="3">
         <v>788500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>137600</v>
+        <v>136500</v>
       </c>
       <c r="E52" s="3">
-        <v>138400</v>
+        <v>133300</v>
       </c>
       <c r="F52" s="3">
-        <v>131300</v>
+        <v>134000</v>
       </c>
       <c r="G52" s="3">
-        <v>132100</v>
+        <v>127200</v>
       </c>
       <c r="H52" s="3">
-        <v>130300</v>
+        <v>127900</v>
       </c>
       <c r="I52" s="3">
-        <v>131500</v>
+        <v>126100</v>
       </c>
       <c r="J52" s="3">
+        <v>127300</v>
+      </c>
+      <c r="K52" s="3">
         <v>127200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8277100</v>
+        <v>8424700</v>
       </c>
       <c r="E54" s="3">
-        <v>8288700</v>
+        <v>8014000</v>
       </c>
       <c r="F54" s="3">
-        <v>8100200</v>
+        <v>8025300</v>
       </c>
       <c r="G54" s="3">
-        <v>7871000</v>
+        <v>7842800</v>
       </c>
       <c r="H54" s="3">
-        <v>7483300</v>
+        <v>7620800</v>
       </c>
       <c r="I54" s="3">
-        <v>7518800</v>
+        <v>7245500</v>
       </c>
       <c r="J54" s="3">
+        <v>7279800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7374600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1337000</v>
+        <v>1426600</v>
       </c>
       <c r="E57" s="3">
-        <v>1431000</v>
+        <v>1294500</v>
       </c>
       <c r="F57" s="3">
-        <v>1284500</v>
+        <v>1385500</v>
       </c>
       <c r="G57" s="3">
-        <v>892900</v>
+        <v>1243700</v>
       </c>
       <c r="H57" s="3">
-        <v>1177100</v>
+        <v>864500</v>
       </c>
       <c r="I57" s="3">
-        <v>1302800</v>
+        <v>1139700</v>
       </c>
       <c r="J57" s="3">
+        <v>1261400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1214700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>119100</v>
+        <v>289000</v>
       </c>
       <c r="E58" s="3">
-        <v>142800</v>
+        <v>115400</v>
       </c>
       <c r="F58" s="3">
-        <v>108100</v>
+        <v>138200</v>
       </c>
       <c r="G58" s="3">
-        <v>129600</v>
+        <v>104700</v>
       </c>
       <c r="H58" s="3">
-        <v>92300</v>
+        <v>125500</v>
       </c>
       <c r="I58" s="3">
-        <v>57100</v>
+        <v>89400</v>
       </c>
       <c r="J58" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K58" s="3">
         <v>50200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>589900</v>
+        <v>625500</v>
       </c>
       <c r="E59" s="3">
-        <v>609700</v>
+        <v>571200</v>
       </c>
       <c r="F59" s="3">
-        <v>558000</v>
+        <v>590300</v>
       </c>
       <c r="G59" s="3">
-        <v>1032100</v>
+        <v>540200</v>
       </c>
       <c r="H59" s="3">
-        <v>559200</v>
+        <v>999300</v>
       </c>
       <c r="I59" s="3">
-        <v>554100</v>
+        <v>541400</v>
       </c>
       <c r="J59" s="3">
+        <v>536500</v>
+      </c>
+      <c r="K59" s="3">
         <v>484400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2046000</v>
+        <v>2341100</v>
       </c>
       <c r="E60" s="3">
-        <v>2183400</v>
+        <v>1981000</v>
       </c>
       <c r="F60" s="3">
-        <v>1950600</v>
+        <v>2114000</v>
       </c>
       <c r="G60" s="3">
-        <v>2054600</v>
+        <v>1888600</v>
       </c>
       <c r="H60" s="3">
-        <v>1828600</v>
+        <v>1989300</v>
       </c>
       <c r="I60" s="3">
-        <v>1914100</v>
+        <v>1770400</v>
       </c>
       <c r="J60" s="3">
+        <v>1853200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1749300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>214700</v>
+        <v>37800</v>
       </c>
       <c r="E61" s="3">
-        <v>214900</v>
+        <v>207900</v>
       </c>
       <c r="F61" s="3">
-        <v>214700</v>
+        <v>208100</v>
       </c>
       <c r="G61" s="3">
-        <v>523000</v>
+        <v>207900</v>
       </c>
       <c r="H61" s="3">
-        <v>222600</v>
+        <v>506400</v>
       </c>
       <c r="I61" s="3">
-        <v>248500</v>
+        <v>215500</v>
       </c>
       <c r="J61" s="3">
+        <v>240600</v>
+      </c>
+      <c r="K61" s="3">
         <v>242000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>654600</v>
+        <v>625500</v>
       </c>
       <c r="E62" s="3">
-        <v>649300</v>
+        <v>633800</v>
       </c>
       <c r="F62" s="3">
-        <v>678700</v>
+        <v>628700</v>
       </c>
       <c r="G62" s="3">
-        <v>336400</v>
+        <v>657100</v>
       </c>
       <c r="H62" s="3">
-        <v>649700</v>
+        <v>325700</v>
       </c>
       <c r="I62" s="3">
-        <v>646600</v>
+        <v>629000</v>
       </c>
       <c r="J62" s="3">
+        <v>626100</v>
+      </c>
+      <c r="K62" s="3">
         <v>683700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3568800</v>
+        <v>3668000</v>
       </c>
       <c r="E66" s="3">
-        <v>3667600</v>
+        <v>3455300</v>
       </c>
       <c r="F66" s="3">
-        <v>3501300</v>
+        <v>3551000</v>
       </c>
       <c r="G66" s="3">
-        <v>3527600</v>
+        <v>3390000</v>
       </c>
       <c r="H66" s="3">
-        <v>3287400</v>
+        <v>3415500</v>
       </c>
       <c r="I66" s="3">
-        <v>3379100</v>
+        <v>3182900</v>
       </c>
       <c r="J66" s="3">
+        <v>3271700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3268400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5190300</v>
+        <v>5117500</v>
       </c>
       <c r="E72" s="3">
-        <v>5092400</v>
+        <v>5025400</v>
       </c>
       <c r="F72" s="3">
-        <v>4917600</v>
+        <v>4930600</v>
       </c>
       <c r="G72" s="3">
-        <v>4825200</v>
+        <v>4761300</v>
       </c>
       <c r="H72" s="3">
-        <v>4721000</v>
+        <v>4671800</v>
       </c>
       <c r="I72" s="3">
-        <v>4617100</v>
+        <v>4571000</v>
       </c>
       <c r="J72" s="3">
+        <v>4470400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4615900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4708300</v>
+        <v>4756700</v>
       </c>
       <c r="E76" s="3">
-        <v>4621200</v>
+        <v>4558700</v>
       </c>
       <c r="F76" s="3">
-        <v>4598900</v>
+        <v>4474300</v>
       </c>
       <c r="G76" s="3">
-        <v>4343300</v>
+        <v>4452800</v>
       </c>
       <c r="H76" s="3">
-        <v>4195900</v>
+        <v>4205300</v>
       </c>
       <c r="I76" s="3">
-        <v>4139700</v>
+        <v>4062600</v>
       </c>
       <c r="J76" s="3">
+        <v>4008100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4106200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>193700</v>
+        <v>92100</v>
       </c>
       <c r="E81" s="3">
-        <v>174900</v>
+        <v>187500</v>
       </c>
       <c r="F81" s="3">
-        <v>177100</v>
+        <v>169400</v>
       </c>
       <c r="G81" s="3">
-        <v>108100</v>
+        <v>171500</v>
       </c>
       <c r="H81" s="3">
-        <v>183200</v>
+        <v>104700</v>
       </c>
       <c r="I81" s="3">
-        <v>600</v>
+        <v>177400</v>
       </c>
       <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3">
         <v>169300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>84300</v>
+        <v>81700</v>
       </c>
       <c r="E83" s="3">
-        <v>84400</v>
+        <v>81600</v>
       </c>
       <c r="F83" s="3">
-        <v>81100</v>
+        <v>81800</v>
       </c>
       <c r="G83" s="3">
-        <v>79700</v>
+        <v>78500</v>
       </c>
       <c r="H83" s="3">
-        <v>78900</v>
+        <v>77200</v>
       </c>
       <c r="I83" s="3">
-        <v>78200</v>
+        <v>76400</v>
       </c>
       <c r="J83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K83" s="3">
         <v>81800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>165500</v>
+        <v>212300</v>
       </c>
       <c r="E89" s="3">
-        <v>345500</v>
+        <v>160300</v>
       </c>
       <c r="F89" s="3">
-        <v>197000</v>
+        <v>334500</v>
       </c>
       <c r="G89" s="3">
-        <v>387700</v>
+        <v>190800</v>
       </c>
       <c r="H89" s="3">
-        <v>276800</v>
+        <v>375400</v>
       </c>
       <c r="I89" s="3">
-        <v>269400</v>
+        <v>268000</v>
       </c>
       <c r="J89" s="3">
+        <v>260800</v>
+      </c>
+      <c r="K89" s="3">
         <v>389800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82800</v>
+        <v>-80100</v>
       </c>
       <c r="E91" s="3">
-        <v>-79900</v>
+        <v>-80100</v>
       </c>
       <c r="F91" s="3">
-        <v>-60000</v>
+        <v>-77400</v>
       </c>
       <c r="G91" s="3">
-        <v>-90200</v>
+        <v>-58100</v>
       </c>
       <c r="H91" s="3">
-        <v>-84100</v>
+        <v>-87400</v>
       </c>
       <c r="I91" s="3">
-        <v>-69900</v>
+        <v>-81400</v>
       </c>
       <c r="J91" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-68600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-237700</v>
+        <v>-227900</v>
       </c>
       <c r="E94" s="3">
-        <v>-171100</v>
+        <v>-230100</v>
       </c>
       <c r="F94" s="3">
-        <v>-59200</v>
+        <v>-165700</v>
       </c>
       <c r="G94" s="3">
-        <v>-220400</v>
+        <v>-57300</v>
       </c>
       <c r="H94" s="3">
-        <v>32500</v>
+        <v>-213400</v>
       </c>
       <c r="I94" s="3">
-        <v>-66700</v>
+        <v>31400</v>
       </c>
       <c r="J94" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-112700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94500</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3">
+        <v>-91500</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-84500</v>
-      </c>
       <c r="G96" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="H96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-84200</v>
-      </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-81500</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-73600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-181300</v>
+        <v>-7700</v>
       </c>
       <c r="E100" s="3">
-        <v>-128500</v>
+        <v>-175500</v>
       </c>
       <c r="F100" s="3">
-        <v>-80300</v>
+        <v>-124400</v>
       </c>
       <c r="G100" s="3">
-        <v>-37700</v>
+        <v>-77800</v>
       </c>
       <c r="H100" s="3">
-        <v>-125600</v>
+        <v>-36500</v>
       </c>
       <c r="I100" s="3">
-        <v>-44000</v>
+        <v>-121600</v>
       </c>
       <c r="J100" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-103200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>29000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>38900</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>15600</v>
+        <v>37700</v>
       </c>
       <c r="H101" s="3">
-        <v>-62000</v>
+        <v>15100</v>
       </c>
       <c r="I101" s="3">
-        <v>58200</v>
+        <v>-60000</v>
       </c>
       <c r="J101" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-34700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-252400</v>
+        <v>5700</v>
       </c>
       <c r="E102" s="3">
-        <v>44600</v>
+        <v>-244400</v>
       </c>
       <c r="F102" s="3">
-        <v>96400</v>
+        <v>43200</v>
       </c>
       <c r="G102" s="3">
-        <v>145300</v>
+        <v>93400</v>
       </c>
       <c r="H102" s="3">
-        <v>121700</v>
+        <v>140700</v>
       </c>
       <c r="I102" s="3">
-        <v>216900</v>
+        <v>117800</v>
       </c>
       <c r="J102" s="3">
+        <v>210000</v>
+      </c>
+      <c r="K102" s="3">
         <v>139200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1798500</v>
+        <v>1592100</v>
       </c>
       <c r="E8" s="3">
-        <v>1662700</v>
+        <v>1642500</v>
       </c>
       <c r="F8" s="3">
-        <v>1662900</v>
+        <v>1518400</v>
       </c>
       <c r="G8" s="3">
-        <v>1552600</v>
+        <v>1518600</v>
       </c>
       <c r="H8" s="3">
-        <v>1646300</v>
+        <v>1417900</v>
       </c>
       <c r="I8" s="3">
-        <v>1517700</v>
+        <v>1503500</v>
       </c>
       <c r="J8" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1473700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1619200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1122000</v>
+        <v>996800</v>
       </c>
       <c r="E9" s="3">
-        <v>986600</v>
+        <v>1024600</v>
       </c>
       <c r="F9" s="3">
-        <v>971700</v>
+        <v>901000</v>
       </c>
       <c r="G9" s="3">
-        <v>921000</v>
+        <v>887400</v>
       </c>
       <c r="H9" s="3">
-        <v>992900</v>
+        <v>841100</v>
       </c>
       <c r="I9" s="3">
-        <v>890300</v>
+        <v>906800</v>
       </c>
       <c r="J9" s="3">
+        <v>813100</v>
+      </c>
+      <c r="K9" s="3">
         <v>875600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>981800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>676500</v>
+        <v>595200</v>
       </c>
       <c r="E10" s="3">
-        <v>676100</v>
+        <v>617900</v>
       </c>
       <c r="F10" s="3">
-        <v>691200</v>
+        <v>617400</v>
       </c>
       <c r="G10" s="3">
-        <v>631600</v>
+        <v>631300</v>
       </c>
       <c r="H10" s="3">
-        <v>653400</v>
+        <v>576800</v>
       </c>
       <c r="I10" s="3">
-        <v>627400</v>
+        <v>596700</v>
       </c>
       <c r="J10" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K10" s="3">
         <v>598100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>637400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20400</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>15900</v>
+        <v>18600</v>
       </c>
       <c r="F12" s="3">
-        <v>18300</v>
+        <v>14500</v>
       </c>
       <c r="G12" s="3">
-        <v>15200</v>
+        <v>16700</v>
       </c>
       <c r="H12" s="3">
-        <v>18900</v>
+        <v>13900</v>
       </c>
       <c r="I12" s="3">
-        <v>15900</v>
+        <v>17200</v>
       </c>
       <c r="J12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,55 +927,61 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>137700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20600</v>
+        <v>21500</v>
       </c>
       <c r="E15" s="3">
-        <v>23400</v>
+        <v>18800</v>
       </c>
       <c r="F15" s="3">
-        <v>22400</v>
+        <v>21400</v>
       </c>
       <c r="G15" s="3">
-        <v>23400</v>
+        <v>20500</v>
       </c>
       <c r="H15" s="3">
-        <v>24100</v>
+        <v>21300</v>
       </c>
       <c r="I15" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="J15" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K15" s="3">
         <v>21700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1630600</v>
+        <v>1358100</v>
       </c>
       <c r="E17" s="3">
-        <v>1354700</v>
+        <v>1489100</v>
       </c>
       <c r="F17" s="3">
-        <v>1408100</v>
+        <v>1237200</v>
       </c>
       <c r="G17" s="3">
-        <v>1274400</v>
+        <v>1286000</v>
       </c>
       <c r="H17" s="3">
-        <v>1458100</v>
+        <v>1163800</v>
       </c>
       <c r="I17" s="3">
-        <v>1228000</v>
+        <v>1331600</v>
       </c>
       <c r="J17" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1392300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1354600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>167900</v>
+        <v>233900</v>
       </c>
       <c r="E18" s="3">
-        <v>307900</v>
+        <v>153400</v>
       </c>
       <c r="F18" s="3">
-        <v>254800</v>
+        <v>281200</v>
       </c>
       <c r="G18" s="3">
-        <v>278200</v>
+        <v>232700</v>
       </c>
       <c r="H18" s="3">
-        <v>188200</v>
+        <v>254100</v>
       </c>
       <c r="I18" s="3">
-        <v>289700</v>
+        <v>171900</v>
       </c>
       <c r="J18" s="3">
+        <v>264600</v>
+      </c>
+      <c r="K18" s="3">
         <v>81400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>264600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="3">
-        <v>13700</v>
+        <v>5200</v>
       </c>
       <c r="H20" s="3">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3300</v>
+        <v>8700</v>
       </c>
       <c r="J20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>255000</v>
+        <v>315200</v>
       </c>
       <c r="E21" s="3">
-        <v>396300</v>
+        <v>232900</v>
       </c>
       <c r="F21" s="3">
-        <v>342200</v>
+        <v>361900</v>
       </c>
       <c r="G21" s="3">
-        <v>370400</v>
+        <v>312500</v>
       </c>
       <c r="H21" s="3">
-        <v>274900</v>
+        <v>338300</v>
       </c>
       <c r="I21" s="3">
-        <v>362800</v>
+        <v>251100</v>
       </c>
       <c r="J21" s="3">
+        <v>331300</v>
+      </c>
+      <c r="K21" s="3">
         <v>171100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>327600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>173400</v>
+        <v>239800</v>
       </c>
       <c r="E23" s="3">
-        <v>314700</v>
+        <v>158300</v>
       </c>
       <c r="F23" s="3">
-        <v>260500</v>
+        <v>287400</v>
       </c>
       <c r="G23" s="3">
-        <v>291900</v>
+        <v>237900</v>
       </c>
       <c r="H23" s="3">
-        <v>197700</v>
+        <v>266600</v>
       </c>
       <c r="I23" s="3">
-        <v>286400</v>
+        <v>180600</v>
       </c>
       <c r="J23" s="3">
+        <v>261600</v>
+      </c>
+      <c r="K23" s="3">
         <v>95400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>245900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69500</v>
+        <v>88200</v>
       </c>
       <c r="E24" s="3">
-        <v>95300</v>
+        <v>63500</v>
       </c>
       <c r="F24" s="3">
-        <v>67400</v>
+        <v>87000</v>
       </c>
       <c r="G24" s="3">
-        <v>95000</v>
+        <v>61600</v>
       </c>
       <c r="H24" s="3">
-        <v>73500</v>
+        <v>86800</v>
       </c>
       <c r="I24" s="3">
-        <v>82700</v>
+        <v>67100</v>
       </c>
       <c r="J24" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K24" s="3">
         <v>70600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103900</v>
+        <v>151600</v>
       </c>
       <c r="E26" s="3">
-        <v>219400</v>
+        <v>94900</v>
       </c>
       <c r="F26" s="3">
-        <v>193000</v>
+        <v>200400</v>
       </c>
       <c r="G26" s="3">
-        <v>196800</v>
+        <v>176300</v>
       </c>
       <c r="H26" s="3">
-        <v>124200</v>
+        <v>179800</v>
       </c>
       <c r="I26" s="3">
-        <v>203700</v>
+        <v>113500</v>
       </c>
       <c r="J26" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K26" s="3">
         <v>24800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>187000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>92100</v>
+        <v>131100</v>
       </c>
       <c r="E27" s="3">
-        <v>187500</v>
+        <v>84100</v>
       </c>
       <c r="F27" s="3">
-        <v>169400</v>
+        <v>171300</v>
       </c>
       <c r="G27" s="3">
-        <v>171500</v>
+        <v>154700</v>
       </c>
       <c r="H27" s="3">
-        <v>104700</v>
+        <v>156600</v>
       </c>
       <c r="I27" s="3">
-        <v>177400</v>
+        <v>95600</v>
       </c>
       <c r="J27" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>169300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-6200</v>
       </c>
       <c r="G32" s="3">
-        <v>-13700</v>
+        <v>-5200</v>
       </c>
       <c r="H32" s="3">
-        <v>-9500</v>
+        <v>-12500</v>
       </c>
       <c r="I32" s="3">
-        <v>3300</v>
+        <v>-8700</v>
       </c>
       <c r="J32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>92100</v>
+        <v>131100</v>
       </c>
       <c r="E33" s="3">
-        <v>187500</v>
+        <v>84100</v>
       </c>
       <c r="F33" s="3">
-        <v>169400</v>
+        <v>171300</v>
       </c>
       <c r="G33" s="3">
-        <v>171500</v>
+        <v>154700</v>
       </c>
       <c r="H33" s="3">
-        <v>104700</v>
+        <v>156600</v>
       </c>
       <c r="I33" s="3">
-        <v>177400</v>
+        <v>95600</v>
       </c>
       <c r="J33" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>169300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>92100</v>
+        <v>131100</v>
       </c>
       <c r="E35" s="3">
-        <v>187500</v>
+        <v>84100</v>
       </c>
       <c r="F35" s="3">
-        <v>169400</v>
+        <v>171300</v>
       </c>
       <c r="G35" s="3">
-        <v>171500</v>
+        <v>154700</v>
       </c>
       <c r="H35" s="3">
-        <v>104700</v>
+        <v>156600</v>
       </c>
       <c r="I35" s="3">
-        <v>177400</v>
+        <v>95600</v>
       </c>
       <c r="J35" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>169300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,296 +1706,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1599800</v>
+        <v>1739400</v>
       </c>
       <c r="E41" s="3">
-        <v>1594100</v>
+        <v>1461000</v>
       </c>
       <c r="F41" s="3">
-        <v>1838500</v>
+        <v>1455800</v>
       </c>
       <c r="G41" s="3">
-        <v>1795300</v>
+        <v>1679000</v>
       </c>
       <c r="H41" s="3">
-        <v>1701900</v>
+        <v>1639500</v>
       </c>
       <c r="I41" s="3">
-        <v>1561200</v>
+        <v>1554300</v>
       </c>
       <c r="J41" s="3">
+        <v>1425800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1443400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1273800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1021500</v>
+        <v>880600</v>
       </c>
       <c r="E42" s="3">
-        <v>971600</v>
+        <v>932900</v>
       </c>
       <c r="F42" s="3">
-        <v>857500</v>
+        <v>887300</v>
       </c>
       <c r="G42" s="3">
-        <v>829400</v>
+        <v>783100</v>
       </c>
       <c r="H42" s="3">
-        <v>832400</v>
+        <v>757400</v>
       </c>
       <c r="I42" s="3">
-        <v>690100</v>
+        <v>760200</v>
       </c>
       <c r="J42" s="3">
+        <v>630200</v>
+      </c>
+      <c r="K42" s="3">
         <v>763600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>757100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1103500</v>
+        <v>952600</v>
       </c>
       <c r="E43" s="3">
-        <v>957100</v>
+        <v>1007800</v>
       </c>
       <c r="F43" s="3">
-        <v>931000</v>
+        <v>874100</v>
       </c>
       <c r="G43" s="3">
-        <v>922700</v>
+        <v>850200</v>
       </c>
       <c r="H43" s="3">
-        <v>961300</v>
+        <v>842700</v>
       </c>
       <c r="I43" s="3">
-        <v>857500</v>
+        <v>877900</v>
       </c>
       <c r="J43" s="3">
+        <v>783100</v>
+      </c>
+      <c r="K43" s="3">
         <v>851100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>910600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>766100</v>
+        <v>774300</v>
       </c>
       <c r="E44" s="3">
-        <v>690000</v>
+        <v>699600</v>
       </c>
       <c r="F44" s="3">
-        <v>623200</v>
+        <v>630200</v>
       </c>
       <c r="G44" s="3">
-        <v>569800</v>
+        <v>569100</v>
       </c>
       <c r="H44" s="3">
-        <v>525600</v>
+        <v>520400</v>
       </c>
       <c r="I44" s="3">
-        <v>566400</v>
+        <v>480000</v>
       </c>
       <c r="J44" s="3">
+        <v>517200</v>
+      </c>
+      <c r="K44" s="3">
         <v>554400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>522100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>181400</v>
+        <v>171100</v>
       </c>
       <c r="E45" s="3">
-        <v>176300</v>
+        <v>165700</v>
       </c>
       <c r="F45" s="3">
-        <v>165900</v>
+        <v>161000</v>
       </c>
       <c r="G45" s="3">
-        <v>159100</v>
+        <v>151500</v>
       </c>
       <c r="H45" s="3">
-        <v>166700</v>
+        <v>145300</v>
       </c>
       <c r="I45" s="3">
-        <v>158500</v>
+        <v>152200</v>
       </c>
       <c r="J45" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K45" s="3">
         <v>161900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>191900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4672200</v>
+        <v>4518100</v>
       </c>
       <c r="E46" s="3">
-        <v>4389100</v>
+        <v>4266900</v>
       </c>
       <c r="F46" s="3">
-        <v>4416100</v>
+        <v>4008300</v>
       </c>
       <c r="G46" s="3">
-        <v>4276300</v>
+        <v>4033000</v>
       </c>
       <c r="H46" s="3">
-        <v>4187900</v>
+        <v>3905300</v>
       </c>
       <c r="I46" s="3">
-        <v>3833500</v>
+        <v>3824600</v>
       </c>
       <c r="J46" s="3">
+        <v>3501000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3774400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3655500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>570000</v>
+        <v>442800</v>
       </c>
       <c r="E47" s="3">
-        <v>460700</v>
+        <v>520500</v>
       </c>
       <c r="F47" s="3">
-        <v>427600</v>
+        <v>420800</v>
       </c>
       <c r="G47" s="3">
-        <v>386100</v>
+        <v>390500</v>
       </c>
       <c r="H47" s="3">
-        <v>329500</v>
+        <v>352600</v>
       </c>
       <c r="I47" s="3">
-        <v>322800</v>
+        <v>301000</v>
       </c>
       <c r="J47" s="3">
+        <v>294800</v>
+      </c>
+      <c r="K47" s="3">
         <v>369200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>387300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2317500</v>
+        <v>2211900</v>
       </c>
       <c r="E48" s="3">
-        <v>2276200</v>
+        <v>2116500</v>
       </c>
       <c r="F48" s="3">
-        <v>2276400</v>
+        <v>2078800</v>
       </c>
       <c r="G48" s="3">
-        <v>2264000</v>
+        <v>2078900</v>
       </c>
       <c r="H48" s="3">
-        <v>2207700</v>
+        <v>2067600</v>
       </c>
       <c r="I48" s="3">
-        <v>2200400</v>
+        <v>2016200</v>
       </c>
       <c r="J48" s="3">
+        <v>2009500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2227900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2416100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>728500</v>
+        <v>701400</v>
       </c>
       <c r="E49" s="3">
-        <v>754700</v>
+        <v>665300</v>
       </c>
       <c r="F49" s="3">
-        <v>771100</v>
+        <v>689300</v>
       </c>
       <c r="G49" s="3">
-        <v>789100</v>
+        <v>704200</v>
       </c>
       <c r="H49" s="3">
-        <v>767800</v>
+        <v>720700</v>
       </c>
       <c r="I49" s="3">
-        <v>762600</v>
+        <v>701100</v>
       </c>
       <c r="J49" s="3">
+        <v>696400</v>
+      </c>
+      <c r="K49" s="3">
         <v>781000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>788500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>136500</v>
+        <v>125400</v>
       </c>
       <c r="E52" s="3">
-        <v>133300</v>
+        <v>124600</v>
       </c>
       <c r="F52" s="3">
-        <v>134000</v>
+        <v>121700</v>
       </c>
       <c r="G52" s="3">
+        <v>122400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>116100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>116800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>127300</v>
+      </c>
+      <c r="L52" s="3">
         <v>127200</v>
       </c>
-      <c r="H52" s="3">
-        <v>127900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>126100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>127300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>127200</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8424700</v>
+        <v>7999600</v>
       </c>
       <c r="E54" s="3">
-        <v>8014000</v>
+        <v>7693800</v>
       </c>
       <c r="F54" s="3">
-        <v>8025300</v>
+        <v>7318800</v>
       </c>
       <c r="G54" s="3">
-        <v>7842800</v>
+        <v>7329100</v>
       </c>
       <c r="H54" s="3">
-        <v>7620800</v>
+        <v>7162400</v>
       </c>
       <c r="I54" s="3">
-        <v>7245500</v>
+        <v>6959700</v>
       </c>
       <c r="J54" s="3">
+        <v>6616900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7279800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7374600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1426600</v>
+        <v>1252000</v>
       </c>
       <c r="E57" s="3">
-        <v>1294500</v>
+        <v>946700</v>
       </c>
       <c r="F57" s="3">
-        <v>1385500</v>
+        <v>1182200</v>
       </c>
       <c r="G57" s="3">
-        <v>1243700</v>
+        <v>1265300</v>
       </c>
       <c r="H57" s="3">
-        <v>864500</v>
+        <v>1135800</v>
       </c>
       <c r="I57" s="3">
-        <v>1139700</v>
+        <v>789500</v>
       </c>
       <c r="J57" s="3">
+        <v>1040800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1261400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1214700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>289000</v>
+        <v>305800</v>
       </c>
       <c r="E58" s="3">
-        <v>115400</v>
+        <v>306000</v>
       </c>
       <c r="F58" s="3">
-        <v>138200</v>
+        <v>105300</v>
       </c>
       <c r="G58" s="3">
-        <v>104700</v>
+        <v>126200</v>
       </c>
       <c r="H58" s="3">
-        <v>125500</v>
+        <v>95600</v>
       </c>
       <c r="I58" s="3">
-        <v>89400</v>
+        <v>114600</v>
       </c>
       <c r="J58" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K58" s="3">
         <v>55300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>625500</v>
+        <v>560400</v>
       </c>
       <c r="E59" s="3">
-        <v>571200</v>
+        <v>885300</v>
       </c>
       <c r="F59" s="3">
-        <v>590300</v>
+        <v>521600</v>
       </c>
       <c r="G59" s="3">
-        <v>540200</v>
+        <v>539100</v>
       </c>
       <c r="H59" s="3">
-        <v>999300</v>
+        <v>493400</v>
       </c>
       <c r="I59" s="3">
-        <v>541400</v>
+        <v>912600</v>
       </c>
       <c r="J59" s="3">
+        <v>494500</v>
+      </c>
+      <c r="K59" s="3">
         <v>536500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>484400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2341100</v>
+        <v>2118200</v>
       </c>
       <c r="E60" s="3">
-        <v>1981000</v>
+        <v>2138000</v>
       </c>
       <c r="F60" s="3">
-        <v>2114000</v>
+        <v>1809100</v>
       </c>
       <c r="G60" s="3">
-        <v>1888600</v>
+        <v>1930600</v>
       </c>
       <c r="H60" s="3">
-        <v>1989300</v>
+        <v>1724800</v>
       </c>
       <c r="I60" s="3">
-        <v>1770400</v>
+        <v>1816700</v>
       </c>
       <c r="J60" s="3">
+        <v>1616900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1853200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1749300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37800</v>
+        <v>36300</v>
       </c>
       <c r="E61" s="3">
-        <v>207900</v>
+        <v>281900</v>
       </c>
       <c r="F61" s="3">
-        <v>208100</v>
+        <v>189900</v>
       </c>
       <c r="G61" s="3">
-        <v>207900</v>
+        <v>190000</v>
       </c>
       <c r="H61" s="3">
-        <v>506400</v>
+        <v>189800</v>
       </c>
       <c r="I61" s="3">
-        <v>215500</v>
+        <v>462400</v>
       </c>
       <c r="J61" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K61" s="3">
         <v>240600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>242000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>625500</v>
+        <v>604200</v>
       </c>
       <c r="E62" s="3">
-        <v>633800</v>
+        <v>323900</v>
       </c>
       <c r="F62" s="3">
-        <v>628700</v>
+        <v>578800</v>
       </c>
       <c r="G62" s="3">
-        <v>657100</v>
+        <v>574100</v>
       </c>
       <c r="H62" s="3">
-        <v>325700</v>
+        <v>600100</v>
       </c>
       <c r="I62" s="3">
-        <v>629000</v>
+        <v>297400</v>
       </c>
       <c r="J62" s="3">
+        <v>574500</v>
+      </c>
+      <c r="K62" s="3">
         <v>626100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>683700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3668000</v>
+        <v>3418500</v>
       </c>
       <c r="E66" s="3">
-        <v>3455300</v>
+        <v>3349800</v>
       </c>
       <c r="F66" s="3">
-        <v>3551000</v>
+        <v>3155600</v>
       </c>
       <c r="G66" s="3">
-        <v>3390000</v>
+        <v>3243000</v>
       </c>
       <c r="H66" s="3">
-        <v>3415500</v>
+        <v>3095900</v>
       </c>
       <c r="I66" s="3">
-        <v>3182900</v>
+        <v>3119200</v>
       </c>
       <c r="J66" s="3">
+        <v>2906800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3271700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3268400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5117500</v>
+        <v>4721700</v>
       </c>
       <c r="E72" s="3">
-        <v>5025400</v>
+        <v>4675100</v>
       </c>
       <c r="F72" s="3">
-        <v>4930600</v>
+        <v>4589400</v>
       </c>
       <c r="G72" s="3">
-        <v>4761300</v>
+        <v>4502900</v>
       </c>
       <c r="H72" s="3">
-        <v>4671800</v>
+        <v>4348300</v>
       </c>
       <c r="I72" s="3">
-        <v>4571000</v>
+        <v>4266500</v>
       </c>
       <c r="J72" s="3">
+        <v>4174400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4470400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4615900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4756700</v>
+        <v>4581100</v>
       </c>
       <c r="E76" s="3">
-        <v>4558700</v>
+        <v>4344000</v>
       </c>
       <c r="F76" s="3">
-        <v>4474300</v>
+        <v>4163200</v>
       </c>
       <c r="G76" s="3">
-        <v>4452800</v>
+        <v>4086100</v>
       </c>
       <c r="H76" s="3">
-        <v>4205300</v>
+        <v>4066500</v>
       </c>
       <c r="I76" s="3">
-        <v>4062600</v>
+        <v>3840500</v>
       </c>
       <c r="J76" s="3">
+        <v>3710100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4008100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4106200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>92100</v>
+        <v>131100</v>
       </c>
       <c r="E81" s="3">
-        <v>187500</v>
+        <v>84100</v>
       </c>
       <c r="F81" s="3">
-        <v>169400</v>
+        <v>171300</v>
       </c>
       <c r="G81" s="3">
-        <v>171500</v>
+        <v>154700</v>
       </c>
       <c r="H81" s="3">
-        <v>104700</v>
+        <v>156600</v>
       </c>
       <c r="I81" s="3">
-        <v>177400</v>
+        <v>95600</v>
       </c>
       <c r="J81" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>169300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81700</v>
+        <v>75500</v>
       </c>
       <c r="E83" s="3">
-        <v>81600</v>
+        <v>74600</v>
       </c>
       <c r="F83" s="3">
+        <v>74500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>74700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>71700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>70500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="L83" s="3">
         <v>81800</v>
       </c>
-      <c r="G83" s="3">
-        <v>78500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>77200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>76400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>75700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>81800</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>212300</v>
+        <v>191200</v>
       </c>
       <c r="E89" s="3">
-        <v>160300</v>
+        <v>193900</v>
       </c>
       <c r="F89" s="3">
-        <v>334500</v>
+        <v>146400</v>
       </c>
       <c r="G89" s="3">
-        <v>190800</v>
+        <v>305500</v>
       </c>
       <c r="H89" s="3">
-        <v>375400</v>
+        <v>174200</v>
       </c>
       <c r="I89" s="3">
-        <v>268000</v>
+        <v>342900</v>
       </c>
       <c r="J89" s="3">
+        <v>244700</v>
+      </c>
+      <c r="K89" s="3">
         <v>260800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>389800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-80100</v>
+        <v>-52100</v>
       </c>
       <c r="E91" s="3">
-        <v>-80100</v>
+        <v>-73200</v>
       </c>
       <c r="F91" s="3">
-        <v>-77400</v>
+        <v>-73200</v>
       </c>
       <c r="G91" s="3">
-        <v>-58100</v>
+        <v>-70700</v>
       </c>
       <c r="H91" s="3">
-        <v>-87400</v>
+        <v>-53100</v>
       </c>
       <c r="I91" s="3">
-        <v>-81400</v>
+        <v>-79800</v>
       </c>
       <c r="J91" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-67700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-68600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-227900</v>
+        <v>90000</v>
       </c>
       <c r="E94" s="3">
-        <v>-230100</v>
+        <v>-208100</v>
       </c>
       <c r="F94" s="3">
-        <v>-165700</v>
+        <v>-210200</v>
       </c>
       <c r="G94" s="3">
-        <v>-57300</v>
+        <v>-151300</v>
       </c>
       <c r="H94" s="3">
-        <v>-213400</v>
+        <v>-52300</v>
       </c>
       <c r="I94" s="3">
-        <v>31400</v>
+        <v>-194800</v>
       </c>
       <c r="J94" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-64600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-112700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3446,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-91500</v>
-      </c>
       <c r="F96" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="G96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-81800</v>
-      </c>
       <c r="H96" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-81500</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-74500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-73600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7700</v>
+        <v>-57200</v>
       </c>
       <c r="E100" s="3">
-        <v>-175500</v>
+        <v>-7000</v>
       </c>
       <c r="F100" s="3">
-        <v>-124400</v>
+        <v>-160300</v>
       </c>
       <c r="G100" s="3">
-        <v>-77800</v>
+        <v>-113600</v>
       </c>
       <c r="H100" s="3">
-        <v>-36500</v>
+        <v>-71000</v>
       </c>
       <c r="I100" s="3">
-        <v>-121600</v>
+        <v>-33300</v>
       </c>
       <c r="J100" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-42600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-103200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29000</v>
+        <v>54500</v>
       </c>
       <c r="E101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1200</v>
-      </c>
       <c r="G101" s="3">
-        <v>37700</v>
+        <v>-1100</v>
       </c>
       <c r="H101" s="3">
-        <v>15100</v>
+        <v>34400</v>
       </c>
       <c r="I101" s="3">
-        <v>-60000</v>
+        <v>13800</v>
       </c>
       <c r="J101" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="K101" s="3">
         <v>56400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-34700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5700</v>
+        <v>278400</v>
       </c>
       <c r="E102" s="3">
-        <v>-244400</v>
+        <v>5200</v>
       </c>
       <c r="F102" s="3">
-        <v>43200</v>
+        <v>-223200</v>
       </c>
       <c r="G102" s="3">
-        <v>93400</v>
+        <v>39500</v>
       </c>
       <c r="H102" s="3">
-        <v>140700</v>
+        <v>85300</v>
       </c>
       <c r="I102" s="3">
-        <v>117800</v>
+        <v>128500</v>
       </c>
       <c r="J102" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K102" s="3">
         <v>210000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>139200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1592100</v>
+        <v>1592400</v>
       </c>
       <c r="E8" s="3">
-        <v>1642500</v>
+        <v>1498100</v>
       </c>
       <c r="F8" s="3">
-        <v>1518400</v>
+        <v>1545500</v>
       </c>
       <c r="G8" s="3">
-        <v>1518600</v>
+        <v>1428700</v>
       </c>
       <c r="H8" s="3">
-        <v>1417900</v>
+        <v>1429000</v>
       </c>
       <c r="I8" s="3">
-        <v>1503500</v>
+        <v>1334200</v>
       </c>
       <c r="J8" s="3">
+        <v>1414700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1386000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1473700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1619200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>996800</v>
+        <v>1000500</v>
       </c>
       <c r="E9" s="3">
-        <v>1024600</v>
+        <v>938000</v>
       </c>
       <c r="F9" s="3">
-        <v>901000</v>
+        <v>964100</v>
       </c>
       <c r="G9" s="3">
-        <v>887400</v>
+        <v>847800</v>
       </c>
       <c r="H9" s="3">
-        <v>841100</v>
+        <v>835000</v>
       </c>
       <c r="I9" s="3">
-        <v>906800</v>
+        <v>791500</v>
       </c>
       <c r="J9" s="3">
+        <v>853200</v>
+      </c>
+      <c r="K9" s="3">
         <v>813100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>875600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>981800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>595200</v>
+        <v>591800</v>
       </c>
       <c r="E10" s="3">
-        <v>617900</v>
+        <v>560100</v>
       </c>
       <c r="F10" s="3">
-        <v>617400</v>
+        <v>581400</v>
       </c>
       <c r="G10" s="3">
-        <v>631300</v>
+        <v>580900</v>
       </c>
       <c r="H10" s="3">
-        <v>576800</v>
+        <v>594000</v>
       </c>
       <c r="I10" s="3">
-        <v>596700</v>
+        <v>542700</v>
       </c>
       <c r="J10" s="3">
+        <v>561500</v>
+      </c>
+      <c r="K10" s="3">
         <v>572900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>598100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>637400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
-        <v>18600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>16700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>13900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,58 +950,64 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>137700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21500</v>
+        <v>19700</v>
       </c>
       <c r="E15" s="3">
-        <v>18800</v>
+        <v>20300</v>
       </c>
       <c r="F15" s="3">
-        <v>21400</v>
+        <v>17700</v>
       </c>
       <c r="G15" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="H15" s="3">
-        <v>21300</v>
+        <v>19300</v>
       </c>
       <c r="I15" s="3">
-        <v>22000</v>
+        <v>20100</v>
       </c>
       <c r="J15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K15" s="3">
         <v>20400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1358100</v>
+        <v>1414300</v>
       </c>
       <c r="E17" s="3">
-        <v>1489100</v>
+        <v>1277900</v>
       </c>
       <c r="F17" s="3">
-        <v>1237200</v>
+        <v>1401200</v>
       </c>
       <c r="G17" s="3">
-        <v>1286000</v>
+        <v>1164100</v>
       </c>
       <c r="H17" s="3">
-        <v>1163800</v>
+        <v>1210000</v>
       </c>
       <c r="I17" s="3">
-        <v>1331600</v>
+        <v>1095100</v>
       </c>
       <c r="J17" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1121400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1392300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1354600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>233900</v>
+        <v>178100</v>
       </c>
       <c r="E18" s="3">
-        <v>153400</v>
+        <v>220100</v>
       </c>
       <c r="F18" s="3">
-        <v>281200</v>
+        <v>144300</v>
       </c>
       <c r="G18" s="3">
-        <v>232700</v>
+        <v>264600</v>
       </c>
       <c r="H18" s="3">
-        <v>254100</v>
+        <v>218900</v>
       </c>
       <c r="I18" s="3">
-        <v>171900</v>
+        <v>239100</v>
       </c>
       <c r="J18" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K18" s="3">
         <v>264600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>264600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G20" s="3">
         <v>5800</v>
       </c>
-      <c r="E20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5200</v>
-      </c>
       <c r="H20" s="3">
-        <v>12500</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>8700</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>315200</v>
+        <v>264000</v>
       </c>
       <c r="E21" s="3">
-        <v>232900</v>
+        <v>296600</v>
       </c>
       <c r="F21" s="3">
-        <v>361900</v>
+        <v>219200</v>
       </c>
       <c r="G21" s="3">
-        <v>312500</v>
+        <v>340500</v>
       </c>
       <c r="H21" s="3">
-        <v>338300</v>
+        <v>294100</v>
       </c>
       <c r="I21" s="3">
-        <v>251100</v>
+        <v>318300</v>
       </c>
       <c r="J21" s="3">
+        <v>236200</v>
+      </c>
+      <c r="K21" s="3">
         <v>331300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>327600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>239800</v>
+        <v>187600</v>
       </c>
       <c r="E23" s="3">
-        <v>158300</v>
+        <v>225600</v>
       </c>
       <c r="F23" s="3">
-        <v>287400</v>
+        <v>149000</v>
       </c>
       <c r="G23" s="3">
-        <v>237900</v>
+        <v>270400</v>
       </c>
       <c r="H23" s="3">
-        <v>266600</v>
+        <v>223800</v>
       </c>
       <c r="I23" s="3">
-        <v>180600</v>
+        <v>250800</v>
       </c>
       <c r="J23" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K23" s="3">
         <v>261600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>245900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>88200</v>
+        <v>61800</v>
       </c>
       <c r="E24" s="3">
-        <v>63500</v>
+        <v>82900</v>
       </c>
       <c r="F24" s="3">
-        <v>87000</v>
+        <v>59700</v>
       </c>
       <c r="G24" s="3">
-        <v>61600</v>
+        <v>81900</v>
       </c>
       <c r="H24" s="3">
-        <v>86800</v>
+        <v>58000</v>
       </c>
       <c r="I24" s="3">
-        <v>67100</v>
+        <v>81700</v>
       </c>
       <c r="J24" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K24" s="3">
         <v>75600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>70600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>151600</v>
+        <v>125800</v>
       </c>
       <c r="E26" s="3">
-        <v>94900</v>
+        <v>142600</v>
       </c>
       <c r="F26" s="3">
-        <v>200400</v>
+        <v>89300</v>
       </c>
       <c r="G26" s="3">
-        <v>176300</v>
+        <v>188500</v>
       </c>
       <c r="H26" s="3">
-        <v>179800</v>
+        <v>165900</v>
       </c>
       <c r="I26" s="3">
-        <v>113500</v>
+        <v>169200</v>
       </c>
       <c r="J26" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K26" s="3">
         <v>186000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>187000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>131100</v>
+        <v>109500</v>
       </c>
       <c r="E27" s="3">
-        <v>84100</v>
+        <v>123300</v>
       </c>
       <c r="F27" s="3">
-        <v>171300</v>
+        <v>79100</v>
       </c>
       <c r="G27" s="3">
-        <v>154700</v>
+        <v>161200</v>
       </c>
       <c r="H27" s="3">
-        <v>156600</v>
+        <v>145600</v>
       </c>
       <c r="I27" s="3">
-        <v>95600</v>
+        <v>147400</v>
       </c>
       <c r="J27" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K27" s="3">
         <v>162000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>169300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-12500</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>-8700</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>131100</v>
+        <v>109500</v>
       </c>
       <c r="E33" s="3">
-        <v>84100</v>
+        <v>123300</v>
       </c>
       <c r="F33" s="3">
-        <v>171300</v>
+        <v>79100</v>
       </c>
       <c r="G33" s="3">
-        <v>154700</v>
+        <v>161200</v>
       </c>
       <c r="H33" s="3">
-        <v>156600</v>
+        <v>145600</v>
       </c>
       <c r="I33" s="3">
-        <v>95600</v>
+        <v>147400</v>
       </c>
       <c r="J33" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K33" s="3">
         <v>162000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>169300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>131100</v>
+        <v>109500</v>
       </c>
       <c r="E35" s="3">
-        <v>84100</v>
+        <v>123300</v>
       </c>
       <c r="F35" s="3">
-        <v>171300</v>
+        <v>79100</v>
       </c>
       <c r="G35" s="3">
-        <v>154700</v>
+        <v>161200</v>
       </c>
       <c r="H35" s="3">
-        <v>156600</v>
+        <v>145600</v>
       </c>
       <c r="I35" s="3">
-        <v>95600</v>
+        <v>147400</v>
       </c>
       <c r="J35" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K35" s="3">
         <v>162000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>169300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,323 +1793,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1739400</v>
+        <v>1774200</v>
       </c>
       <c r="E41" s="3">
-        <v>1461000</v>
+        <v>1636700</v>
       </c>
       <c r="F41" s="3">
-        <v>1455800</v>
+        <v>1374700</v>
       </c>
       <c r="G41" s="3">
-        <v>1679000</v>
+        <v>1369800</v>
       </c>
       <c r="H41" s="3">
-        <v>1639500</v>
+        <v>1579900</v>
       </c>
       <c r="I41" s="3">
-        <v>1554300</v>
+        <v>1542700</v>
       </c>
       <c r="J41" s="3">
+        <v>1462500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1425800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1443400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1273800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>880600</v>
+        <v>936500</v>
       </c>
       <c r="E42" s="3">
-        <v>932900</v>
+        <v>828600</v>
       </c>
       <c r="F42" s="3">
-        <v>887300</v>
+        <v>877800</v>
       </c>
       <c r="G42" s="3">
-        <v>783100</v>
+        <v>834900</v>
       </c>
       <c r="H42" s="3">
-        <v>757400</v>
+        <v>736900</v>
       </c>
       <c r="I42" s="3">
-        <v>760200</v>
+        <v>712700</v>
       </c>
       <c r="J42" s="3">
+        <v>715300</v>
+      </c>
+      <c r="K42" s="3">
         <v>630200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>763600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>757100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>952600</v>
+        <v>973800</v>
       </c>
       <c r="E43" s="3">
-        <v>1007800</v>
+        <v>896300</v>
       </c>
       <c r="F43" s="3">
-        <v>874100</v>
+        <v>948300</v>
       </c>
       <c r="G43" s="3">
-        <v>850200</v>
+        <v>822400</v>
       </c>
       <c r="H43" s="3">
-        <v>842700</v>
+        <v>800000</v>
       </c>
       <c r="I43" s="3">
-        <v>877900</v>
+        <v>792900</v>
       </c>
       <c r="J43" s="3">
+        <v>826100</v>
+      </c>
+      <c r="K43" s="3">
         <v>783100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>851100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>910600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>774300</v>
+        <v>839000</v>
       </c>
       <c r="E44" s="3">
-        <v>699600</v>
+        <v>728600</v>
       </c>
       <c r="F44" s="3">
-        <v>630200</v>
+        <v>658300</v>
       </c>
       <c r="G44" s="3">
-        <v>569100</v>
+        <v>592900</v>
       </c>
       <c r="H44" s="3">
-        <v>520400</v>
+        <v>535500</v>
       </c>
       <c r="I44" s="3">
-        <v>480000</v>
+        <v>489700</v>
       </c>
       <c r="J44" s="3">
+        <v>451700</v>
+      </c>
+      <c r="K44" s="3">
         <v>517200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>554400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>522100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>171100</v>
+        <v>199400</v>
       </c>
       <c r="E45" s="3">
-        <v>165700</v>
+        <v>161000</v>
       </c>
       <c r="F45" s="3">
-        <v>161000</v>
+        <v>155900</v>
       </c>
       <c r="G45" s="3">
         <v>151500</v>
       </c>
       <c r="H45" s="3">
-        <v>145300</v>
+        <v>142600</v>
       </c>
       <c r="I45" s="3">
-        <v>152200</v>
+        <v>136700</v>
       </c>
       <c r="J45" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K45" s="3">
         <v>144700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>161900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>191900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4518100</v>
+        <v>4722900</v>
       </c>
       <c r="E46" s="3">
-        <v>4266900</v>
+        <v>4251300</v>
       </c>
       <c r="F46" s="3">
-        <v>4008300</v>
+        <v>4015000</v>
       </c>
       <c r="G46" s="3">
-        <v>4033000</v>
+        <v>3771600</v>
       </c>
       <c r="H46" s="3">
-        <v>3905300</v>
+        <v>3794900</v>
       </c>
       <c r="I46" s="3">
-        <v>3824600</v>
+        <v>3674700</v>
       </c>
       <c r="J46" s="3">
+        <v>3598800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3501000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3774400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3655500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>442800</v>
+        <v>434900</v>
       </c>
       <c r="E47" s="3">
-        <v>520500</v>
+        <v>416700</v>
       </c>
       <c r="F47" s="3">
-        <v>420800</v>
+        <v>489800</v>
       </c>
       <c r="G47" s="3">
-        <v>390500</v>
+        <v>395900</v>
       </c>
       <c r="H47" s="3">
-        <v>352600</v>
+        <v>367500</v>
       </c>
       <c r="I47" s="3">
-        <v>301000</v>
+        <v>331800</v>
       </c>
       <c r="J47" s="3">
+        <v>283200</v>
+      </c>
+      <c r="K47" s="3">
         <v>294800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>369200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>387300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2211900</v>
+        <v>2160200</v>
       </c>
       <c r="E48" s="3">
-        <v>2116500</v>
+        <v>2081300</v>
       </c>
       <c r="F48" s="3">
-        <v>2078800</v>
+        <v>1991500</v>
       </c>
       <c r="G48" s="3">
-        <v>2078900</v>
+        <v>1956000</v>
       </c>
       <c r="H48" s="3">
-        <v>2067600</v>
+        <v>1956200</v>
       </c>
       <c r="I48" s="3">
-        <v>2016200</v>
+        <v>1945500</v>
       </c>
       <c r="J48" s="3">
+        <v>1897100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2009500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2227900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2416100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>701400</v>
+        <v>689200</v>
       </c>
       <c r="E49" s="3">
-        <v>665300</v>
+        <v>660000</v>
       </c>
       <c r="F49" s="3">
-        <v>689300</v>
+        <v>626000</v>
       </c>
       <c r="G49" s="3">
-        <v>704200</v>
+        <v>648600</v>
       </c>
       <c r="H49" s="3">
-        <v>720700</v>
+        <v>662600</v>
       </c>
       <c r="I49" s="3">
-        <v>701100</v>
+        <v>678100</v>
       </c>
       <c r="J49" s="3">
+        <v>659700</v>
+      </c>
+      <c r="K49" s="3">
         <v>696400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>781000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>788500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125400</v>
+        <v>125700</v>
       </c>
       <c r="E52" s="3">
-        <v>124600</v>
+        <v>118000</v>
       </c>
       <c r="F52" s="3">
-        <v>121700</v>
+        <v>117300</v>
       </c>
       <c r="G52" s="3">
-        <v>122400</v>
+        <v>114500</v>
       </c>
       <c r="H52" s="3">
-        <v>116100</v>
+        <v>115200</v>
       </c>
       <c r="I52" s="3">
-        <v>116800</v>
+        <v>109300</v>
       </c>
       <c r="J52" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K52" s="3">
         <v>115200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7999600</v>
+        <v>8132900</v>
       </c>
       <c r="E54" s="3">
-        <v>7693800</v>
+        <v>7527200</v>
       </c>
       <c r="F54" s="3">
-        <v>7318800</v>
+        <v>7239500</v>
       </c>
       <c r="G54" s="3">
-        <v>7329100</v>
+        <v>6886600</v>
       </c>
       <c r="H54" s="3">
-        <v>7162400</v>
+        <v>6896300</v>
       </c>
       <c r="I54" s="3">
-        <v>6959700</v>
+        <v>6739500</v>
       </c>
       <c r="J54" s="3">
+        <v>6548700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6616900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7279800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7374600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1252000</v>
+        <v>1320400</v>
       </c>
       <c r="E57" s="3">
-        <v>946700</v>
+        <v>1178100</v>
       </c>
       <c r="F57" s="3">
-        <v>1182200</v>
+        <v>890800</v>
       </c>
       <c r="G57" s="3">
-        <v>1265300</v>
+        <v>1112400</v>
       </c>
       <c r="H57" s="3">
-        <v>1135800</v>
+        <v>1190600</v>
       </c>
       <c r="I57" s="3">
-        <v>789500</v>
+        <v>1068800</v>
       </c>
       <c r="J57" s="3">
+        <v>742900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1040800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1261400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1214700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>305800</v>
+        <v>277300</v>
       </c>
       <c r="E58" s="3">
-        <v>306000</v>
+        <v>287700</v>
       </c>
       <c r="F58" s="3">
-        <v>105300</v>
+        <v>287900</v>
       </c>
       <c r="G58" s="3">
-        <v>126200</v>
+        <v>99100</v>
       </c>
       <c r="H58" s="3">
-        <v>95600</v>
+        <v>118800</v>
       </c>
       <c r="I58" s="3">
-        <v>114600</v>
+        <v>89900</v>
       </c>
       <c r="J58" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K58" s="3">
         <v>81600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>560400</v>
+        <v>573300</v>
       </c>
       <c r="E59" s="3">
-        <v>885300</v>
+        <v>527300</v>
       </c>
       <c r="F59" s="3">
-        <v>521600</v>
+        <v>833000</v>
       </c>
       <c r="G59" s="3">
-        <v>539100</v>
+        <v>490800</v>
       </c>
       <c r="H59" s="3">
-        <v>493400</v>
+        <v>507300</v>
       </c>
       <c r="I59" s="3">
-        <v>912600</v>
+        <v>464200</v>
       </c>
       <c r="J59" s="3">
+        <v>858700</v>
+      </c>
+      <c r="K59" s="3">
         <v>494500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>536500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>484400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2118200</v>
+        <v>2171100</v>
       </c>
       <c r="E60" s="3">
-        <v>2138000</v>
+        <v>1993100</v>
       </c>
       <c r="F60" s="3">
-        <v>1809100</v>
+        <v>2011700</v>
       </c>
       <c r="G60" s="3">
-        <v>1930600</v>
+        <v>1702300</v>
       </c>
       <c r="H60" s="3">
-        <v>1724800</v>
+        <v>1816600</v>
       </c>
       <c r="I60" s="3">
-        <v>1816700</v>
+        <v>1622900</v>
       </c>
       <c r="J60" s="3">
+        <v>1709500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1616900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1853200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1749300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36300</v>
+        <v>124900</v>
       </c>
       <c r="E61" s="3">
-        <v>281900</v>
+        <v>34200</v>
       </c>
       <c r="F61" s="3">
-        <v>189900</v>
+        <v>265200</v>
       </c>
       <c r="G61" s="3">
-        <v>190000</v>
+        <v>178700</v>
       </c>
       <c r="H61" s="3">
-        <v>189800</v>
+        <v>178800</v>
       </c>
       <c r="I61" s="3">
-        <v>462400</v>
+        <v>178600</v>
       </c>
       <c r="J61" s="3">
+        <v>435100</v>
+      </c>
+      <c r="K61" s="3">
         <v>196800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>240600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>242000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>604200</v>
+        <v>582700</v>
       </c>
       <c r="E62" s="3">
-        <v>323900</v>
+        <v>568500</v>
       </c>
       <c r="F62" s="3">
-        <v>578800</v>
+        <v>304800</v>
       </c>
       <c r="G62" s="3">
-        <v>574100</v>
+        <v>544600</v>
       </c>
       <c r="H62" s="3">
-        <v>600100</v>
+        <v>540200</v>
       </c>
       <c r="I62" s="3">
-        <v>297400</v>
+        <v>564700</v>
       </c>
       <c r="J62" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K62" s="3">
         <v>574500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>626100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>683700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3418500</v>
+        <v>3530200</v>
       </c>
       <c r="E66" s="3">
-        <v>3349800</v>
+        <v>3216600</v>
       </c>
       <c r="F66" s="3">
-        <v>3155600</v>
+        <v>3152000</v>
       </c>
       <c r="G66" s="3">
-        <v>3243000</v>
+        <v>2969200</v>
       </c>
       <c r="H66" s="3">
-        <v>3095900</v>
+        <v>3051500</v>
       </c>
       <c r="I66" s="3">
-        <v>3119200</v>
+        <v>2913100</v>
       </c>
       <c r="J66" s="3">
+        <v>2935000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2906800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3271700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3268400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4721700</v>
+        <v>4547000</v>
       </c>
       <c r="E72" s="3">
-        <v>4675100</v>
+        <v>4442900</v>
       </c>
       <c r="F72" s="3">
-        <v>4589400</v>
+        <v>4399000</v>
       </c>
       <c r="G72" s="3">
-        <v>4502900</v>
+        <v>4318400</v>
       </c>
       <c r="H72" s="3">
-        <v>4348300</v>
+        <v>4237000</v>
       </c>
       <c r="I72" s="3">
-        <v>4266500</v>
+        <v>4091500</v>
       </c>
       <c r="J72" s="3">
+        <v>4014600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4174400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4470400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4615900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4581100</v>
+        <v>4602700</v>
       </c>
       <c r="E76" s="3">
-        <v>4344000</v>
+        <v>4310600</v>
       </c>
       <c r="F76" s="3">
-        <v>4163200</v>
+        <v>4087500</v>
       </c>
       <c r="G76" s="3">
-        <v>4086100</v>
+        <v>3917400</v>
       </c>
       <c r="H76" s="3">
-        <v>4066500</v>
+        <v>3844800</v>
       </c>
       <c r="I76" s="3">
-        <v>3840500</v>
+        <v>3826300</v>
       </c>
       <c r="J76" s="3">
+        <v>3613700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3710100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4008100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4106200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>131100</v>
+        <v>109500</v>
       </c>
       <c r="E81" s="3">
-        <v>84100</v>
+        <v>123300</v>
       </c>
       <c r="F81" s="3">
-        <v>171300</v>
+        <v>79100</v>
       </c>
       <c r="G81" s="3">
-        <v>154700</v>
+        <v>161200</v>
       </c>
       <c r="H81" s="3">
-        <v>156600</v>
+        <v>145600</v>
       </c>
       <c r="I81" s="3">
-        <v>95600</v>
+        <v>147400</v>
       </c>
       <c r="J81" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K81" s="3">
         <v>162000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>169300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75500</v>
+        <v>76400</v>
       </c>
       <c r="E83" s="3">
-        <v>74600</v>
+        <v>71000</v>
       </c>
       <c r="F83" s="3">
-        <v>74500</v>
+        <v>70200</v>
       </c>
       <c r="G83" s="3">
-        <v>74700</v>
+        <v>70100</v>
       </c>
       <c r="H83" s="3">
-        <v>71700</v>
+        <v>70300</v>
       </c>
       <c r="I83" s="3">
-        <v>70500</v>
+        <v>67500</v>
       </c>
       <c r="J83" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K83" s="3">
         <v>69700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>81800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191200</v>
+        <v>182500</v>
       </c>
       <c r="E89" s="3">
-        <v>193900</v>
+        <v>179900</v>
       </c>
       <c r="F89" s="3">
-        <v>146400</v>
+        <v>182400</v>
       </c>
       <c r="G89" s="3">
-        <v>305500</v>
+        <v>137700</v>
       </c>
       <c r="H89" s="3">
-        <v>174200</v>
+        <v>287500</v>
       </c>
       <c r="I89" s="3">
-        <v>342900</v>
+        <v>163900</v>
       </c>
       <c r="J89" s="3">
+        <v>322600</v>
+      </c>
+      <c r="K89" s="3">
         <v>244700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>260800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>389800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-52100</v>
+        <v>-64000</v>
       </c>
       <c r="E91" s="3">
-        <v>-73200</v>
+        <v>-49000</v>
       </c>
       <c r="F91" s="3">
-        <v>-73200</v>
+        <v>-68900</v>
       </c>
       <c r="G91" s="3">
-        <v>-70700</v>
+        <v>-68900</v>
       </c>
       <c r="H91" s="3">
-        <v>-53100</v>
+        <v>-66500</v>
       </c>
       <c r="I91" s="3">
-        <v>-79800</v>
+        <v>-49900</v>
       </c>
       <c r="J91" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-74300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-68600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>90000</v>
+        <v>-117900</v>
       </c>
       <c r="E94" s="3">
-        <v>-208100</v>
+        <v>84600</v>
       </c>
       <c r="F94" s="3">
-        <v>-210200</v>
+        <v>-195800</v>
       </c>
       <c r="G94" s="3">
-        <v>-151300</v>
+        <v>-197800</v>
       </c>
       <c r="H94" s="3">
-        <v>-52300</v>
+        <v>-142400</v>
       </c>
       <c r="I94" s="3">
-        <v>-194800</v>
+        <v>-49300</v>
       </c>
       <c r="J94" s="3">
+        <v>-183300</v>
+      </c>
+      <c r="K94" s="3">
         <v>28700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-112700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-83700</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-83600</v>
-      </c>
       <c r="G96" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="H96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-74700</v>
-      </c>
       <c r="I96" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="J96" s="3">
         <v>100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-73600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57200</v>
+        <v>30700</v>
       </c>
       <c r="E100" s="3">
-        <v>-7000</v>
+        <v>-53800</v>
       </c>
       <c r="F100" s="3">
-        <v>-160300</v>
+        <v>-6600</v>
       </c>
       <c r="G100" s="3">
-        <v>-113600</v>
+        <v>-150800</v>
       </c>
       <c r="H100" s="3">
-        <v>-71000</v>
+        <v>-106900</v>
       </c>
       <c r="I100" s="3">
-        <v>-33300</v>
+        <v>-66800</v>
       </c>
       <c r="J100" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-111000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-42600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-103200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>54500</v>
+        <v>42100</v>
       </c>
       <c r="E101" s="3">
-        <v>26500</v>
+        <v>51300</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>24900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>34400</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
-        <v>13800</v>
+        <v>32400</v>
       </c>
       <c r="J101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-54800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>56400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-34700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278400</v>
+        <v>137400</v>
       </c>
       <c r="E102" s="3">
-        <v>5200</v>
+        <v>262000</v>
       </c>
       <c r="F102" s="3">
-        <v>-223200</v>
+        <v>4900</v>
       </c>
       <c r="G102" s="3">
-        <v>39500</v>
+        <v>-210000</v>
       </c>
       <c r="H102" s="3">
-        <v>85300</v>
+        <v>37100</v>
       </c>
       <c r="I102" s="3">
-        <v>128500</v>
+        <v>80200</v>
       </c>
       <c r="J102" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K102" s="3">
         <v>107600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>210000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>139200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1592400</v>
+        <v>1651500</v>
       </c>
       <c r="E8" s="3">
-        <v>1498100</v>
+        <v>1540200</v>
       </c>
       <c r="F8" s="3">
-        <v>1545500</v>
+        <v>1449000</v>
       </c>
       <c r="G8" s="3">
-        <v>1428700</v>
+        <v>1494900</v>
       </c>
       <c r="H8" s="3">
-        <v>1429000</v>
+        <v>1382000</v>
       </c>
       <c r="I8" s="3">
-        <v>1334200</v>
+        <v>1382200</v>
       </c>
       <c r="J8" s="3">
+        <v>1290500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1414700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1386000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1473700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1619200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1000500</v>
+        <v>1037100</v>
       </c>
       <c r="E9" s="3">
-        <v>938000</v>
+        <v>967800</v>
       </c>
       <c r="F9" s="3">
-        <v>964100</v>
+        <v>907200</v>
       </c>
       <c r="G9" s="3">
-        <v>847800</v>
+        <v>932600</v>
       </c>
       <c r="H9" s="3">
-        <v>835000</v>
+        <v>820000</v>
       </c>
       <c r="I9" s="3">
-        <v>791500</v>
+        <v>807600</v>
       </c>
       <c r="J9" s="3">
+        <v>765500</v>
+      </c>
+      <c r="K9" s="3">
         <v>853200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>813100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>875600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>981800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>591800</v>
+        <v>614400</v>
       </c>
       <c r="E10" s="3">
-        <v>560100</v>
+        <v>572500</v>
       </c>
       <c r="F10" s="3">
-        <v>581400</v>
+        <v>541800</v>
       </c>
       <c r="G10" s="3">
-        <v>580900</v>
+        <v>562300</v>
       </c>
       <c r="H10" s="3">
-        <v>594000</v>
+        <v>561900</v>
       </c>
       <c r="I10" s="3">
-        <v>542700</v>
+        <v>574500</v>
       </c>
       <c r="J10" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K10" s="3">
         <v>561500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>572900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>598100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>637400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16500</v>
+        <v>13400</v>
       </c>
       <c r="E12" s="3">
-        <v>13700</v>
+        <v>15900</v>
       </c>
       <c r="F12" s="3">
-        <v>17500</v>
+        <v>13200</v>
       </c>
       <c r="G12" s="3">
-        <v>13600</v>
+        <v>16900</v>
       </c>
       <c r="H12" s="3">
-        <v>15700</v>
+        <v>13200</v>
       </c>
       <c r="I12" s="3">
-        <v>13100</v>
+        <v>15200</v>
       </c>
       <c r="J12" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K12" s="3">
         <v>16200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,61 +973,67 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>137700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19700</v>
+        <v>17900</v>
       </c>
       <c r="E15" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="F15" s="3">
-        <v>17700</v>
+        <v>19600</v>
       </c>
       <c r="G15" s="3">
-        <v>20200</v>
+        <v>17100</v>
       </c>
       <c r="H15" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="I15" s="3">
-        <v>20100</v>
+        <v>18600</v>
       </c>
       <c r="J15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K15" s="3">
         <v>20700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1414300</v>
+        <v>1402800</v>
       </c>
       <c r="E17" s="3">
-        <v>1277900</v>
+        <v>1368000</v>
       </c>
       <c r="F17" s="3">
-        <v>1401200</v>
+        <v>1236100</v>
       </c>
       <c r="G17" s="3">
-        <v>1164100</v>
+        <v>1355300</v>
       </c>
       <c r="H17" s="3">
-        <v>1210000</v>
+        <v>1126000</v>
       </c>
       <c r="I17" s="3">
-        <v>1095100</v>
+        <v>1170400</v>
       </c>
       <c r="J17" s="3">
+        <v>1059200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1253000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1121400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1392300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1354600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>178100</v>
+        <v>248700</v>
       </c>
       <c r="E18" s="3">
-        <v>220100</v>
+        <v>172200</v>
       </c>
       <c r="F18" s="3">
-        <v>144300</v>
+        <v>212900</v>
       </c>
       <c r="G18" s="3">
+        <v>139600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>256000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>211800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>231200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>161700</v>
+      </c>
+      <c r="L18" s="3">
         <v>264600</v>
       </c>
-      <c r="H18" s="3">
-        <v>218900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>239100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>161700</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
+        <v>81400</v>
+      </c>
+      <c r="N18" s="3">
         <v>264600</v>
       </c>
-      <c r="L18" s="3">
-        <v>81400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>264600</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9500</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>9200</v>
       </c>
       <c r="F20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="G20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>11800</v>
-      </c>
       <c r="J20" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K20" s="3">
         <v>8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>264000</v>
+        <v>320200</v>
       </c>
       <c r="E21" s="3">
-        <v>296600</v>
+        <v>255300</v>
       </c>
       <c r="F21" s="3">
-        <v>219200</v>
+        <v>286900</v>
       </c>
       <c r="G21" s="3">
-        <v>340500</v>
+        <v>212000</v>
       </c>
       <c r="H21" s="3">
-        <v>294100</v>
+        <v>329400</v>
       </c>
       <c r="I21" s="3">
-        <v>318300</v>
+        <v>284500</v>
       </c>
       <c r="J21" s="3">
+        <v>307900</v>
+      </c>
+      <c r="K21" s="3">
         <v>236200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>331300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>171100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>327600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187600</v>
+        <v>248500</v>
       </c>
       <c r="E23" s="3">
-        <v>225600</v>
+        <v>181500</v>
       </c>
       <c r="F23" s="3">
-        <v>149000</v>
+        <v>218200</v>
       </c>
       <c r="G23" s="3">
-        <v>270400</v>
+        <v>144100</v>
       </c>
       <c r="H23" s="3">
-        <v>223800</v>
+        <v>261600</v>
       </c>
       <c r="I23" s="3">
-        <v>250800</v>
+        <v>216500</v>
       </c>
       <c r="J23" s="3">
+        <v>242600</v>
+      </c>
+      <c r="K23" s="3">
         <v>169900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>261600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>245900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61800</v>
+        <v>72700</v>
       </c>
       <c r="E24" s="3">
-        <v>82900</v>
+        <v>59800</v>
       </c>
       <c r="F24" s="3">
-        <v>59700</v>
+        <v>80200</v>
       </c>
       <c r="G24" s="3">
-        <v>81900</v>
+        <v>57800</v>
       </c>
       <c r="H24" s="3">
-        <v>58000</v>
+        <v>79200</v>
       </c>
       <c r="I24" s="3">
-        <v>81700</v>
+        <v>56100</v>
       </c>
       <c r="J24" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K24" s="3">
         <v>63100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>70600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>125800</v>
+        <v>175800</v>
       </c>
       <c r="E26" s="3">
-        <v>142600</v>
+        <v>121700</v>
       </c>
       <c r="F26" s="3">
-        <v>89300</v>
+        <v>138000</v>
       </c>
       <c r="G26" s="3">
-        <v>188500</v>
+        <v>86300</v>
       </c>
       <c r="H26" s="3">
-        <v>165900</v>
+        <v>182400</v>
       </c>
       <c r="I26" s="3">
-        <v>169200</v>
+        <v>160400</v>
       </c>
       <c r="J26" s="3">
+        <v>163600</v>
+      </c>
+      <c r="K26" s="3">
         <v>106800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>186000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>187000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>109500</v>
+        <v>146800</v>
       </c>
       <c r="E27" s="3">
-        <v>123300</v>
+        <v>105900</v>
       </c>
       <c r="F27" s="3">
-        <v>79100</v>
+        <v>119300</v>
       </c>
       <c r="G27" s="3">
-        <v>161200</v>
+        <v>76600</v>
       </c>
       <c r="H27" s="3">
-        <v>145600</v>
+        <v>155900</v>
       </c>
       <c r="I27" s="3">
-        <v>147400</v>
+        <v>140800</v>
       </c>
       <c r="J27" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K27" s="3">
         <v>89900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>162000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>169300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9500</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-9200</v>
       </c>
       <c r="F32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-11800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>109500</v>
+        <v>146800</v>
       </c>
       <c r="E33" s="3">
-        <v>123300</v>
+        <v>105900</v>
       </c>
       <c r="F33" s="3">
-        <v>79100</v>
+        <v>119300</v>
       </c>
       <c r="G33" s="3">
-        <v>161200</v>
+        <v>76600</v>
       </c>
       <c r="H33" s="3">
-        <v>145600</v>
+        <v>155900</v>
       </c>
       <c r="I33" s="3">
-        <v>147400</v>
+        <v>140800</v>
       </c>
       <c r="J33" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K33" s="3">
         <v>89900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>162000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>169300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>109500</v>
+        <v>146800</v>
       </c>
       <c r="E35" s="3">
-        <v>123300</v>
+        <v>105900</v>
       </c>
       <c r="F35" s="3">
-        <v>79100</v>
+        <v>119300</v>
       </c>
       <c r="G35" s="3">
-        <v>161200</v>
+        <v>76600</v>
       </c>
       <c r="H35" s="3">
-        <v>145600</v>
+        <v>155900</v>
       </c>
       <c r="I35" s="3">
-        <v>147400</v>
+        <v>140800</v>
       </c>
       <c r="J35" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K35" s="3">
         <v>89900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>162000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>169300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,350 +1880,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1774200</v>
+        <v>1580800</v>
       </c>
       <c r="E41" s="3">
-        <v>1636700</v>
+        <v>1716100</v>
       </c>
       <c r="F41" s="3">
-        <v>1374700</v>
+        <v>1583100</v>
       </c>
       <c r="G41" s="3">
-        <v>1369800</v>
+        <v>1329700</v>
       </c>
       <c r="H41" s="3">
-        <v>1579900</v>
+        <v>1325000</v>
       </c>
       <c r="I41" s="3">
-        <v>1542700</v>
+        <v>1528100</v>
       </c>
       <c r="J41" s="3">
+        <v>1492200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1462500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1425800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1443400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1273800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>936500</v>
+        <v>889900</v>
       </c>
       <c r="E42" s="3">
-        <v>828600</v>
+        <v>905800</v>
       </c>
       <c r="F42" s="3">
-        <v>877800</v>
+        <v>801500</v>
       </c>
       <c r="G42" s="3">
-        <v>834900</v>
+        <v>849000</v>
       </c>
       <c r="H42" s="3">
-        <v>736900</v>
+        <v>807500</v>
       </c>
       <c r="I42" s="3">
-        <v>712700</v>
+        <v>712800</v>
       </c>
       <c r="J42" s="3">
+        <v>689400</v>
+      </c>
+      <c r="K42" s="3">
         <v>715300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>630200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>763600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>757100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>973800</v>
+        <v>979200</v>
       </c>
       <c r="E43" s="3">
-        <v>896300</v>
+        <v>942000</v>
       </c>
       <c r="F43" s="3">
-        <v>948300</v>
+        <v>867000</v>
       </c>
       <c r="G43" s="3">
-        <v>822400</v>
+        <v>917200</v>
       </c>
       <c r="H43" s="3">
-        <v>800000</v>
+        <v>795500</v>
       </c>
       <c r="I43" s="3">
-        <v>792900</v>
+        <v>773800</v>
       </c>
       <c r="J43" s="3">
+        <v>767000</v>
+      </c>
+      <c r="K43" s="3">
         <v>826100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>783100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>851100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>910600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>839000</v>
+        <v>906700</v>
       </c>
       <c r="E44" s="3">
-        <v>728600</v>
+        <v>811500</v>
       </c>
       <c r="F44" s="3">
-        <v>658300</v>
+        <v>704700</v>
       </c>
       <c r="G44" s="3">
-        <v>592900</v>
+        <v>636800</v>
       </c>
       <c r="H44" s="3">
-        <v>535500</v>
+        <v>573500</v>
       </c>
       <c r="I44" s="3">
-        <v>489700</v>
+        <v>518000</v>
       </c>
       <c r="J44" s="3">
+        <v>473600</v>
+      </c>
+      <c r="K44" s="3">
         <v>451700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>517200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>554400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>522100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>199400</v>
+        <v>204600</v>
       </c>
       <c r="E45" s="3">
-        <v>161000</v>
+        <v>192900</v>
       </c>
       <c r="F45" s="3">
-        <v>155900</v>
+        <v>155800</v>
       </c>
       <c r="G45" s="3">
-        <v>151500</v>
+        <v>150800</v>
       </c>
       <c r="H45" s="3">
-        <v>142600</v>
+        <v>146600</v>
       </c>
       <c r="I45" s="3">
-        <v>136700</v>
+        <v>137900</v>
       </c>
       <c r="J45" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K45" s="3">
         <v>143200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>144700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>161900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>191900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4722900</v>
+        <v>4561200</v>
       </c>
       <c r="E46" s="3">
-        <v>4251300</v>
+        <v>4568300</v>
       </c>
       <c r="F46" s="3">
-        <v>4015000</v>
+        <v>4112100</v>
       </c>
       <c r="G46" s="3">
-        <v>3771600</v>
+        <v>3883500</v>
       </c>
       <c r="H46" s="3">
-        <v>3794900</v>
+        <v>3648100</v>
       </c>
       <c r="I46" s="3">
-        <v>3674700</v>
+        <v>3670600</v>
       </c>
       <c r="J46" s="3">
+        <v>3554400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3598800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3501000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3774400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3655500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>434900</v>
+        <v>489400</v>
       </c>
       <c r="E47" s="3">
-        <v>416700</v>
+        <v>420700</v>
       </c>
       <c r="F47" s="3">
-        <v>489800</v>
+        <v>403000</v>
       </c>
       <c r="G47" s="3">
-        <v>395900</v>
+        <v>473700</v>
       </c>
       <c r="H47" s="3">
-        <v>367500</v>
+        <v>383000</v>
       </c>
       <c r="I47" s="3">
-        <v>331800</v>
+        <v>355400</v>
       </c>
       <c r="J47" s="3">
+        <v>321000</v>
+      </c>
+      <c r="K47" s="3">
         <v>283200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>294800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>369200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>387300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2160200</v>
+        <v>2010600</v>
       </c>
       <c r="E48" s="3">
-        <v>2081300</v>
+        <v>2089400</v>
       </c>
       <c r="F48" s="3">
-        <v>1991500</v>
+        <v>2013200</v>
       </c>
       <c r="G48" s="3">
-        <v>1956000</v>
+        <v>1926300</v>
       </c>
       <c r="H48" s="3">
-        <v>1956200</v>
+        <v>1892000</v>
       </c>
       <c r="I48" s="3">
-        <v>1945500</v>
+        <v>1892100</v>
       </c>
       <c r="J48" s="3">
+        <v>1881800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1897100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2009500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2227900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2416100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>689200</v>
+        <v>677400</v>
       </c>
       <c r="E49" s="3">
-        <v>660000</v>
+        <v>666600</v>
       </c>
       <c r="F49" s="3">
-        <v>626000</v>
+        <v>638400</v>
       </c>
       <c r="G49" s="3">
-        <v>648600</v>
+        <v>605500</v>
       </c>
       <c r="H49" s="3">
-        <v>662600</v>
+        <v>627300</v>
       </c>
       <c r="I49" s="3">
-        <v>678100</v>
+        <v>640900</v>
       </c>
       <c r="J49" s="3">
+        <v>655900</v>
+      </c>
+      <c r="K49" s="3">
         <v>659700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>696400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>781000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>788500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125700</v>
+        <v>119500</v>
       </c>
       <c r="E52" s="3">
-        <v>118000</v>
+        <v>121600</v>
       </c>
       <c r="F52" s="3">
-        <v>117300</v>
+        <v>114100</v>
       </c>
       <c r="G52" s="3">
-        <v>114500</v>
+        <v>113400</v>
       </c>
       <c r="H52" s="3">
+        <v>110800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>111400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>109900</v>
+      </c>
+      <c r="L52" s="3">
         <v>115200</v>
       </c>
-      <c r="I52" s="3">
-        <v>109300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>109900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>115200</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8132900</v>
+        <v>7858200</v>
       </c>
       <c r="E54" s="3">
-        <v>7527200</v>
+        <v>7866600</v>
       </c>
       <c r="F54" s="3">
-        <v>7239500</v>
+        <v>7280800</v>
       </c>
       <c r="G54" s="3">
-        <v>6886600</v>
+        <v>7002500</v>
       </c>
       <c r="H54" s="3">
-        <v>6896300</v>
+        <v>6661100</v>
       </c>
       <c r="I54" s="3">
-        <v>6739500</v>
+        <v>6670500</v>
       </c>
       <c r="J54" s="3">
+        <v>6518800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6548700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6616900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7279800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7374600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1320400</v>
+        <v>1304300</v>
       </c>
       <c r="E57" s="3">
-        <v>1178100</v>
+        <v>1277200</v>
       </c>
       <c r="F57" s="3">
-        <v>890800</v>
+        <v>1139500</v>
       </c>
       <c r="G57" s="3">
-        <v>1112400</v>
+        <v>861700</v>
       </c>
       <c r="H57" s="3">
-        <v>1190600</v>
+        <v>1076000</v>
       </c>
       <c r="I57" s="3">
-        <v>1068800</v>
+        <v>1151600</v>
       </c>
       <c r="J57" s="3">
+        <v>1033800</v>
+      </c>
+      <c r="K57" s="3">
         <v>742900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1040800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1261400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1214700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>277300</v>
+        <v>263600</v>
       </c>
       <c r="E58" s="3">
-        <v>287700</v>
+        <v>268300</v>
       </c>
       <c r="F58" s="3">
-        <v>287900</v>
+        <v>278300</v>
       </c>
       <c r="G58" s="3">
-        <v>99100</v>
+        <v>278500</v>
       </c>
       <c r="H58" s="3">
-        <v>118800</v>
+        <v>95900</v>
       </c>
       <c r="I58" s="3">
-        <v>89900</v>
+        <v>114900</v>
       </c>
       <c r="J58" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K58" s="3">
         <v>107800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>81600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>573300</v>
+        <v>539500</v>
       </c>
       <c r="E59" s="3">
-        <v>527300</v>
+        <v>554600</v>
       </c>
       <c r="F59" s="3">
-        <v>833000</v>
+        <v>510000</v>
       </c>
       <c r="G59" s="3">
-        <v>490800</v>
+        <v>805700</v>
       </c>
       <c r="H59" s="3">
-        <v>507300</v>
+        <v>474700</v>
       </c>
       <c r="I59" s="3">
-        <v>464200</v>
+        <v>490600</v>
       </c>
       <c r="J59" s="3">
+        <v>449000</v>
+      </c>
+      <c r="K59" s="3">
         <v>858700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>494500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>536500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>484400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2171100</v>
+        <v>2107400</v>
       </c>
       <c r="E60" s="3">
-        <v>1993100</v>
+        <v>2100000</v>
       </c>
       <c r="F60" s="3">
-        <v>2011700</v>
+        <v>1927800</v>
       </c>
       <c r="G60" s="3">
-        <v>1702300</v>
+        <v>1945900</v>
       </c>
       <c r="H60" s="3">
-        <v>1816600</v>
+        <v>1646600</v>
       </c>
       <c r="I60" s="3">
-        <v>1622900</v>
+        <v>1757100</v>
       </c>
       <c r="J60" s="3">
+        <v>1569800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1709500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1616900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1853200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1749300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>124900</v>
+        <v>125700</v>
       </c>
       <c r="E61" s="3">
-        <v>34200</v>
+        <v>120800</v>
       </c>
       <c r="F61" s="3">
-        <v>265200</v>
+        <v>33000</v>
       </c>
       <c r="G61" s="3">
-        <v>178700</v>
+        <v>256600</v>
       </c>
       <c r="H61" s="3">
-        <v>178800</v>
+        <v>172800</v>
       </c>
       <c r="I61" s="3">
-        <v>178600</v>
+        <v>173000</v>
       </c>
       <c r="J61" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K61" s="3">
         <v>435100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>196800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>240600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>242000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>582700</v>
+        <v>484900</v>
       </c>
       <c r="E62" s="3">
-        <v>568500</v>
+        <v>563700</v>
       </c>
       <c r="F62" s="3">
-        <v>304800</v>
+        <v>549900</v>
       </c>
       <c r="G62" s="3">
-        <v>544600</v>
+        <v>294800</v>
       </c>
       <c r="H62" s="3">
-        <v>540200</v>
+        <v>526800</v>
       </c>
       <c r="I62" s="3">
-        <v>564700</v>
+        <v>522500</v>
       </c>
       <c r="J62" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K62" s="3">
         <v>279900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>574500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>626100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>683700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3530200</v>
+        <v>3388000</v>
       </c>
       <c r="E66" s="3">
-        <v>3216600</v>
+        <v>3414600</v>
       </c>
       <c r="F66" s="3">
-        <v>3152000</v>
+        <v>3111300</v>
       </c>
       <c r="G66" s="3">
-        <v>2969200</v>
+        <v>3048800</v>
       </c>
       <c r="H66" s="3">
-        <v>3051500</v>
+        <v>2872000</v>
       </c>
       <c r="I66" s="3">
-        <v>2913100</v>
+        <v>2951500</v>
       </c>
       <c r="J66" s="3">
+        <v>2817700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2935000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2906800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3271700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3268400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4547000</v>
+        <v>4464500</v>
       </c>
       <c r="E72" s="3">
-        <v>4442900</v>
+        <v>4398100</v>
       </c>
       <c r="F72" s="3">
-        <v>4399000</v>
+        <v>4297400</v>
       </c>
       <c r="G72" s="3">
-        <v>4318400</v>
+        <v>4255000</v>
       </c>
       <c r="H72" s="3">
-        <v>4237000</v>
+        <v>4177000</v>
       </c>
       <c r="I72" s="3">
-        <v>4091500</v>
+        <v>4098200</v>
       </c>
       <c r="J72" s="3">
+        <v>3957500</v>
+      </c>
+      <c r="K72" s="3">
         <v>4014600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4174400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4470400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4615900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4602700</v>
+        <v>4470200</v>
       </c>
       <c r="E76" s="3">
-        <v>4310600</v>
+        <v>4452000</v>
       </c>
       <c r="F76" s="3">
-        <v>4087500</v>
+        <v>4169500</v>
       </c>
       <c r="G76" s="3">
-        <v>3917400</v>
+        <v>3953700</v>
       </c>
       <c r="H76" s="3">
-        <v>3844800</v>
+        <v>3789100</v>
       </c>
       <c r="I76" s="3">
-        <v>3826300</v>
+        <v>3719000</v>
       </c>
       <c r="J76" s="3">
+        <v>3701100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3613700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3710100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4008100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4106200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>109500</v>
+        <v>146800</v>
       </c>
       <c r="E81" s="3">
-        <v>123300</v>
+        <v>105900</v>
       </c>
       <c r="F81" s="3">
-        <v>79100</v>
+        <v>119300</v>
       </c>
       <c r="G81" s="3">
-        <v>161200</v>
+        <v>76600</v>
       </c>
       <c r="H81" s="3">
-        <v>145600</v>
+        <v>155900</v>
       </c>
       <c r="I81" s="3">
-        <v>147400</v>
+        <v>140800</v>
       </c>
       <c r="J81" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K81" s="3">
         <v>89900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>162000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>169300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>76400</v>
+        <v>71800</v>
       </c>
       <c r="E83" s="3">
-        <v>71000</v>
+        <v>73900</v>
       </c>
       <c r="F83" s="3">
-        <v>70200</v>
+        <v>68700</v>
       </c>
       <c r="G83" s="3">
-        <v>70100</v>
+        <v>67900</v>
       </c>
       <c r="H83" s="3">
-        <v>70300</v>
+        <v>67800</v>
       </c>
       <c r="I83" s="3">
-        <v>67500</v>
+        <v>68000</v>
       </c>
       <c r="J83" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K83" s="3">
         <v>66400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>81800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>182500</v>
+        <v>129200</v>
       </c>
       <c r="E89" s="3">
-        <v>179900</v>
+        <v>176600</v>
       </c>
       <c r="F89" s="3">
-        <v>182400</v>
+        <v>174000</v>
       </c>
       <c r="G89" s="3">
-        <v>137700</v>
+        <v>176400</v>
       </c>
       <c r="H89" s="3">
-        <v>287500</v>
+        <v>133200</v>
       </c>
       <c r="I89" s="3">
-        <v>163900</v>
+        <v>278000</v>
       </c>
       <c r="J89" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K89" s="3">
         <v>322600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>244700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>260800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>389800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-64000</v>
+        <v>-56700</v>
       </c>
       <c r="E91" s="3">
-        <v>-49000</v>
+        <v>-62000</v>
       </c>
       <c r="F91" s="3">
-        <v>-68900</v>
+        <v>-47400</v>
       </c>
       <c r="G91" s="3">
-        <v>-68900</v>
+        <v>-66600</v>
       </c>
       <c r="H91" s="3">
-        <v>-66500</v>
+        <v>-66600</v>
       </c>
       <c r="I91" s="3">
-        <v>-49900</v>
+        <v>-64300</v>
       </c>
       <c r="J91" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-75100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-68600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117900</v>
+        <v>-101900</v>
       </c>
       <c r="E94" s="3">
-        <v>84600</v>
+        <v>-114100</v>
       </c>
       <c r="F94" s="3">
-        <v>-195800</v>
+        <v>81900</v>
       </c>
       <c r="G94" s="3">
-        <v>-197800</v>
+        <v>-189400</v>
       </c>
       <c r="H94" s="3">
-        <v>-142400</v>
+        <v>-191300</v>
       </c>
       <c r="I94" s="3">
-        <v>-49300</v>
+        <v>-137700</v>
       </c>
       <c r="J94" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-183300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>28700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-112700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-78700</v>
-      </c>
       <c r="F96" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="G96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-78700</v>
-      </c>
       <c r="H96" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-70300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-73600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30700</v>
+        <v>-174900</v>
       </c>
       <c r="E100" s="3">
-        <v>-53800</v>
+        <v>29700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6600</v>
+        <v>-52100</v>
       </c>
       <c r="G100" s="3">
-        <v>-150800</v>
+        <v>-6400</v>
       </c>
       <c r="H100" s="3">
-        <v>-106900</v>
+        <v>-145900</v>
       </c>
       <c r="I100" s="3">
-        <v>-66800</v>
+        <v>-103400</v>
       </c>
       <c r="J100" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-31400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-111000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-42600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-103200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42100</v>
+        <v>12400</v>
       </c>
       <c r="E101" s="3">
-        <v>51300</v>
+        <v>40700</v>
       </c>
       <c r="F101" s="3">
-        <v>24900</v>
+        <v>49600</v>
       </c>
       <c r="G101" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>32400</v>
-      </c>
       <c r="J101" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-54800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>56400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-34700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>137400</v>
+        <v>-135200</v>
       </c>
       <c r="E102" s="3">
-        <v>262000</v>
+        <v>132900</v>
       </c>
       <c r="F102" s="3">
-        <v>4900</v>
+        <v>253400</v>
       </c>
       <c r="G102" s="3">
-        <v>-210000</v>
+        <v>4700</v>
       </c>
       <c r="H102" s="3">
-        <v>37100</v>
+        <v>-203200</v>
       </c>
       <c r="I102" s="3">
-        <v>80200</v>
+        <v>35900</v>
       </c>
       <c r="J102" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K102" s="3">
         <v>120900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>210000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>139200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1651500</v>
+        <v>1789500</v>
       </c>
       <c r="E8" s="3">
-        <v>1540200</v>
+        <v>1712100</v>
       </c>
       <c r="F8" s="3">
-        <v>1449000</v>
+        <v>1596700</v>
       </c>
       <c r="G8" s="3">
-        <v>1494900</v>
+        <v>1502100</v>
       </c>
       <c r="H8" s="3">
-        <v>1382000</v>
+        <v>1549700</v>
       </c>
       <c r="I8" s="3">
-        <v>1382200</v>
+        <v>1432600</v>
       </c>
       <c r="J8" s="3">
+        <v>1432900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1290500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1414700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1386000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1473700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1619200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1037100</v>
+        <v>1166300</v>
       </c>
       <c r="E9" s="3">
-        <v>967800</v>
+        <v>1075200</v>
       </c>
       <c r="F9" s="3">
-        <v>907200</v>
+        <v>1003300</v>
       </c>
       <c r="G9" s="3">
-        <v>932600</v>
+        <v>940500</v>
       </c>
       <c r="H9" s="3">
-        <v>820000</v>
+        <v>966800</v>
       </c>
       <c r="I9" s="3">
-        <v>807600</v>
+        <v>850100</v>
       </c>
       <c r="J9" s="3">
+        <v>837200</v>
+      </c>
+      <c r="K9" s="3">
         <v>765500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>853200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>813100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>875600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>981800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>614400</v>
+        <v>623200</v>
       </c>
       <c r="E10" s="3">
-        <v>572500</v>
+        <v>636900</v>
       </c>
       <c r="F10" s="3">
-        <v>541800</v>
+        <v>593500</v>
       </c>
       <c r="G10" s="3">
-        <v>562300</v>
+        <v>561600</v>
       </c>
       <c r="H10" s="3">
-        <v>561900</v>
+        <v>583000</v>
       </c>
       <c r="I10" s="3">
-        <v>574500</v>
+        <v>582500</v>
       </c>
       <c r="J10" s="3">
+        <v>595600</v>
+      </c>
+      <c r="K10" s="3">
         <v>524900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>561500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>572900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>598100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>637400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>13400</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>15900</v>
+        <v>13900</v>
       </c>
       <c r="F12" s="3">
-        <v>13200</v>
+        <v>16500</v>
       </c>
       <c r="G12" s="3">
-        <v>16900</v>
+        <v>13700</v>
       </c>
       <c r="H12" s="3">
-        <v>13200</v>
+        <v>17600</v>
       </c>
       <c r="I12" s="3">
-        <v>15200</v>
+        <v>13700</v>
       </c>
       <c r="J12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K12" s="3">
         <v>12600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -976,64 +995,70 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>137700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>17900</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="F15" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="G15" s="3">
-        <v>17100</v>
+        <v>20300</v>
       </c>
       <c r="H15" s="3">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="I15" s="3">
-        <v>18600</v>
+        <v>20200</v>
       </c>
       <c r="J15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K15" s="3">
         <v>19400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1402800</v>
+        <v>1599800</v>
       </c>
       <c r="E17" s="3">
-        <v>1368000</v>
+        <v>1454200</v>
       </c>
       <c r="F17" s="3">
-        <v>1236100</v>
+        <v>1418200</v>
       </c>
       <c r="G17" s="3">
-        <v>1355300</v>
+        <v>1281400</v>
       </c>
       <c r="H17" s="3">
-        <v>1126000</v>
+        <v>1405000</v>
       </c>
       <c r="I17" s="3">
-        <v>1170400</v>
+        <v>1167300</v>
       </c>
       <c r="J17" s="3">
+        <v>1213300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1059200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1253000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1121400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1392300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1354600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>248700</v>
+        <v>189800</v>
       </c>
       <c r="E18" s="3">
-        <v>172200</v>
+        <v>257900</v>
       </c>
       <c r="F18" s="3">
-        <v>212900</v>
+        <v>178500</v>
       </c>
       <c r="G18" s="3">
-        <v>139600</v>
+        <v>220700</v>
       </c>
       <c r="H18" s="3">
-        <v>256000</v>
+        <v>144700</v>
       </c>
       <c r="I18" s="3">
-        <v>211800</v>
+        <v>265300</v>
       </c>
       <c r="J18" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K18" s="3">
         <v>231200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>161700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>264600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>264600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>9200</v>
-      </c>
       <c r="F20" s="3">
-        <v>5300</v>
+        <v>9600</v>
       </c>
       <c r="G20" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>5600</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="J20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>320200</v>
+        <v>261300</v>
       </c>
       <c r="E21" s="3">
-        <v>255300</v>
+        <v>332000</v>
       </c>
       <c r="F21" s="3">
-        <v>286900</v>
+        <v>264700</v>
       </c>
       <c r="G21" s="3">
-        <v>212000</v>
+        <v>297400</v>
       </c>
       <c r="H21" s="3">
-        <v>329400</v>
+        <v>219800</v>
       </c>
       <c r="I21" s="3">
-        <v>284500</v>
+        <v>341500</v>
       </c>
       <c r="J21" s="3">
+        <v>294900</v>
+      </c>
+      <c r="K21" s="3">
         <v>307900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>236200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>331300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>171100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>327600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>248500</v>
+        <v>178500</v>
       </c>
       <c r="E23" s="3">
-        <v>181500</v>
+        <v>257600</v>
       </c>
       <c r="F23" s="3">
-        <v>218200</v>
+        <v>188100</v>
       </c>
       <c r="G23" s="3">
-        <v>144100</v>
+        <v>226200</v>
       </c>
       <c r="H23" s="3">
+        <v>149400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>271200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>224400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>242600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>169900</v>
+      </c>
+      <c r="M23" s="3">
         <v>261600</v>
       </c>
-      <c r="I23" s="3">
-        <v>216500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>242600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>169900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>261600</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>245900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72700</v>
+        <v>53900</v>
       </c>
       <c r="E24" s="3">
-        <v>59800</v>
+        <v>75300</v>
       </c>
       <c r="F24" s="3">
-        <v>80200</v>
+        <v>62000</v>
       </c>
       <c r="G24" s="3">
-        <v>57800</v>
+        <v>83200</v>
       </c>
       <c r="H24" s="3">
-        <v>79200</v>
+        <v>59900</v>
       </c>
       <c r="I24" s="3">
-        <v>56100</v>
+        <v>82100</v>
       </c>
       <c r="J24" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K24" s="3">
         <v>79000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>70600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>175800</v>
+        <v>124600</v>
       </c>
       <c r="E26" s="3">
-        <v>121700</v>
+        <v>182300</v>
       </c>
       <c r="F26" s="3">
-        <v>138000</v>
+        <v>126100</v>
       </c>
       <c r="G26" s="3">
-        <v>86300</v>
+        <v>143000</v>
       </c>
       <c r="H26" s="3">
-        <v>182400</v>
+        <v>89500</v>
       </c>
       <c r="I26" s="3">
-        <v>160400</v>
+        <v>189000</v>
       </c>
       <c r="J26" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K26" s="3">
         <v>163600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>186000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>187000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>146800</v>
+        <v>111200</v>
       </c>
       <c r="E27" s="3">
-        <v>105900</v>
+        <v>152200</v>
       </c>
       <c r="F27" s="3">
-        <v>119300</v>
+        <v>109800</v>
       </c>
       <c r="G27" s="3">
-        <v>76600</v>
+        <v>123700</v>
       </c>
       <c r="H27" s="3">
-        <v>155900</v>
+        <v>79400</v>
       </c>
       <c r="I27" s="3">
-        <v>140800</v>
+        <v>161600</v>
       </c>
       <c r="J27" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K27" s="3">
         <v>142500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>162000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>169300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-9200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-5300</v>
+        <v>-9600</v>
       </c>
       <c r="G32" s="3">
-        <v>-4500</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>-5600</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="J32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146800</v>
+        <v>111200</v>
       </c>
       <c r="E33" s="3">
-        <v>105900</v>
+        <v>152200</v>
       </c>
       <c r="F33" s="3">
-        <v>119300</v>
+        <v>109800</v>
       </c>
       <c r="G33" s="3">
-        <v>76600</v>
+        <v>123700</v>
       </c>
       <c r="H33" s="3">
-        <v>155900</v>
+        <v>79400</v>
       </c>
       <c r="I33" s="3">
-        <v>140800</v>
+        <v>161600</v>
       </c>
       <c r="J33" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K33" s="3">
         <v>142500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>162000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>169300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146800</v>
+        <v>111200</v>
       </c>
       <c r="E35" s="3">
-        <v>105900</v>
+        <v>152200</v>
       </c>
       <c r="F35" s="3">
-        <v>119300</v>
+        <v>109800</v>
       </c>
       <c r="G35" s="3">
-        <v>76600</v>
+        <v>123700</v>
       </c>
       <c r="H35" s="3">
-        <v>155900</v>
+        <v>79400</v>
       </c>
       <c r="I35" s="3">
-        <v>140800</v>
+        <v>161600</v>
       </c>
       <c r="J35" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K35" s="3">
         <v>142500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>162000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>169300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1580800</v>
+        <v>1596100</v>
       </c>
       <c r="E41" s="3">
-        <v>1716100</v>
+        <v>1638800</v>
       </c>
       <c r="F41" s="3">
-        <v>1583100</v>
+        <v>1779000</v>
       </c>
       <c r="G41" s="3">
-        <v>1329700</v>
+        <v>1641200</v>
       </c>
       <c r="H41" s="3">
-        <v>1325000</v>
+        <v>1378500</v>
       </c>
       <c r="I41" s="3">
-        <v>1528100</v>
+        <v>1373600</v>
       </c>
       <c r="J41" s="3">
+        <v>1584200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1492200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1462500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1425800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1443400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1273800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>889900</v>
+        <v>664800</v>
       </c>
       <c r="E42" s="3">
-        <v>905800</v>
+        <v>922500</v>
       </c>
       <c r="F42" s="3">
-        <v>801500</v>
+        <v>939000</v>
       </c>
       <c r="G42" s="3">
-        <v>849000</v>
+        <v>830900</v>
       </c>
       <c r="H42" s="3">
-        <v>807500</v>
+        <v>880200</v>
       </c>
       <c r="I42" s="3">
-        <v>712800</v>
+        <v>837200</v>
       </c>
       <c r="J42" s="3">
+        <v>738900</v>
+      </c>
+      <c r="K42" s="3">
         <v>689400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>715300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>630200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>763600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>757100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>979200</v>
+        <v>1124300</v>
       </c>
       <c r="E43" s="3">
-        <v>942000</v>
+        <v>1015100</v>
       </c>
       <c r="F43" s="3">
-        <v>867000</v>
+        <v>976500</v>
       </c>
       <c r="G43" s="3">
-        <v>917200</v>
+        <v>898800</v>
       </c>
       <c r="H43" s="3">
-        <v>795500</v>
+        <v>950800</v>
       </c>
       <c r="I43" s="3">
-        <v>773800</v>
+        <v>824700</v>
       </c>
       <c r="J43" s="3">
+        <v>802200</v>
+      </c>
+      <c r="K43" s="3">
         <v>767000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>826100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>783100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>851100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>910600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>906700</v>
+        <v>864300</v>
       </c>
       <c r="E44" s="3">
-        <v>811500</v>
+        <v>939900</v>
       </c>
       <c r="F44" s="3">
-        <v>704700</v>
+        <v>841300</v>
       </c>
       <c r="G44" s="3">
-        <v>636800</v>
+        <v>730600</v>
       </c>
       <c r="H44" s="3">
-        <v>573500</v>
+        <v>660100</v>
       </c>
       <c r="I44" s="3">
-        <v>518000</v>
+        <v>594600</v>
       </c>
       <c r="J44" s="3">
+        <v>537000</v>
+      </c>
+      <c r="K44" s="3">
         <v>473600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>451700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>517200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>554400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>522100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>204600</v>
+        <v>188100</v>
       </c>
       <c r="E45" s="3">
-        <v>192900</v>
+        <v>212100</v>
       </c>
       <c r="F45" s="3">
-        <v>155800</v>
+        <v>199900</v>
       </c>
       <c r="G45" s="3">
-        <v>150800</v>
+        <v>161500</v>
       </c>
       <c r="H45" s="3">
-        <v>146600</v>
+        <v>156300</v>
       </c>
       <c r="I45" s="3">
-        <v>137900</v>
+        <v>151900</v>
       </c>
       <c r="J45" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K45" s="3">
         <v>132200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>144700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>161900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>191900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4561200</v>
+        <v>4437600</v>
       </c>
       <c r="E46" s="3">
-        <v>4568300</v>
+        <v>4728500</v>
       </c>
       <c r="F46" s="3">
-        <v>4112100</v>
+        <v>4735800</v>
       </c>
       <c r="G46" s="3">
-        <v>3883500</v>
+        <v>4262900</v>
       </c>
       <c r="H46" s="3">
-        <v>3648100</v>
+        <v>4025900</v>
       </c>
       <c r="I46" s="3">
-        <v>3670600</v>
+        <v>3781900</v>
       </c>
       <c r="J46" s="3">
+        <v>3805200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3554400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3598800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3501000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3774400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3655500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>489400</v>
+        <v>487700</v>
       </c>
       <c r="E47" s="3">
-        <v>420700</v>
+        <v>507300</v>
       </c>
       <c r="F47" s="3">
-        <v>403000</v>
+        <v>436100</v>
       </c>
       <c r="G47" s="3">
-        <v>473700</v>
+        <v>417800</v>
       </c>
       <c r="H47" s="3">
-        <v>383000</v>
+        <v>491100</v>
       </c>
       <c r="I47" s="3">
-        <v>355400</v>
+        <v>397000</v>
       </c>
       <c r="J47" s="3">
+        <v>368500</v>
+      </c>
+      <c r="K47" s="3">
         <v>321000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>283200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>294800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>369200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>387300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2010600</v>
+        <v>1996700</v>
       </c>
       <c r="E48" s="3">
-        <v>2089400</v>
+        <v>2084400</v>
       </c>
       <c r="F48" s="3">
-        <v>2013200</v>
+        <v>2166100</v>
       </c>
       <c r="G48" s="3">
-        <v>1926300</v>
+        <v>2087000</v>
       </c>
       <c r="H48" s="3">
-        <v>1892000</v>
+        <v>1996900</v>
       </c>
       <c r="I48" s="3">
-        <v>1892100</v>
+        <v>1961400</v>
       </c>
       <c r="J48" s="3">
+        <v>1961500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1881800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1897100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2009500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2227900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2416100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>677400</v>
+        <v>665300</v>
       </c>
       <c r="E49" s="3">
-        <v>666600</v>
+        <v>702200</v>
       </c>
       <c r="F49" s="3">
-        <v>638400</v>
+        <v>691100</v>
       </c>
       <c r="G49" s="3">
-        <v>605500</v>
+        <v>661800</v>
       </c>
       <c r="H49" s="3">
-        <v>627300</v>
+        <v>627700</v>
       </c>
       <c r="I49" s="3">
-        <v>640900</v>
+        <v>650300</v>
       </c>
       <c r="J49" s="3">
+        <v>664400</v>
+      </c>
+      <c r="K49" s="3">
         <v>655900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>659700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>696400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>781000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>788500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119500</v>
+        <v>124400</v>
       </c>
       <c r="E52" s="3">
-        <v>121600</v>
+        <v>123900</v>
       </c>
       <c r="F52" s="3">
-        <v>114100</v>
+        <v>126100</v>
       </c>
       <c r="G52" s="3">
-        <v>113400</v>
+        <v>118300</v>
       </c>
       <c r="H52" s="3">
-        <v>110800</v>
+        <v>117600</v>
       </c>
       <c r="I52" s="3">
-        <v>111400</v>
+        <v>114800</v>
       </c>
       <c r="J52" s="3">
+        <v>115500</v>
+      </c>
+      <c r="K52" s="3">
         <v>105700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>115200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7858200</v>
+        <v>7711800</v>
       </c>
       <c r="E54" s="3">
-        <v>7866600</v>
+        <v>8146300</v>
       </c>
       <c r="F54" s="3">
-        <v>7280800</v>
+        <v>8155100</v>
       </c>
       <c r="G54" s="3">
-        <v>7002500</v>
+        <v>7547800</v>
       </c>
       <c r="H54" s="3">
-        <v>6661100</v>
+        <v>7259300</v>
       </c>
       <c r="I54" s="3">
-        <v>6670500</v>
+        <v>6905400</v>
       </c>
       <c r="J54" s="3">
+        <v>6915100</v>
+      </c>
+      <c r="K54" s="3">
         <v>6518800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6548700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6616900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7279800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7374600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1304300</v>
+        <v>1257100</v>
       </c>
       <c r="E57" s="3">
-        <v>1277200</v>
+        <v>1352100</v>
       </c>
       <c r="F57" s="3">
-        <v>1139500</v>
+        <v>1324000</v>
       </c>
       <c r="G57" s="3">
-        <v>861700</v>
+        <v>1181300</v>
       </c>
       <c r="H57" s="3">
-        <v>1076000</v>
+        <v>893300</v>
       </c>
       <c r="I57" s="3">
-        <v>1151600</v>
+        <v>1115400</v>
       </c>
       <c r="J57" s="3">
+        <v>1193800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1033800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>742900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1040800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1261400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1214700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263600</v>
+        <v>79300</v>
       </c>
       <c r="E58" s="3">
-        <v>268300</v>
+        <v>273300</v>
       </c>
       <c r="F58" s="3">
-        <v>278300</v>
+        <v>278100</v>
       </c>
       <c r="G58" s="3">
-        <v>278500</v>
+        <v>288500</v>
       </c>
       <c r="H58" s="3">
-        <v>95900</v>
+        <v>288700</v>
       </c>
       <c r="I58" s="3">
-        <v>114900</v>
+        <v>99400</v>
       </c>
       <c r="J58" s="3">
+        <v>119100</v>
+      </c>
+      <c r="K58" s="3">
         <v>87000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>107800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>81600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>55300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>539500</v>
+        <v>550100</v>
       </c>
       <c r="E59" s="3">
-        <v>554600</v>
+        <v>559300</v>
       </c>
       <c r="F59" s="3">
-        <v>510000</v>
+        <v>574900</v>
       </c>
       <c r="G59" s="3">
-        <v>805700</v>
+        <v>528700</v>
       </c>
       <c r="H59" s="3">
-        <v>474700</v>
+        <v>835300</v>
       </c>
       <c r="I59" s="3">
-        <v>490600</v>
+        <v>492100</v>
       </c>
       <c r="J59" s="3">
+        <v>508600</v>
+      </c>
+      <c r="K59" s="3">
         <v>449000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>858700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>494500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>536500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>484400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2107400</v>
+        <v>1886500</v>
       </c>
       <c r="E60" s="3">
-        <v>2100000</v>
+        <v>2184700</v>
       </c>
       <c r="F60" s="3">
-        <v>1927800</v>
+        <v>2177000</v>
       </c>
       <c r="G60" s="3">
-        <v>1945900</v>
+        <v>1998500</v>
       </c>
       <c r="H60" s="3">
-        <v>1646600</v>
+        <v>2017200</v>
       </c>
       <c r="I60" s="3">
-        <v>1757100</v>
+        <v>1706900</v>
       </c>
       <c r="J60" s="3">
+        <v>1821600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1569800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1709500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1616900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1853200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1749300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>125700</v>
+        <v>119300</v>
       </c>
       <c r="E61" s="3">
-        <v>120800</v>
+        <v>130300</v>
       </c>
       <c r="F61" s="3">
-        <v>33000</v>
+        <v>125300</v>
       </c>
       <c r="G61" s="3">
-        <v>256600</v>
+        <v>34300</v>
       </c>
       <c r="H61" s="3">
+        <v>266000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>179100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>179300</v>
+      </c>
+      <c r="K61" s="3">
         <v>172800</v>
       </c>
-      <c r="I61" s="3">
-        <v>173000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>172800</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>435100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>196800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>240600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>242000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>484900</v>
+        <v>497600</v>
       </c>
       <c r="E62" s="3">
-        <v>563700</v>
+        <v>502700</v>
       </c>
       <c r="F62" s="3">
-        <v>549900</v>
+        <v>584300</v>
       </c>
       <c r="G62" s="3">
-        <v>294800</v>
+        <v>570100</v>
       </c>
       <c r="H62" s="3">
-        <v>526800</v>
+        <v>305600</v>
       </c>
       <c r="I62" s="3">
-        <v>522500</v>
+        <v>546100</v>
       </c>
       <c r="J62" s="3">
+        <v>541700</v>
+      </c>
+      <c r="K62" s="3">
         <v>546200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>279900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>574500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>626100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>683700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3388000</v>
+        <v>3163000</v>
       </c>
       <c r="E66" s="3">
-        <v>3414600</v>
+        <v>3512200</v>
       </c>
       <c r="F66" s="3">
-        <v>3111300</v>
+        <v>3539800</v>
       </c>
       <c r="G66" s="3">
-        <v>3048800</v>
+        <v>3225400</v>
       </c>
       <c r="H66" s="3">
-        <v>2872000</v>
+        <v>3160600</v>
       </c>
       <c r="I66" s="3">
-        <v>2951500</v>
+        <v>2977300</v>
       </c>
       <c r="J66" s="3">
+        <v>3059800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2817700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2935000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2906800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3271700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3268400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4464500</v>
+        <v>4739700</v>
       </c>
       <c r="E72" s="3">
-        <v>4398100</v>
+        <v>4628300</v>
       </c>
       <c r="F72" s="3">
-        <v>4297400</v>
+        <v>4559400</v>
       </c>
       <c r="G72" s="3">
-        <v>4255000</v>
+        <v>4455000</v>
       </c>
       <c r="H72" s="3">
-        <v>4177000</v>
+        <v>4411000</v>
       </c>
       <c r="I72" s="3">
-        <v>4098200</v>
+        <v>4330200</v>
       </c>
       <c r="J72" s="3">
+        <v>4248500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3957500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4014600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4174400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4470400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4615900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4470200</v>
+        <v>4548800</v>
       </c>
       <c r="E76" s="3">
-        <v>4452000</v>
+        <v>4634100</v>
       </c>
       <c r="F76" s="3">
-        <v>4169500</v>
+        <v>4615300</v>
       </c>
       <c r="G76" s="3">
-        <v>3953700</v>
+        <v>4322400</v>
       </c>
       <c r="H76" s="3">
-        <v>3789100</v>
+        <v>4098600</v>
       </c>
       <c r="I76" s="3">
-        <v>3719000</v>
+        <v>3928100</v>
       </c>
       <c r="J76" s="3">
+        <v>3855300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3701100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3613700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3710100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4008100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4106200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146800</v>
+        <v>111200</v>
       </c>
       <c r="E81" s="3">
-        <v>105900</v>
+        <v>152200</v>
       </c>
       <c r="F81" s="3">
-        <v>119300</v>
+        <v>109800</v>
       </c>
       <c r="G81" s="3">
-        <v>76600</v>
+        <v>123700</v>
       </c>
       <c r="H81" s="3">
-        <v>155900</v>
+        <v>79400</v>
       </c>
       <c r="I81" s="3">
-        <v>140800</v>
+        <v>161600</v>
       </c>
       <c r="J81" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K81" s="3">
         <v>142500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>162000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>169300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71800</v>
+        <v>82800</v>
       </c>
       <c r="E83" s="3">
-        <v>73900</v>
+        <v>74400</v>
       </c>
       <c r="F83" s="3">
-        <v>68700</v>
+        <v>76600</v>
       </c>
       <c r="G83" s="3">
-        <v>67900</v>
+        <v>71200</v>
       </c>
       <c r="H83" s="3">
-        <v>67800</v>
+        <v>70400</v>
       </c>
       <c r="I83" s="3">
-        <v>68000</v>
+        <v>70300</v>
       </c>
       <c r="J83" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K83" s="3">
         <v>65300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>81800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>129200</v>
+        <v>180500</v>
       </c>
       <c r="E89" s="3">
-        <v>176600</v>
+        <v>133900</v>
       </c>
       <c r="F89" s="3">
-        <v>174000</v>
+        <v>183000</v>
       </c>
       <c r="G89" s="3">
-        <v>176400</v>
+        <v>180400</v>
       </c>
       <c r="H89" s="3">
-        <v>133200</v>
+        <v>182900</v>
       </c>
       <c r="I89" s="3">
-        <v>278000</v>
+        <v>138100</v>
       </c>
       <c r="J89" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K89" s="3">
         <v>158600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>322600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>244700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>260800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>389800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56700</v>
+        <v>-70000</v>
       </c>
       <c r="E91" s="3">
-        <v>-62000</v>
+        <v>-58800</v>
       </c>
       <c r="F91" s="3">
-        <v>-47400</v>
+        <v>-64200</v>
       </c>
       <c r="G91" s="3">
-        <v>-66600</v>
+        <v>-49100</v>
       </c>
       <c r="H91" s="3">
-        <v>-66600</v>
+        <v>-69000</v>
       </c>
       <c r="I91" s="3">
-        <v>-64300</v>
+        <v>-69100</v>
       </c>
       <c r="J91" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-48300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-74300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-68600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-101900</v>
+        <v>86500</v>
       </c>
       <c r="E94" s="3">
-        <v>-114100</v>
+        <v>-105600</v>
       </c>
       <c r="F94" s="3">
-        <v>81900</v>
+        <v>-118200</v>
       </c>
       <c r="G94" s="3">
-        <v>-189400</v>
+        <v>84900</v>
       </c>
       <c r="H94" s="3">
-        <v>-191300</v>
+        <v>-196300</v>
       </c>
       <c r="I94" s="3">
-        <v>-137700</v>
+        <v>-198300</v>
       </c>
       <c r="J94" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-47600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-183300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>28700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-112700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-80400</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-76100</v>
-      </c>
       <c r="G96" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="H96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-76100</v>
-      </c>
       <c r="I96" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="J96" s="3">
         <v>100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-68000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-74500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-73600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-174900</v>
+        <v>-248600</v>
       </c>
       <c r="E100" s="3">
-        <v>29700</v>
+        <v>-181300</v>
       </c>
       <c r="F100" s="3">
-        <v>-52100</v>
+        <v>30800</v>
       </c>
       <c r="G100" s="3">
-        <v>-6400</v>
+        <v>-54000</v>
       </c>
       <c r="H100" s="3">
-        <v>-145900</v>
+        <v>-6600</v>
       </c>
       <c r="I100" s="3">
-        <v>-103400</v>
+        <v>-151200</v>
       </c>
       <c r="J100" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-64700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-111000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-103200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12400</v>
+        <v>-61000</v>
       </c>
       <c r="E101" s="3">
-        <v>40700</v>
+        <v>12800</v>
       </c>
       <c r="F101" s="3">
-        <v>49600</v>
+        <v>42200</v>
       </c>
       <c r="G101" s="3">
-        <v>24100</v>
+        <v>51400</v>
       </c>
       <c r="H101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>31300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-54800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>56400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-34700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-135200</v>
+        <v>-42700</v>
       </c>
       <c r="E102" s="3">
-        <v>132900</v>
+        <v>-140200</v>
       </c>
       <c r="F102" s="3">
-        <v>253400</v>
+        <v>137800</v>
       </c>
       <c r="G102" s="3">
-        <v>4700</v>
+        <v>262700</v>
       </c>
       <c r="H102" s="3">
-        <v>-203200</v>
+        <v>4900</v>
       </c>
       <c r="I102" s="3">
-        <v>35900</v>
+        <v>-210600</v>
       </c>
       <c r="J102" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K102" s="3">
         <v>77600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>107600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>210000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>139200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1789500</v>
+        <v>1592200</v>
       </c>
       <c r="E8" s="3">
-        <v>1712100</v>
+        <v>1755400</v>
       </c>
       <c r="F8" s="3">
-        <v>1596700</v>
+        <v>1679500</v>
       </c>
       <c r="G8" s="3">
-        <v>1502100</v>
+        <v>1566300</v>
       </c>
       <c r="H8" s="3">
-        <v>1549700</v>
+        <v>1473500</v>
       </c>
       <c r="I8" s="3">
-        <v>1432600</v>
+        <v>1520200</v>
       </c>
       <c r="J8" s="3">
+        <v>1405400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1432900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1290500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1414700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1386000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1473700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1619200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1166300</v>
+        <v>1032700</v>
       </c>
       <c r="E9" s="3">
-        <v>1075200</v>
+        <v>1144100</v>
       </c>
       <c r="F9" s="3">
-        <v>1003300</v>
+        <v>1054700</v>
       </c>
       <c r="G9" s="3">
-        <v>940500</v>
+        <v>984100</v>
       </c>
       <c r="H9" s="3">
-        <v>966800</v>
+        <v>922600</v>
       </c>
       <c r="I9" s="3">
-        <v>850100</v>
+        <v>948300</v>
       </c>
       <c r="J9" s="3">
+        <v>833900</v>
+      </c>
+      <c r="K9" s="3">
         <v>837200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>765500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>853200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>813100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>875600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>981800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>623200</v>
+        <v>559600</v>
       </c>
       <c r="E10" s="3">
-        <v>636900</v>
+        <v>611400</v>
       </c>
       <c r="F10" s="3">
-        <v>593500</v>
+        <v>624800</v>
       </c>
       <c r="G10" s="3">
-        <v>561600</v>
+        <v>582200</v>
       </c>
       <c r="H10" s="3">
-        <v>583000</v>
+        <v>550900</v>
       </c>
       <c r="I10" s="3">
-        <v>582500</v>
+        <v>571900</v>
       </c>
       <c r="J10" s="3">
+        <v>571400</v>
+      </c>
+      <c r="K10" s="3">
         <v>595600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>524900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>561500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>572900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>598100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>637400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>13900</v>
+        <v>16400</v>
       </c>
       <c r="F12" s="3">
-        <v>16500</v>
+        <v>13600</v>
       </c>
       <c r="G12" s="3">
-        <v>13700</v>
+        <v>16200</v>
       </c>
       <c r="H12" s="3">
-        <v>17600</v>
+        <v>13500</v>
       </c>
       <c r="I12" s="3">
-        <v>13700</v>
+        <v>17200</v>
       </c>
       <c r="J12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K12" s="3">
         <v>15800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,67 +1018,73 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>137700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>18600</v>
       </c>
       <c r="E15" s="3">
-        <v>18600</v>
+        <v>17200</v>
       </c>
       <c r="F15" s="3">
-        <v>19700</v>
+        <v>18200</v>
       </c>
       <c r="G15" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="H15" s="3">
-        <v>17800</v>
+        <v>19900</v>
       </c>
       <c r="I15" s="3">
-        <v>20200</v>
+        <v>17400</v>
       </c>
       <c r="J15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K15" s="3">
         <v>19300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1599800</v>
+        <v>1387900</v>
       </c>
       <c r="E17" s="3">
-        <v>1454200</v>
+        <v>1569300</v>
       </c>
       <c r="F17" s="3">
-        <v>1418200</v>
+        <v>1426500</v>
       </c>
       <c r="G17" s="3">
-        <v>1281400</v>
+        <v>1391200</v>
       </c>
       <c r="H17" s="3">
-        <v>1405000</v>
+        <v>1257000</v>
       </c>
       <c r="I17" s="3">
-        <v>1167300</v>
+        <v>1378200</v>
       </c>
       <c r="J17" s="3">
+        <v>1145100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1213300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1059200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1253000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1121400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1392300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1354600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>189800</v>
+        <v>204400</v>
       </c>
       <c r="E18" s="3">
-        <v>257900</v>
+        <v>186100</v>
       </c>
       <c r="F18" s="3">
-        <v>178500</v>
+        <v>253000</v>
       </c>
       <c r="G18" s="3">
-        <v>220700</v>
+        <v>175100</v>
       </c>
       <c r="H18" s="3">
-        <v>144700</v>
+        <v>216500</v>
       </c>
       <c r="I18" s="3">
-        <v>265300</v>
+        <v>142000</v>
       </c>
       <c r="J18" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K18" s="3">
         <v>219500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>231200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>161700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>264600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>264600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11200</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>9600</v>
-      </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>9400</v>
       </c>
       <c r="H20" s="3">
-        <v>4700</v>
+        <v>5400</v>
       </c>
       <c r="I20" s="3">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="J20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>261300</v>
+        <v>277900</v>
       </c>
       <c r="E21" s="3">
-        <v>332000</v>
+        <v>256300</v>
       </c>
       <c r="F21" s="3">
-        <v>264700</v>
+        <v>325600</v>
       </c>
       <c r="G21" s="3">
-        <v>297400</v>
+        <v>259600</v>
       </c>
       <c r="H21" s="3">
-        <v>219800</v>
+        <v>291700</v>
       </c>
       <c r="I21" s="3">
-        <v>341500</v>
+        <v>215600</v>
       </c>
       <c r="J21" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K21" s="3">
         <v>294900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>307900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>236200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>331300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>171100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>327600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>178500</v>
+        <v>203400</v>
       </c>
       <c r="E23" s="3">
-        <v>257600</v>
+        <v>175100</v>
       </c>
       <c r="F23" s="3">
-        <v>188100</v>
+        <v>252700</v>
       </c>
       <c r="G23" s="3">
-        <v>226200</v>
+        <v>184500</v>
       </c>
       <c r="H23" s="3">
-        <v>149400</v>
+        <v>221900</v>
       </c>
       <c r="I23" s="3">
-        <v>271200</v>
+        <v>146600</v>
       </c>
       <c r="J23" s="3">
+        <v>266000</v>
+      </c>
+      <c r="K23" s="3">
         <v>224400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>242600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>261600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>245900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53900</v>
+        <v>64000</v>
       </c>
       <c r="E24" s="3">
-        <v>75300</v>
+        <v>52900</v>
       </c>
       <c r="F24" s="3">
-        <v>62000</v>
+        <v>73900</v>
       </c>
       <c r="G24" s="3">
-        <v>83200</v>
+        <v>60800</v>
       </c>
       <c r="H24" s="3">
-        <v>59900</v>
+        <v>81600</v>
       </c>
       <c r="I24" s="3">
-        <v>82100</v>
+        <v>58700</v>
       </c>
       <c r="J24" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K24" s="3">
         <v>58100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>75600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>70600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124600</v>
+        <v>139400</v>
       </c>
       <c r="E26" s="3">
-        <v>182300</v>
+        <v>122200</v>
       </c>
       <c r="F26" s="3">
-        <v>126100</v>
+        <v>178800</v>
       </c>
       <c r="G26" s="3">
-        <v>143000</v>
+        <v>123700</v>
       </c>
       <c r="H26" s="3">
-        <v>89500</v>
+        <v>140300</v>
       </c>
       <c r="I26" s="3">
-        <v>189000</v>
+        <v>87800</v>
       </c>
       <c r="J26" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K26" s="3">
         <v>166300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>163600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>106800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>186000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>187000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>111200</v>
+        <v>119100</v>
       </c>
       <c r="E27" s="3">
-        <v>152200</v>
+        <v>109100</v>
       </c>
       <c r="F27" s="3">
-        <v>109800</v>
+        <v>149300</v>
       </c>
       <c r="G27" s="3">
-        <v>123700</v>
+        <v>107700</v>
       </c>
       <c r="H27" s="3">
-        <v>79400</v>
+        <v>121300</v>
       </c>
       <c r="I27" s="3">
-        <v>161600</v>
+        <v>77800</v>
       </c>
       <c r="J27" s="3">
+        <v>158500</v>
+      </c>
+      <c r="K27" s="3">
         <v>146000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>89900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>162000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>169300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11200</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-9600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-9400</v>
       </c>
       <c r="H32" s="3">
-        <v>-4700</v>
+        <v>-5400</v>
       </c>
       <c r="I32" s="3">
-        <v>-5800</v>
+        <v>-4600</v>
       </c>
       <c r="J32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>111200</v>
+        <v>119100</v>
       </c>
       <c r="E33" s="3">
-        <v>152200</v>
+        <v>109100</v>
       </c>
       <c r="F33" s="3">
-        <v>109800</v>
+        <v>149300</v>
       </c>
       <c r="G33" s="3">
-        <v>123700</v>
+        <v>107700</v>
       </c>
       <c r="H33" s="3">
-        <v>79400</v>
+        <v>121300</v>
       </c>
       <c r="I33" s="3">
-        <v>161600</v>
+        <v>77800</v>
       </c>
       <c r="J33" s="3">
+        <v>158500</v>
+      </c>
+      <c r="K33" s="3">
         <v>146000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>89900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>162000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>169300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>111200</v>
+        <v>119100</v>
       </c>
       <c r="E35" s="3">
-        <v>152200</v>
+        <v>109100</v>
       </c>
       <c r="F35" s="3">
-        <v>109800</v>
+        <v>149300</v>
       </c>
       <c r="G35" s="3">
-        <v>123700</v>
+        <v>107700</v>
       </c>
       <c r="H35" s="3">
-        <v>79400</v>
+        <v>121300</v>
       </c>
       <c r="I35" s="3">
-        <v>161600</v>
+        <v>77800</v>
       </c>
       <c r="J35" s="3">
+        <v>158500</v>
+      </c>
+      <c r="K35" s="3">
         <v>146000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>89900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>162000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>169300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1596100</v>
+        <v>1590800</v>
       </c>
       <c r="E41" s="3">
-        <v>1638800</v>
+        <v>1565700</v>
       </c>
       <c r="F41" s="3">
-        <v>1779000</v>
+        <v>1607600</v>
       </c>
       <c r="G41" s="3">
-        <v>1641200</v>
+        <v>1745100</v>
       </c>
       <c r="H41" s="3">
-        <v>1378500</v>
+        <v>1609900</v>
       </c>
       <c r="I41" s="3">
-        <v>1373600</v>
+        <v>1352200</v>
       </c>
       <c r="J41" s="3">
+        <v>1347400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1584200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1492200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1462500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1425800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1443400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1273800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>664800</v>
+        <v>655600</v>
       </c>
       <c r="E42" s="3">
-        <v>922500</v>
+        <v>652100</v>
       </c>
       <c r="F42" s="3">
-        <v>939000</v>
+        <v>905000</v>
       </c>
       <c r="G42" s="3">
-        <v>830900</v>
+        <v>921100</v>
       </c>
       <c r="H42" s="3">
-        <v>880200</v>
+        <v>815100</v>
       </c>
       <c r="I42" s="3">
-        <v>837200</v>
+        <v>863400</v>
       </c>
       <c r="J42" s="3">
+        <v>821200</v>
+      </c>
+      <c r="K42" s="3">
         <v>738900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>689400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>715300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>630200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>763600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>757100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1124300</v>
+        <v>908000</v>
       </c>
       <c r="E43" s="3">
-        <v>1015100</v>
+        <v>1102900</v>
       </c>
       <c r="F43" s="3">
-        <v>976500</v>
+        <v>995800</v>
       </c>
       <c r="G43" s="3">
-        <v>898800</v>
+        <v>957900</v>
       </c>
       <c r="H43" s="3">
-        <v>950800</v>
+        <v>881700</v>
       </c>
       <c r="I43" s="3">
-        <v>824700</v>
+        <v>932700</v>
       </c>
       <c r="J43" s="3">
+        <v>809000</v>
+      </c>
+      <c r="K43" s="3">
         <v>802200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>767000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>826100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>783100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>851100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>910600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>864300</v>
+        <v>842700</v>
       </c>
       <c r="E44" s="3">
-        <v>939900</v>
+        <v>847800</v>
       </c>
       <c r="F44" s="3">
-        <v>841300</v>
+        <v>922000</v>
       </c>
       <c r="G44" s="3">
-        <v>730600</v>
+        <v>825300</v>
       </c>
       <c r="H44" s="3">
-        <v>660100</v>
+        <v>716600</v>
       </c>
       <c r="I44" s="3">
-        <v>594600</v>
+        <v>647500</v>
       </c>
       <c r="J44" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K44" s="3">
         <v>537000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>473600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>451700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>517200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>554400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>522100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>188100</v>
+        <v>177700</v>
       </c>
       <c r="E45" s="3">
-        <v>212100</v>
+        <v>184500</v>
       </c>
       <c r="F45" s="3">
-        <v>199900</v>
+        <v>208100</v>
       </c>
       <c r="G45" s="3">
-        <v>161500</v>
+        <v>196100</v>
       </c>
       <c r="H45" s="3">
-        <v>156300</v>
+        <v>158400</v>
       </c>
       <c r="I45" s="3">
-        <v>151900</v>
+        <v>153300</v>
       </c>
       <c r="J45" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K45" s="3">
         <v>142900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>132200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>144700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>191900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4437600</v>
+        <v>4174800</v>
       </c>
       <c r="E46" s="3">
-        <v>4728500</v>
+        <v>4353100</v>
       </c>
       <c r="F46" s="3">
-        <v>4735800</v>
+        <v>4638400</v>
       </c>
       <c r="G46" s="3">
-        <v>4262900</v>
+        <v>4645600</v>
       </c>
       <c r="H46" s="3">
-        <v>4025900</v>
+        <v>4181700</v>
       </c>
       <c r="I46" s="3">
-        <v>3781900</v>
+        <v>3949200</v>
       </c>
       <c r="J46" s="3">
+        <v>3709900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3805200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3554400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3598800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3501000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3774400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3655500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>487700</v>
+        <v>637200</v>
       </c>
       <c r="E47" s="3">
-        <v>507300</v>
+        <v>478400</v>
       </c>
       <c r="F47" s="3">
-        <v>436100</v>
+        <v>497700</v>
       </c>
       <c r="G47" s="3">
-        <v>417800</v>
+        <v>427800</v>
       </c>
       <c r="H47" s="3">
-        <v>491100</v>
+        <v>409800</v>
       </c>
       <c r="I47" s="3">
-        <v>397000</v>
+        <v>481800</v>
       </c>
       <c r="J47" s="3">
+        <v>389400</v>
+      </c>
+      <c r="K47" s="3">
         <v>368500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>321000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>283200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>294800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>369200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>387300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1996700</v>
+        <v>1976100</v>
       </c>
       <c r="E48" s="3">
-        <v>2084400</v>
+        <v>1958700</v>
       </c>
       <c r="F48" s="3">
-        <v>2166100</v>
+        <v>2044700</v>
       </c>
       <c r="G48" s="3">
-        <v>2087000</v>
+        <v>2124800</v>
       </c>
       <c r="H48" s="3">
-        <v>1996900</v>
+        <v>2047300</v>
       </c>
       <c r="I48" s="3">
-        <v>1961400</v>
+        <v>1958900</v>
       </c>
       <c r="J48" s="3">
+        <v>1924000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1961500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1881800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1897100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2009500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2227900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2416100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>665300</v>
+        <v>658500</v>
       </c>
       <c r="E49" s="3">
-        <v>702200</v>
+        <v>652700</v>
       </c>
       <c r="F49" s="3">
-        <v>691100</v>
+        <v>688900</v>
       </c>
       <c r="G49" s="3">
-        <v>661800</v>
+        <v>677900</v>
       </c>
       <c r="H49" s="3">
-        <v>627700</v>
+        <v>649200</v>
       </c>
       <c r="I49" s="3">
-        <v>650300</v>
+        <v>615800</v>
       </c>
       <c r="J49" s="3">
+        <v>637900</v>
+      </c>
+      <c r="K49" s="3">
         <v>664400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>655900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>659700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>696400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>781000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>788500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>124400</v>
+        <v>145000</v>
       </c>
       <c r="E52" s="3">
-        <v>123900</v>
+        <v>122000</v>
       </c>
       <c r="F52" s="3">
-        <v>126100</v>
+        <v>121500</v>
       </c>
       <c r="G52" s="3">
-        <v>118300</v>
+        <v>123700</v>
       </c>
       <c r="H52" s="3">
-        <v>117600</v>
+        <v>116000</v>
       </c>
       <c r="I52" s="3">
-        <v>114800</v>
+        <v>115300</v>
       </c>
       <c r="J52" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K52" s="3">
         <v>115500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>115200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>127200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7711800</v>
+        <v>7591600</v>
       </c>
       <c r="E54" s="3">
-        <v>8146300</v>
+        <v>7564900</v>
       </c>
       <c r="F54" s="3">
-        <v>8155100</v>
+        <v>7991200</v>
       </c>
       <c r="G54" s="3">
-        <v>7547800</v>
+        <v>7999800</v>
       </c>
       <c r="H54" s="3">
-        <v>7259300</v>
+        <v>7404000</v>
       </c>
       <c r="I54" s="3">
-        <v>6905400</v>
+        <v>7121000</v>
       </c>
       <c r="J54" s="3">
+        <v>6773900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6915100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6518800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6548700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6616900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7279800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7374600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1257100</v>
+        <v>1179700</v>
       </c>
       <c r="E57" s="3">
-        <v>1352100</v>
+        <v>921900</v>
       </c>
       <c r="F57" s="3">
-        <v>1324000</v>
+        <v>1326400</v>
       </c>
       <c r="G57" s="3">
-        <v>1181300</v>
+        <v>1298800</v>
       </c>
       <c r="H57" s="3">
-        <v>893300</v>
+        <v>1158800</v>
       </c>
       <c r="I57" s="3">
-        <v>1115400</v>
+        <v>876200</v>
       </c>
       <c r="J57" s="3">
+        <v>1094200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1193800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1033800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>742900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1040800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1261400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1214700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79300</v>
+        <v>90300</v>
       </c>
       <c r="E58" s="3">
-        <v>273300</v>
+        <v>123000</v>
       </c>
       <c r="F58" s="3">
-        <v>278100</v>
+        <v>268100</v>
       </c>
       <c r="G58" s="3">
-        <v>288500</v>
+        <v>272800</v>
       </c>
       <c r="H58" s="3">
-        <v>288700</v>
+        <v>283000</v>
       </c>
       <c r="I58" s="3">
-        <v>99400</v>
+        <v>283200</v>
       </c>
       <c r="J58" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K58" s="3">
         <v>119100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>87000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>107800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>81600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>55300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>550100</v>
+        <v>488600</v>
       </c>
       <c r="E59" s="3">
-        <v>559300</v>
+        <v>805600</v>
       </c>
       <c r="F59" s="3">
-        <v>574900</v>
+        <v>548600</v>
       </c>
       <c r="G59" s="3">
-        <v>528700</v>
+        <v>563900</v>
       </c>
       <c r="H59" s="3">
-        <v>835300</v>
+        <v>518600</v>
       </c>
       <c r="I59" s="3">
-        <v>492100</v>
+        <v>819300</v>
       </c>
       <c r="J59" s="3">
+        <v>482800</v>
+      </c>
+      <c r="K59" s="3">
         <v>508600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>449000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>858700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>494500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>536500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>484400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1886500</v>
+        <v>1758500</v>
       </c>
       <c r="E60" s="3">
-        <v>2184700</v>
+        <v>1850500</v>
       </c>
       <c r="F60" s="3">
-        <v>2177000</v>
+        <v>2143100</v>
       </c>
       <c r="G60" s="3">
-        <v>1998500</v>
+        <v>2135500</v>
       </c>
       <c r="H60" s="3">
-        <v>2017200</v>
+        <v>1960400</v>
       </c>
       <c r="I60" s="3">
-        <v>1706900</v>
+        <v>1978800</v>
       </c>
       <c r="J60" s="3">
+        <v>1674400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1821600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1569800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1709500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1616900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1853200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1749300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119300</v>
+        <v>119400</v>
       </c>
       <c r="E61" s="3">
-        <v>130300</v>
+        <v>288800</v>
       </c>
       <c r="F61" s="3">
-        <v>125300</v>
+        <v>127800</v>
       </c>
       <c r="G61" s="3">
-        <v>34300</v>
+        <v>122900</v>
       </c>
       <c r="H61" s="3">
-        <v>266000</v>
+        <v>33600</v>
       </c>
       <c r="I61" s="3">
-        <v>179100</v>
+        <v>260900</v>
       </c>
       <c r="J61" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K61" s="3">
         <v>179300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>172800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>435100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>196800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>240600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>242000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>497600</v>
+        <v>485400</v>
       </c>
       <c r="E62" s="3">
-        <v>502700</v>
+        <v>316400</v>
       </c>
       <c r="F62" s="3">
-        <v>584300</v>
+        <v>493100</v>
       </c>
       <c r="G62" s="3">
-        <v>570100</v>
+        <v>573200</v>
       </c>
       <c r="H62" s="3">
-        <v>305600</v>
+        <v>559200</v>
       </c>
       <c r="I62" s="3">
-        <v>546100</v>
+        <v>299800</v>
       </c>
       <c r="J62" s="3">
+        <v>535700</v>
+      </c>
+      <c r="K62" s="3">
         <v>541700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>546200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>279900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>574500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>626100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>683700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3163000</v>
+        <v>3027200</v>
       </c>
       <c r="E66" s="3">
-        <v>3512200</v>
+        <v>3102700</v>
       </c>
       <c r="F66" s="3">
-        <v>3539800</v>
+        <v>3445300</v>
       </c>
       <c r="G66" s="3">
-        <v>3225400</v>
+        <v>3472400</v>
       </c>
       <c r="H66" s="3">
-        <v>3160600</v>
+        <v>3164000</v>
       </c>
       <c r="I66" s="3">
-        <v>2977300</v>
+        <v>3100400</v>
       </c>
       <c r="J66" s="3">
+        <v>2920600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3059800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2817700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2935000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2906800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3271700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3268400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4739700</v>
+        <v>4687100</v>
       </c>
       <c r="E72" s="3">
-        <v>4628300</v>
+        <v>4649400</v>
       </c>
       <c r="F72" s="3">
-        <v>4559400</v>
+        <v>4540100</v>
       </c>
       <c r="G72" s="3">
-        <v>4455000</v>
+        <v>4472500</v>
       </c>
       <c r="H72" s="3">
-        <v>4411000</v>
+        <v>4370100</v>
       </c>
       <c r="I72" s="3">
-        <v>4330200</v>
+        <v>4327000</v>
       </c>
       <c r="J72" s="3">
+        <v>4247700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4248500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3957500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4014600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4174400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4470400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4615900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4548800</v>
+        <v>4564400</v>
       </c>
       <c r="E76" s="3">
-        <v>4634100</v>
+        <v>4462100</v>
       </c>
       <c r="F76" s="3">
-        <v>4615300</v>
+        <v>4545800</v>
       </c>
       <c r="G76" s="3">
-        <v>4322400</v>
+        <v>4527400</v>
       </c>
       <c r="H76" s="3">
-        <v>4098600</v>
+        <v>4240000</v>
       </c>
       <c r="I76" s="3">
-        <v>3928100</v>
+        <v>4020600</v>
       </c>
       <c r="J76" s="3">
+        <v>3853300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3855300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3701100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3613700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3710100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4008100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4106200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>111200</v>
+        <v>119100</v>
       </c>
       <c r="E81" s="3">
-        <v>152200</v>
+        <v>109100</v>
       </c>
       <c r="F81" s="3">
-        <v>109800</v>
+        <v>149300</v>
       </c>
       <c r="G81" s="3">
-        <v>123700</v>
+        <v>107700</v>
       </c>
       <c r="H81" s="3">
-        <v>79400</v>
+        <v>121300</v>
       </c>
       <c r="I81" s="3">
-        <v>161600</v>
+        <v>77800</v>
       </c>
       <c r="J81" s="3">
+        <v>158500</v>
+      </c>
+      <c r="K81" s="3">
         <v>146000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>89900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>162000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>169300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>82800</v>
+        <v>74500</v>
       </c>
       <c r="E83" s="3">
-        <v>74400</v>
+        <v>81200</v>
       </c>
       <c r="F83" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="G83" s="3">
-        <v>71200</v>
+        <v>75100</v>
       </c>
       <c r="H83" s="3">
+        <v>69800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K83" s="3">
         <v>70400</v>
       </c>
-      <c r="I83" s="3">
-        <v>70300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>70400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>81800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>180500</v>
+        <v>310000</v>
       </c>
       <c r="E89" s="3">
-        <v>133900</v>
+        <v>177000</v>
       </c>
       <c r="F89" s="3">
-        <v>183000</v>
+        <v>131400</v>
       </c>
       <c r="G89" s="3">
-        <v>180400</v>
+        <v>179500</v>
       </c>
       <c r="H89" s="3">
-        <v>182900</v>
+        <v>177000</v>
       </c>
       <c r="I89" s="3">
-        <v>138100</v>
+        <v>179400</v>
       </c>
       <c r="J89" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K89" s="3">
         <v>288200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>322600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>244700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>260800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>389800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70000</v>
+        <v>-7601000</v>
       </c>
       <c r="E91" s="3">
-        <v>-58800</v>
+        <v>-9529000</v>
       </c>
       <c r="F91" s="3">
-        <v>-64200</v>
+        <v>-8001000</v>
       </c>
       <c r="G91" s="3">
-        <v>-49100</v>
+        <v>-8738000</v>
       </c>
       <c r="H91" s="3">
-        <v>-69000</v>
+        <v>-6682000</v>
       </c>
       <c r="I91" s="3">
-        <v>-69100</v>
+        <v>-9393000</v>
       </c>
       <c r="J91" s="3">
+        <v>-9395000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-66700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-74300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-68600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>86500</v>
+        <v>-206200</v>
       </c>
       <c r="E94" s="3">
-        <v>-105600</v>
+        <v>84800</v>
       </c>
       <c r="F94" s="3">
-        <v>-118200</v>
+        <v>-103600</v>
       </c>
       <c r="G94" s="3">
-        <v>84900</v>
+        <v>-116000</v>
       </c>
       <c r="H94" s="3">
-        <v>-196300</v>
+        <v>83300</v>
       </c>
       <c r="I94" s="3">
-        <v>-198300</v>
+        <v>-192600</v>
       </c>
       <c r="J94" s="3">
+        <v>-194500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-142800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-183300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>28700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-112700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-83300</v>
-      </c>
       <c r="F96" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="G96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-78900</v>
-      </c>
       <c r="H96" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-78900</v>
-      </c>
       <c r="J96" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-68000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-74500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-73600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-248600</v>
+        <v>-97600</v>
       </c>
       <c r="E100" s="3">
-        <v>-181300</v>
+        <v>-243900</v>
       </c>
       <c r="F100" s="3">
-        <v>30800</v>
+        <v>-177900</v>
       </c>
       <c r="G100" s="3">
-        <v>-54000</v>
+        <v>30200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6600</v>
+        <v>-53000</v>
       </c>
       <c r="I100" s="3">
-        <v>-151200</v>
+        <v>-6500</v>
       </c>
       <c r="J100" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-107200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-111000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-42600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-103200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-61000</v>
+        <v>18900</v>
       </c>
       <c r="E101" s="3">
-        <v>12800</v>
+        <v>-59900</v>
       </c>
       <c r="F101" s="3">
-        <v>42200</v>
+        <v>12600</v>
       </c>
       <c r="G101" s="3">
-        <v>51400</v>
+        <v>41400</v>
       </c>
       <c r="H101" s="3">
-        <v>25000</v>
+        <v>50500</v>
       </c>
       <c r="I101" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-54800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>56400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-34700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42700</v>
+        <v>25100</v>
       </c>
       <c r="E102" s="3">
-        <v>-140200</v>
+        <v>-41900</v>
       </c>
       <c r="F102" s="3">
-        <v>137800</v>
+        <v>-137500</v>
       </c>
       <c r="G102" s="3">
-        <v>262700</v>
+        <v>135200</v>
       </c>
       <c r="H102" s="3">
-        <v>4900</v>
+        <v>257700</v>
       </c>
       <c r="I102" s="3">
-        <v>-210600</v>
+        <v>4800</v>
       </c>
       <c r="J102" s="3">
+        <v>-206600</v>
+      </c>
+      <c r="K102" s="3">
         <v>37200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>107600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>210000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>139200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1592200</v>
+        <v>1601400</v>
       </c>
       <c r="E8" s="3">
-        <v>1755400</v>
+        <v>1517200</v>
       </c>
       <c r="F8" s="3">
-        <v>1679500</v>
+        <v>1672700</v>
       </c>
       <c r="G8" s="3">
-        <v>1566300</v>
+        <v>1600300</v>
       </c>
       <c r="H8" s="3">
-        <v>1473500</v>
+        <v>1492400</v>
       </c>
       <c r="I8" s="3">
-        <v>1520200</v>
+        <v>1404000</v>
       </c>
       <c r="J8" s="3">
+        <v>1448500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1405400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1432900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1290500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1414700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1386000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1473700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1619200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1032700</v>
+        <v>1003500</v>
       </c>
       <c r="E9" s="3">
-        <v>1144100</v>
+        <v>984000</v>
       </c>
       <c r="F9" s="3">
-        <v>1054700</v>
+        <v>1090100</v>
       </c>
       <c r="G9" s="3">
-        <v>984100</v>
+        <v>1005000</v>
       </c>
       <c r="H9" s="3">
-        <v>922600</v>
+        <v>937700</v>
       </c>
       <c r="I9" s="3">
-        <v>948300</v>
+        <v>879100</v>
       </c>
       <c r="J9" s="3">
+        <v>903600</v>
+      </c>
+      <c r="K9" s="3">
         <v>833900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>837200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>765500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>853200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>813100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>875600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>981800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>559600</v>
+        <v>597900</v>
       </c>
       <c r="E10" s="3">
-        <v>611400</v>
+        <v>533200</v>
       </c>
       <c r="F10" s="3">
-        <v>624800</v>
+        <v>582500</v>
       </c>
       <c r="G10" s="3">
-        <v>582200</v>
+        <v>595300</v>
       </c>
       <c r="H10" s="3">
-        <v>550900</v>
+        <v>554700</v>
       </c>
       <c r="I10" s="3">
-        <v>571900</v>
+        <v>525000</v>
       </c>
       <c r="J10" s="3">
+        <v>544900</v>
+      </c>
+      <c r="K10" s="3">
         <v>571400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>595600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>524900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>561500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>572900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>598100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>637400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>12600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>16200</v>
+      </c>
+      <c r="O12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="P12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>16400</v>
       </c>
-      <c r="F12" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>16200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>15800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>12600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>16200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>14500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>16000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>16400</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,70 +1041,76 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>137700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="E15" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="F15" s="3">
-        <v>18200</v>
+        <v>16400</v>
       </c>
       <c r="G15" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L15" s="3">
         <v>19300</v>
       </c>
-      <c r="H15" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>17400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>19800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1387900</v>
+        <v>1390700</v>
       </c>
       <c r="E17" s="3">
-        <v>1569300</v>
+        <v>1322400</v>
       </c>
       <c r="F17" s="3">
-        <v>1426500</v>
+        <v>1495300</v>
       </c>
       <c r="G17" s="3">
-        <v>1391200</v>
+        <v>1359200</v>
       </c>
       <c r="H17" s="3">
-        <v>1257000</v>
+        <v>1325600</v>
       </c>
       <c r="I17" s="3">
-        <v>1378200</v>
+        <v>1197700</v>
       </c>
       <c r="J17" s="3">
+        <v>1313200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1145100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1213300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1059200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1253000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1121400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1392300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1354600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>204400</v>
+        <v>210700</v>
       </c>
       <c r="E18" s="3">
-        <v>186100</v>
+        <v>194700</v>
       </c>
       <c r="F18" s="3">
-        <v>253000</v>
+        <v>177400</v>
       </c>
       <c r="G18" s="3">
-        <v>175100</v>
+        <v>241000</v>
       </c>
       <c r="H18" s="3">
-        <v>216500</v>
+        <v>166900</v>
       </c>
       <c r="I18" s="3">
-        <v>142000</v>
+        <v>206300</v>
       </c>
       <c r="J18" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K18" s="3">
         <v>260300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>219500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>231200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>161700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>264600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>264600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-11000</v>
-      </c>
       <c r="F20" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>9400</v>
-      </c>
       <c r="H20" s="3">
-        <v>5400</v>
+        <v>8900</v>
       </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>277900</v>
+        <v>296000</v>
       </c>
       <c r="E21" s="3">
-        <v>256300</v>
+        <v>264800</v>
       </c>
       <c r="F21" s="3">
-        <v>325600</v>
+        <v>244200</v>
       </c>
       <c r="G21" s="3">
-        <v>259600</v>
+        <v>310300</v>
       </c>
       <c r="H21" s="3">
-        <v>291700</v>
+        <v>247400</v>
       </c>
       <c r="I21" s="3">
-        <v>215600</v>
+        <v>278000</v>
       </c>
       <c r="J21" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K21" s="3">
         <v>335000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>294900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>307900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>236200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>331300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>171100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>327600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>203400</v>
+        <v>225200</v>
       </c>
       <c r="E23" s="3">
-        <v>175100</v>
+        <v>193800</v>
       </c>
       <c r="F23" s="3">
-        <v>252700</v>
+        <v>166900</v>
       </c>
       <c r="G23" s="3">
-        <v>184500</v>
+        <v>240800</v>
       </c>
       <c r="H23" s="3">
-        <v>221900</v>
+        <v>175800</v>
       </c>
       <c r="I23" s="3">
-        <v>146600</v>
+        <v>211400</v>
       </c>
       <c r="J23" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K23" s="3">
         <v>266000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>224400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>242600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>261600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>245900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64000</v>
+        <v>79000</v>
       </c>
       <c r="E24" s="3">
-        <v>52900</v>
+        <v>61000</v>
       </c>
       <c r="F24" s="3">
-        <v>73900</v>
+        <v>50400</v>
       </c>
       <c r="G24" s="3">
-        <v>60800</v>
+        <v>70400</v>
       </c>
       <c r="H24" s="3">
-        <v>81600</v>
+        <v>57900</v>
       </c>
       <c r="I24" s="3">
-        <v>58700</v>
+        <v>77700</v>
       </c>
       <c r="J24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K24" s="3">
         <v>80600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>79000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>70600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>139400</v>
+        <v>146200</v>
       </c>
       <c r="E26" s="3">
-        <v>122200</v>
+        <v>132800</v>
       </c>
       <c r="F26" s="3">
-        <v>178800</v>
+        <v>116500</v>
       </c>
       <c r="G26" s="3">
-        <v>123700</v>
+        <v>170400</v>
       </c>
       <c r="H26" s="3">
-        <v>140300</v>
+        <v>117900</v>
       </c>
       <c r="I26" s="3">
-        <v>87800</v>
+        <v>133700</v>
       </c>
       <c r="J26" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K26" s="3">
         <v>185400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>166300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>163600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>106800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>186000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>187000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>119100</v>
+        <v>124700</v>
       </c>
       <c r="E27" s="3">
-        <v>109100</v>
+        <v>113500</v>
       </c>
       <c r="F27" s="3">
-        <v>149300</v>
+        <v>104000</v>
       </c>
       <c r="G27" s="3">
-        <v>107700</v>
+        <v>142300</v>
       </c>
       <c r="H27" s="3">
-        <v>121300</v>
+        <v>102600</v>
       </c>
       <c r="I27" s="3">
-        <v>77800</v>
+        <v>115600</v>
       </c>
       <c r="J27" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K27" s="3">
         <v>158500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>89900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>162000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>169300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>11000</v>
-      </c>
       <c r="F32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-5400</v>
+        <v>-8900</v>
       </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-5100</v>
       </c>
       <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>119100</v>
+        <v>124700</v>
       </c>
       <c r="E33" s="3">
-        <v>109100</v>
+        <v>113500</v>
       </c>
       <c r="F33" s="3">
-        <v>149300</v>
+        <v>104000</v>
       </c>
       <c r="G33" s="3">
-        <v>107700</v>
+        <v>142300</v>
       </c>
       <c r="H33" s="3">
-        <v>121300</v>
+        <v>102600</v>
       </c>
       <c r="I33" s="3">
-        <v>77800</v>
+        <v>115600</v>
       </c>
       <c r="J33" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K33" s="3">
         <v>158500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>89900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>162000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>169300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>119100</v>
+        <v>124700</v>
       </c>
       <c r="E35" s="3">
-        <v>109100</v>
+        <v>113500</v>
       </c>
       <c r="F35" s="3">
-        <v>149300</v>
+        <v>104000</v>
       </c>
       <c r="G35" s="3">
-        <v>107700</v>
+        <v>142300</v>
       </c>
       <c r="H35" s="3">
-        <v>121300</v>
+        <v>102600</v>
       </c>
       <c r="I35" s="3">
-        <v>77800</v>
+        <v>115600</v>
       </c>
       <c r="J35" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K35" s="3">
         <v>158500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>89900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>162000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>169300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1590800</v>
+        <v>1674300</v>
       </c>
       <c r="E41" s="3">
-        <v>1565700</v>
+        <v>1515800</v>
       </c>
       <c r="F41" s="3">
-        <v>1607600</v>
+        <v>1491800</v>
       </c>
       <c r="G41" s="3">
-        <v>1745100</v>
+        <v>1531800</v>
       </c>
       <c r="H41" s="3">
-        <v>1609900</v>
+        <v>1662800</v>
       </c>
       <c r="I41" s="3">
-        <v>1352200</v>
+        <v>1534000</v>
       </c>
       <c r="J41" s="3">
+        <v>1288400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1347400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1584200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1492200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1462500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1425800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1443400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1273800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>655600</v>
+        <v>577300</v>
       </c>
       <c r="E42" s="3">
-        <v>652100</v>
+        <v>624600</v>
       </c>
       <c r="F42" s="3">
-        <v>905000</v>
+        <v>621400</v>
       </c>
       <c r="G42" s="3">
-        <v>921100</v>
+        <v>862300</v>
       </c>
       <c r="H42" s="3">
-        <v>815100</v>
+        <v>877700</v>
       </c>
       <c r="I42" s="3">
-        <v>863400</v>
+        <v>776600</v>
       </c>
       <c r="J42" s="3">
+        <v>822700</v>
+      </c>
+      <c r="K42" s="3">
         <v>821200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>738900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>689400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>715300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>630200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>763600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>757100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>908000</v>
+        <v>933000</v>
       </c>
       <c r="E43" s="3">
-        <v>1102900</v>
+        <v>865200</v>
       </c>
       <c r="F43" s="3">
-        <v>995800</v>
+        <v>1050900</v>
       </c>
       <c r="G43" s="3">
-        <v>957900</v>
+        <v>948800</v>
       </c>
       <c r="H43" s="3">
-        <v>881700</v>
+        <v>912700</v>
       </c>
       <c r="I43" s="3">
-        <v>932700</v>
+        <v>840100</v>
       </c>
       <c r="J43" s="3">
+        <v>888800</v>
+      </c>
+      <c r="K43" s="3">
         <v>809000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>802200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>767000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>826100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>783100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>851100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>910600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>842700</v>
+        <v>786100</v>
       </c>
       <c r="E44" s="3">
-        <v>847800</v>
+        <v>802900</v>
       </c>
       <c r="F44" s="3">
-        <v>922000</v>
+        <v>807800</v>
       </c>
       <c r="G44" s="3">
-        <v>825300</v>
+        <v>878600</v>
       </c>
       <c r="H44" s="3">
-        <v>716600</v>
+        <v>786400</v>
       </c>
       <c r="I44" s="3">
-        <v>647500</v>
+        <v>682900</v>
       </c>
       <c r="J44" s="3">
+        <v>617000</v>
+      </c>
+      <c r="K44" s="3">
         <v>583200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>537000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>473600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>451700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>517200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>554400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>522100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>177700</v>
+        <v>171100</v>
       </c>
       <c r="E45" s="3">
-        <v>184500</v>
+        <v>169400</v>
       </c>
       <c r="F45" s="3">
-        <v>208100</v>
+        <v>175800</v>
       </c>
       <c r="G45" s="3">
-        <v>196100</v>
+        <v>198200</v>
       </c>
       <c r="H45" s="3">
-        <v>158400</v>
+        <v>186900</v>
       </c>
       <c r="I45" s="3">
-        <v>153300</v>
+        <v>150900</v>
       </c>
       <c r="J45" s="3">
+        <v>146100</v>
+      </c>
+      <c r="K45" s="3">
         <v>149000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>142900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>132200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>144700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>191900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4174800</v>
+        <v>4141800</v>
       </c>
       <c r="E46" s="3">
-        <v>4353100</v>
+        <v>3977900</v>
       </c>
       <c r="F46" s="3">
-        <v>4638400</v>
+        <v>4147800</v>
       </c>
       <c r="G46" s="3">
-        <v>4645600</v>
+        <v>4419700</v>
       </c>
       <c r="H46" s="3">
-        <v>4181700</v>
+        <v>4426500</v>
       </c>
       <c r="I46" s="3">
-        <v>3949200</v>
+        <v>3984500</v>
       </c>
       <c r="J46" s="3">
+        <v>3763000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3709900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3805200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3554400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3598800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3501000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3774400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3655500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>637200</v>
+        <v>636900</v>
       </c>
       <c r="E47" s="3">
-        <v>478400</v>
+        <v>607100</v>
       </c>
       <c r="F47" s="3">
-        <v>497700</v>
+        <v>455800</v>
       </c>
       <c r="G47" s="3">
-        <v>427800</v>
+        <v>474200</v>
       </c>
       <c r="H47" s="3">
-        <v>409800</v>
+        <v>407600</v>
       </c>
       <c r="I47" s="3">
-        <v>481800</v>
+        <v>390500</v>
       </c>
       <c r="J47" s="3">
+        <v>459000</v>
+      </c>
+      <c r="K47" s="3">
         <v>389400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>368500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>321000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>283200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>294800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>369200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>387300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1976100</v>
+        <v>1985100</v>
       </c>
       <c r="E48" s="3">
-        <v>1958700</v>
+        <v>1882900</v>
       </c>
       <c r="F48" s="3">
-        <v>2044700</v>
+        <v>1866300</v>
       </c>
       <c r="G48" s="3">
-        <v>2124800</v>
+        <v>1948300</v>
       </c>
       <c r="H48" s="3">
-        <v>2047300</v>
+        <v>2024600</v>
       </c>
       <c r="I48" s="3">
-        <v>1958900</v>
+        <v>1950700</v>
       </c>
       <c r="J48" s="3">
+        <v>1866500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1924000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1961500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1881800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1897100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2009500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2227900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2416100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>658500</v>
+        <v>661100</v>
       </c>
       <c r="E49" s="3">
-        <v>652700</v>
+        <v>627500</v>
       </c>
       <c r="F49" s="3">
-        <v>688900</v>
+        <v>621900</v>
       </c>
       <c r="G49" s="3">
-        <v>677900</v>
+        <v>656400</v>
       </c>
       <c r="H49" s="3">
-        <v>649200</v>
+        <v>645900</v>
       </c>
       <c r="I49" s="3">
-        <v>615800</v>
+        <v>618500</v>
       </c>
       <c r="J49" s="3">
+        <v>586700</v>
+      </c>
+      <c r="K49" s="3">
         <v>637900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>664400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>655900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>659700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>696400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>781000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>788500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>145000</v>
+        <v>147500</v>
       </c>
       <c r="E52" s="3">
-        <v>122000</v>
+        <v>138200</v>
       </c>
       <c r="F52" s="3">
-        <v>121500</v>
+        <v>116300</v>
       </c>
       <c r="G52" s="3">
-        <v>123700</v>
+        <v>115800</v>
       </c>
       <c r="H52" s="3">
-        <v>116000</v>
+        <v>117800</v>
       </c>
       <c r="I52" s="3">
-        <v>115300</v>
+        <v>110600</v>
       </c>
       <c r="J52" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K52" s="3">
         <v>112600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>115500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>115200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>127300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>127200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7591600</v>
+        <v>7572400</v>
       </c>
       <c r="E54" s="3">
-        <v>7564900</v>
+        <v>7233600</v>
       </c>
       <c r="F54" s="3">
-        <v>7991200</v>
+        <v>7208100</v>
       </c>
       <c r="G54" s="3">
-        <v>7999800</v>
+        <v>7614300</v>
       </c>
       <c r="H54" s="3">
-        <v>7404000</v>
+        <v>7622500</v>
       </c>
       <c r="I54" s="3">
-        <v>7121000</v>
+        <v>7054900</v>
       </c>
       <c r="J54" s="3">
+        <v>6785200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6773900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6915100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6518800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6548700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6616900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7279800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7374600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1179700</v>
+        <v>1174300</v>
       </c>
       <c r="E57" s="3">
-        <v>921900</v>
+        <v>1124000</v>
       </c>
       <c r="F57" s="3">
-        <v>1326400</v>
+        <v>878500</v>
       </c>
       <c r="G57" s="3">
-        <v>1298800</v>
+        <v>1263800</v>
       </c>
       <c r="H57" s="3">
-        <v>1158800</v>
+        <v>1237500</v>
       </c>
       <c r="I57" s="3">
-        <v>876200</v>
+        <v>1104100</v>
       </c>
       <c r="J57" s="3">
+        <v>834900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1094200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1193800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1033800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>742900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1040800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1261400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1214700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90300</v>
+        <v>115600</v>
       </c>
       <c r="E58" s="3">
-        <v>123000</v>
+        <v>86000</v>
       </c>
       <c r="F58" s="3">
-        <v>268100</v>
+        <v>117200</v>
       </c>
       <c r="G58" s="3">
-        <v>272800</v>
+        <v>255500</v>
       </c>
       <c r="H58" s="3">
-        <v>283000</v>
+        <v>259900</v>
       </c>
       <c r="I58" s="3">
-        <v>283200</v>
+        <v>269700</v>
       </c>
       <c r="J58" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K58" s="3">
         <v>97500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>119100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>87000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>107800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>81600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>488600</v>
+        <v>500500</v>
       </c>
       <c r="E59" s="3">
-        <v>805600</v>
+        <v>465600</v>
       </c>
       <c r="F59" s="3">
-        <v>548600</v>
+        <v>767600</v>
       </c>
       <c r="G59" s="3">
-        <v>563900</v>
+        <v>522800</v>
       </c>
       <c r="H59" s="3">
-        <v>518600</v>
+        <v>537400</v>
       </c>
       <c r="I59" s="3">
-        <v>819300</v>
+        <v>494200</v>
       </c>
       <c r="J59" s="3">
+        <v>780700</v>
+      </c>
+      <c r="K59" s="3">
         <v>482800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>508600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>449000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>858700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>494500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>536500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>484400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1758500</v>
+        <v>1790300</v>
       </c>
       <c r="E60" s="3">
-        <v>1850500</v>
+        <v>1675600</v>
       </c>
       <c r="F60" s="3">
-        <v>2143100</v>
+        <v>1763300</v>
       </c>
       <c r="G60" s="3">
-        <v>2135500</v>
+        <v>2042000</v>
       </c>
       <c r="H60" s="3">
-        <v>1960400</v>
+        <v>2034800</v>
       </c>
       <c r="I60" s="3">
-        <v>1978800</v>
+        <v>1868000</v>
       </c>
       <c r="J60" s="3">
+        <v>1885500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1674400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1821600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1569800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1709500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1616900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1853200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1749300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119400</v>
+        <v>123400</v>
       </c>
       <c r="E61" s="3">
-        <v>288800</v>
+        <v>113800</v>
       </c>
       <c r="F61" s="3">
-        <v>127800</v>
+        <v>275200</v>
       </c>
       <c r="G61" s="3">
-        <v>122900</v>
+        <v>121800</v>
       </c>
       <c r="H61" s="3">
-        <v>33600</v>
+        <v>117100</v>
       </c>
       <c r="I61" s="3">
-        <v>260900</v>
+        <v>32000</v>
       </c>
       <c r="J61" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K61" s="3">
         <v>175700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>179300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>172800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>435100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>196800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>240600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>242000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>485400</v>
+        <v>508000</v>
       </c>
       <c r="E62" s="3">
-        <v>316400</v>
+        <v>462500</v>
       </c>
       <c r="F62" s="3">
-        <v>493100</v>
+        <v>301500</v>
       </c>
       <c r="G62" s="3">
-        <v>573200</v>
+        <v>469800</v>
       </c>
       <c r="H62" s="3">
-        <v>559200</v>
+        <v>546200</v>
       </c>
       <c r="I62" s="3">
-        <v>299800</v>
+        <v>532900</v>
       </c>
       <c r="J62" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K62" s="3">
         <v>535700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>541700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>546200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>279900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>574500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>626100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>683700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3027200</v>
+        <v>3029800</v>
       </c>
       <c r="E66" s="3">
-        <v>3102700</v>
+        <v>2884500</v>
       </c>
       <c r="F66" s="3">
-        <v>3445300</v>
+        <v>2956400</v>
       </c>
       <c r="G66" s="3">
-        <v>3472400</v>
+        <v>3282800</v>
       </c>
       <c r="H66" s="3">
-        <v>3164000</v>
+        <v>3308600</v>
       </c>
       <c r="I66" s="3">
-        <v>3100400</v>
+        <v>3014800</v>
       </c>
       <c r="J66" s="3">
+        <v>2954200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2920600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3059800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2817700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2935000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2906800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3271700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3268400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4687100</v>
+        <v>4591200</v>
       </c>
       <c r="E72" s="3">
-        <v>4649400</v>
+        <v>4466000</v>
       </c>
       <c r="F72" s="3">
-        <v>4540100</v>
+        <v>4430200</v>
       </c>
       <c r="G72" s="3">
-        <v>4472500</v>
+        <v>4326000</v>
       </c>
       <c r="H72" s="3">
-        <v>4370100</v>
+        <v>4261600</v>
       </c>
       <c r="I72" s="3">
-        <v>4327000</v>
+        <v>4164100</v>
       </c>
       <c r="J72" s="3">
+        <v>4122900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4247700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4248500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3957500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4014600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4174400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4470400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4615900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4564400</v>
+        <v>4542600</v>
       </c>
       <c r="E76" s="3">
-        <v>4462100</v>
+        <v>4349200</v>
       </c>
       <c r="F76" s="3">
-        <v>4545800</v>
+        <v>4251700</v>
       </c>
       <c r="G76" s="3">
-        <v>4527400</v>
+        <v>4331500</v>
       </c>
       <c r="H76" s="3">
-        <v>4240000</v>
+        <v>4313900</v>
       </c>
       <c r="I76" s="3">
-        <v>4020600</v>
+        <v>4040100</v>
       </c>
       <c r="J76" s="3">
+        <v>3831000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3853300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3855300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3701100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3613700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3710100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4008100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4106200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>119100</v>
+        <v>124700</v>
       </c>
       <c r="E81" s="3">
-        <v>109100</v>
+        <v>113500</v>
       </c>
       <c r="F81" s="3">
-        <v>149300</v>
+        <v>104000</v>
       </c>
       <c r="G81" s="3">
-        <v>107700</v>
+        <v>142300</v>
       </c>
       <c r="H81" s="3">
-        <v>121300</v>
+        <v>102600</v>
       </c>
       <c r="I81" s="3">
-        <v>77800</v>
+        <v>115600</v>
       </c>
       <c r="J81" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K81" s="3">
         <v>158500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>89900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>162000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>169300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74500</v>
+        <v>70800</v>
       </c>
       <c r="E83" s="3">
-        <v>81200</v>
+        <v>71000</v>
       </c>
       <c r="F83" s="3">
-        <v>73000</v>
+        <v>77400</v>
       </c>
       <c r="G83" s="3">
-        <v>75100</v>
+        <v>69500</v>
       </c>
       <c r="H83" s="3">
-        <v>69800</v>
+        <v>71600</v>
       </c>
       <c r="I83" s="3">
-        <v>69000</v>
+        <v>66500</v>
       </c>
       <c r="J83" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K83" s="3">
         <v>68900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>70400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>66400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>81800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>310000</v>
+        <v>260100</v>
       </c>
       <c r="E89" s="3">
-        <v>177000</v>
+        <v>295400</v>
       </c>
       <c r="F89" s="3">
-        <v>131400</v>
+        <v>168700</v>
       </c>
       <c r="G89" s="3">
-        <v>179500</v>
+        <v>125200</v>
       </c>
       <c r="H89" s="3">
-        <v>177000</v>
+        <v>171100</v>
       </c>
       <c r="I89" s="3">
-        <v>179400</v>
+        <v>168600</v>
       </c>
       <c r="J89" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K89" s="3">
         <v>135500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>288200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>158600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>322600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>244700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>260800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>389800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8066000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7601000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9529000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8001000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8738000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6682000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9393000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9395000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-74300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-206200</v>
+        <v>11800</v>
       </c>
       <c r="E94" s="3">
-        <v>84800</v>
+        <v>-196500</v>
       </c>
       <c r="F94" s="3">
-        <v>-103600</v>
+        <v>80800</v>
       </c>
       <c r="G94" s="3">
-        <v>-116000</v>
+        <v>-98700</v>
       </c>
       <c r="H94" s="3">
-        <v>83300</v>
+        <v>-110500</v>
       </c>
       <c r="I94" s="3">
-        <v>-192600</v>
+        <v>79300</v>
       </c>
       <c r="J94" s="3">
+        <v>-183500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-194500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-142800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-183300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>28700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-112700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-81300</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-81700</v>
-      </c>
       <c r="G96" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="H96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-77400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>100</v>
       </c>
-      <c r="J96" s="3">
-        <v>-77400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="N96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>100</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-74500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-73600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-97600</v>
+        <v>-161700</v>
       </c>
       <c r="E100" s="3">
-        <v>-243900</v>
+        <v>-93000</v>
       </c>
       <c r="F100" s="3">
-        <v>-177900</v>
+        <v>-232400</v>
       </c>
       <c r="G100" s="3">
-        <v>30200</v>
+        <v>-169500</v>
       </c>
       <c r="H100" s="3">
-        <v>-53000</v>
+        <v>28800</v>
       </c>
       <c r="I100" s="3">
-        <v>-6500</v>
+        <v>-50500</v>
       </c>
       <c r="J100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-148300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-107200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-111000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-103200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18900</v>
+        <v>48400</v>
       </c>
       <c r="E101" s="3">
-        <v>-59900</v>
+        <v>18000</v>
       </c>
       <c r="F101" s="3">
-        <v>12600</v>
+        <v>-57000</v>
       </c>
       <c r="G101" s="3">
-        <v>41400</v>
+        <v>12000</v>
       </c>
       <c r="H101" s="3">
-        <v>50500</v>
+        <v>39500</v>
       </c>
       <c r="I101" s="3">
-        <v>24500</v>
+        <v>48100</v>
       </c>
       <c r="J101" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-54800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>56400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25100</v>
+        <v>158600</v>
       </c>
       <c r="E102" s="3">
-        <v>-41900</v>
+        <v>23900</v>
       </c>
       <c r="F102" s="3">
-        <v>-137500</v>
+        <v>-39900</v>
       </c>
       <c r="G102" s="3">
-        <v>135200</v>
+        <v>-131100</v>
       </c>
       <c r="H102" s="3">
-        <v>257700</v>
+        <v>128800</v>
       </c>
       <c r="I102" s="3">
-        <v>4800</v>
+        <v>245600</v>
       </c>
       <c r="J102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-206600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>107600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>210000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>139200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>226300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNICY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>UNICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1601400</v>
+        <v>1550400</v>
       </c>
       <c r="E8" s="3">
-        <v>1517200</v>
+        <v>1547800</v>
       </c>
       <c r="F8" s="3">
-        <v>1672700</v>
+        <v>1466400</v>
       </c>
       <c r="G8" s="3">
-        <v>1600300</v>
+        <v>1616700</v>
       </c>
       <c r="H8" s="3">
-        <v>1492400</v>
+        <v>1546700</v>
       </c>
       <c r="I8" s="3">
-        <v>1404000</v>
+        <v>1442500</v>
       </c>
       <c r="J8" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1448500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1405400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1432900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1290500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1414700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1386000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1473700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1619200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1669400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1003500</v>
+        <v>962000</v>
       </c>
       <c r="E9" s="3">
-        <v>984000</v>
+        <v>969900</v>
       </c>
       <c r="F9" s="3">
-        <v>1090100</v>
+        <v>951000</v>
       </c>
       <c r="G9" s="3">
-        <v>1005000</v>
+        <v>1053600</v>
       </c>
       <c r="H9" s="3">
-        <v>937700</v>
+        <v>971300</v>
       </c>
       <c r="I9" s="3">
-        <v>879100</v>
+        <v>906300</v>
       </c>
       <c r="J9" s="3">
+        <v>849700</v>
+      </c>
+      <c r="K9" s="3">
         <v>903600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>833900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>837200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>765500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>853200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>813100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>875600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>981800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1046400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>597900</v>
+        <v>588400</v>
       </c>
       <c r="E10" s="3">
-        <v>533200</v>
+        <v>577900</v>
       </c>
       <c r="F10" s="3">
-        <v>582500</v>
+        <v>515300</v>
       </c>
       <c r="G10" s="3">
-        <v>595300</v>
+        <v>563000</v>
       </c>
       <c r="H10" s="3">
-        <v>554700</v>
+        <v>575400</v>
       </c>
       <c r="I10" s="3">
-        <v>525000</v>
+        <v>536100</v>
       </c>
       <c r="J10" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K10" s="3">
         <v>544900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>571400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>595600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>524900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>561500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>572900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>598100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>637400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>623100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,49 +932,52 @@
         <v>16300</v>
       </c>
       <c r="E12" s="3">
-        <v>13800</v>
+        <v>15700</v>
       </c>
       <c r="F12" s="3">
-        <v>15600</v>
+        <v>13400</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>15100</v>
       </c>
       <c r="H12" s="3">
-        <v>15400</v>
+        <v>12500</v>
       </c>
       <c r="I12" s="3">
-        <v>12800</v>
+        <v>14900</v>
       </c>
       <c r="J12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K12" s="3">
         <v>16400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,73 +1064,79 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>137700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18100</v>
+        <v>19200</v>
       </c>
       <c r="E15" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I15" s="3">
         <v>17800</v>
       </c>
-      <c r="F15" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>18400</v>
       </c>
-      <c r="I15" s="3">
-        <v>19000</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1390700</v>
+        <v>1289400</v>
       </c>
       <c r="E17" s="3">
-        <v>1322400</v>
+        <v>1344100</v>
       </c>
       <c r="F17" s="3">
-        <v>1495300</v>
+        <v>1278100</v>
       </c>
       <c r="G17" s="3">
-        <v>1359200</v>
+        <v>1445200</v>
       </c>
       <c r="H17" s="3">
-        <v>1325600</v>
+        <v>1313700</v>
       </c>
       <c r="I17" s="3">
-        <v>1197700</v>
+        <v>1281200</v>
       </c>
       <c r="J17" s="3">
+        <v>1157600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1313200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1145100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1213300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1059200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1253000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1121400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1392300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1354600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1664300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>210700</v>
+        <v>261000</v>
       </c>
       <c r="E18" s="3">
-        <v>194700</v>
+        <v>203600</v>
       </c>
       <c r="F18" s="3">
-        <v>177400</v>
+        <v>188200</v>
       </c>
       <c r="G18" s="3">
-        <v>241000</v>
+        <v>171400</v>
       </c>
       <c r="H18" s="3">
-        <v>166900</v>
+        <v>233000</v>
       </c>
       <c r="I18" s="3">
-        <v>206300</v>
+        <v>161300</v>
       </c>
       <c r="J18" s="3">
+        <v>199400</v>
+      </c>
+      <c r="K18" s="3">
         <v>135300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>260300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>219500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>231200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>161700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>264600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>264600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14500</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1000</v>
+        <v>14000</v>
       </c>
       <c r="F20" s="3">
-        <v>-10500</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>8900</v>
-      </c>
       <c r="I20" s="3">
-        <v>5100</v>
+        <v>8600</v>
       </c>
       <c r="J20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>296000</v>
+        <v>339600</v>
       </c>
       <c r="E21" s="3">
-        <v>264800</v>
+        <v>286100</v>
       </c>
       <c r="F21" s="3">
-        <v>244200</v>
+        <v>255900</v>
       </c>
       <c r="G21" s="3">
-        <v>310300</v>
+        <v>236100</v>
       </c>
       <c r="H21" s="3">
-        <v>247400</v>
+        <v>299900</v>
       </c>
       <c r="I21" s="3">
-        <v>278000</v>
+        <v>239100</v>
       </c>
       <c r="J21" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K21" s="3">
         <v>205400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>335000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>294900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>307900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>236200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>331300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>171100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>327600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>102400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>225200</v>
+        <v>266000</v>
       </c>
       <c r="E23" s="3">
-        <v>193800</v>
+        <v>217700</v>
       </c>
       <c r="F23" s="3">
-        <v>166900</v>
+        <v>187300</v>
       </c>
       <c r="G23" s="3">
-        <v>240800</v>
+        <v>161300</v>
       </c>
       <c r="H23" s="3">
-        <v>175800</v>
+        <v>232700</v>
       </c>
       <c r="I23" s="3">
-        <v>211400</v>
+        <v>169900</v>
       </c>
       <c r="J23" s="3">
+        <v>204400</v>
+      </c>
+      <c r="K23" s="3">
         <v>139600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>266000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>224400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>242600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>169900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>261600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>245900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>76400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>58900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>48700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>68000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>80600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>58100</v>
+      </c>
+      <c r="N24" s="3">
         <v>79000</v>
       </c>
-      <c r="E24" s="3">
-        <v>61000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>50400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>70400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>57900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>77700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>56000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>80600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>58100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>79000</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>146200</v>
+        <v>195600</v>
       </c>
       <c r="E26" s="3">
-        <v>132800</v>
+        <v>141300</v>
       </c>
       <c r="F26" s="3">
-        <v>116500</v>
+        <v>128300</v>
       </c>
       <c r="G26" s="3">
-        <v>170400</v>
+        <v>112600</v>
       </c>
       <c r="H26" s="3">
-        <v>117900</v>
+        <v>164700</v>
       </c>
       <c r="I26" s="3">
-        <v>133700</v>
+        <v>114000</v>
       </c>
       <c r="J26" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K26" s="3">
         <v>83700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>166300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>186000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>187000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>124700</v>
+        <v>174800</v>
       </c>
       <c r="E27" s="3">
-        <v>113500</v>
+        <v>120500</v>
       </c>
       <c r="F27" s="3">
-        <v>104000</v>
+        <v>109700</v>
       </c>
       <c r="G27" s="3">
-        <v>142300</v>
+        <v>100500</v>
       </c>
       <c r="H27" s="3">
-        <v>102600</v>
+        <v>137500</v>
       </c>
       <c r="I27" s="3">
-        <v>115600</v>
+        <v>99200</v>
       </c>
       <c r="J27" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K27" s="3">
         <v>74200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>158500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>89900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>162000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>169300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14500</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
+        <v>-14000</v>
       </c>
       <c r="F32" s="3">
-        <v>10500</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-8900</v>
-      </c>
       <c r="I32" s="3">
-        <v>-5100</v>
+        <v>-8600</v>
       </c>
       <c r="J32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>124700</v>
+        <v>174800</v>
       </c>
       <c r="E33" s="3">
-        <v>113500</v>
+        <v>120500</v>
       </c>
       <c r="F33" s="3">
-        <v>104000</v>
+        <v>109700</v>
       </c>
       <c r="G33" s="3">
-        <v>142300</v>
+        <v>100500</v>
       </c>
       <c r="H33" s="3">
-        <v>102600</v>
+        <v>137500</v>
       </c>
       <c r="I33" s="3">
-        <v>115600</v>
+        <v>99200</v>
       </c>
       <c r="J33" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K33" s="3">
         <v>74200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>158500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>89900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>162000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>169300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>124700</v>
+        <v>174800</v>
       </c>
       <c r="E35" s="3">
-        <v>113500</v>
+        <v>120500</v>
       </c>
       <c r="F35" s="3">
-        <v>104000</v>
+        <v>109700</v>
       </c>
       <c r="G35" s="3">
-        <v>142300</v>
+        <v>100500</v>
       </c>
       <c r="H35" s="3">
-        <v>102600</v>
+        <v>137500</v>
       </c>
       <c r="I35" s="3">
-        <v>115600</v>
+        <v>99200</v>
       </c>
       <c r="J35" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K35" s="3">
         <v>74200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>158500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>89900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>162000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>169300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,408 +2227,433 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1674300</v>
+        <v>1252200</v>
       </c>
       <c r="E41" s="3">
-        <v>1515800</v>
+        <v>1618300</v>
       </c>
       <c r="F41" s="3">
-        <v>1491800</v>
+        <v>1465000</v>
       </c>
       <c r="G41" s="3">
-        <v>1531800</v>
+        <v>1441900</v>
       </c>
       <c r="H41" s="3">
-        <v>1662800</v>
+        <v>1480500</v>
       </c>
       <c r="I41" s="3">
-        <v>1534000</v>
+        <v>1607100</v>
       </c>
       <c r="J41" s="3">
+        <v>1482700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1288400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1347400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1584200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1492200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1462500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1425800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1443400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1273800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1134600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>577300</v>
+        <v>903400</v>
       </c>
       <c r="E42" s="3">
-        <v>624600</v>
+        <v>558000</v>
       </c>
       <c r="F42" s="3">
-        <v>621400</v>
+        <v>603700</v>
       </c>
       <c r="G42" s="3">
-        <v>862300</v>
+        <v>600600</v>
       </c>
       <c r="H42" s="3">
-        <v>877700</v>
+        <v>833400</v>
       </c>
       <c r="I42" s="3">
-        <v>776600</v>
+        <v>848300</v>
       </c>
       <c r="J42" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K42" s="3">
         <v>822700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>821200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>738900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>689400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>715300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>630200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>763600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>757100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>761300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>933000</v>
+        <v>938800</v>
       </c>
       <c r="E43" s="3">
-        <v>865200</v>
+        <v>901700</v>
       </c>
       <c r="F43" s="3">
-        <v>1050900</v>
+        <v>836300</v>
       </c>
       <c r="G43" s="3">
-        <v>948800</v>
+        <v>1015700</v>
       </c>
       <c r="H43" s="3">
-        <v>912700</v>
+        <v>917000</v>
       </c>
       <c r="I43" s="3">
-        <v>840100</v>
+        <v>882200</v>
       </c>
       <c r="J43" s="3">
+        <v>812000</v>
+      </c>
+      <c r="K43" s="3">
         <v>888800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>809000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>802200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>767000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>826100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>783100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>851100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>910600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1072900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>786100</v>
+        <v>771000</v>
       </c>
       <c r="E44" s="3">
-        <v>802900</v>
+        <v>759800</v>
       </c>
       <c r="F44" s="3">
-        <v>807800</v>
+        <v>776100</v>
       </c>
       <c r="G44" s="3">
-        <v>878600</v>
+        <v>780800</v>
       </c>
       <c r="H44" s="3">
-        <v>786400</v>
+        <v>849100</v>
       </c>
       <c r="I44" s="3">
-        <v>682900</v>
+        <v>760000</v>
       </c>
       <c r="J44" s="3">
+        <v>660000</v>
+      </c>
+      <c r="K44" s="3">
         <v>617000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>583200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>537000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>473600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>451700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>517200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>554400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>522100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>574800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>171100</v>
+        <v>174500</v>
       </c>
       <c r="E45" s="3">
-        <v>169400</v>
+        <v>165400</v>
       </c>
       <c r="F45" s="3">
-        <v>175800</v>
+        <v>163700</v>
       </c>
       <c r="G45" s="3">
-        <v>198200</v>
+        <v>169900</v>
       </c>
       <c r="H45" s="3">
-        <v>186900</v>
+        <v>191600</v>
       </c>
       <c r="I45" s="3">
-        <v>150900</v>
+        <v>180600</v>
       </c>
       <c r="J45" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K45" s="3">
         <v>146100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>149000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>142900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>132200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>144700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>161900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>191900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>219300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4141800</v>
+        <v>4039900</v>
       </c>
       <c r="E46" s="3">
-        <v>3977900</v>
+        <v>4003200</v>
       </c>
       <c r="F46" s="3">
-        <v>4147800</v>
+        <v>3844800</v>
       </c>
       <c r="G46" s="3">
-        <v>4419700</v>
+        <v>4008900</v>
       </c>
       <c r="H46" s="3">
-        <v>4426500</v>
+        <v>4271700</v>
       </c>
       <c r="I46" s="3">
-        <v>3984500</v>
+        <v>4278300</v>
       </c>
       <c r="J46" s="3">
+        <v>3851100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3763000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3709900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3805200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3554400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3598800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3501000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3774400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3655500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3762900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>636900</v>
+        <v>641600</v>
       </c>
       <c r="E47" s="3">
-        <v>607100</v>
+        <v>615600</v>
       </c>
       <c r="F47" s="3">
-        <v>455800</v>
+        <v>586800</v>
       </c>
       <c r="G47" s="3">
-        <v>474200</v>
+        <v>440600</v>
       </c>
       <c r="H47" s="3">
-        <v>407600</v>
+        <v>458300</v>
       </c>
       <c r="I47" s="3">
-        <v>390500</v>
+        <v>394000</v>
       </c>
       <c r="J47" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K47" s="3">
         <v>459000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>389400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>368500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>321000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>283200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>294800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>369200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>387300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>381300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1985100</v>
+        <v>1943600</v>
       </c>
       <c r="E48" s="3">
-        <v>1882900</v>
+        <v>1918600</v>
       </c>
       <c r="F48" s="3">
-        <v>1866300</v>
+        <v>1819900</v>
       </c>
       <c r="G48" s="3">
-        <v>1948300</v>
+        <v>1803800</v>
       </c>
       <c r="H48" s="3">
-        <v>2024600</v>
+        <v>1883000</v>
       </c>
       <c r="I48" s="3">
-        <v>1950700</v>
+        <v>1956800</v>
       </c>
       <c r="J48" s="3">
+        <v>1885400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1866500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1924000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1961500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1881800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1897100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2009500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2227900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2416100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2550,49 +2661,52 @@
         <v>661100</v>
       </c>
       <c r="E49" s="3">
-        <v>627500</v>
+        <v>638900</v>
       </c>
       <c r="F49" s="3">
-        <v>621900</v>
+        <v>606500</v>
       </c>
       <c r="G49" s="3">
-        <v>656400</v>
+        <v>601100</v>
       </c>
       <c r="H49" s="3">
-        <v>645900</v>
+        <v>634400</v>
       </c>
       <c r="I49" s="3">
-        <v>618500</v>
+        <v>624300</v>
       </c>
       <c r="J49" s="3">
+        <v>597800</v>
+      </c>
+      <c r="K49" s="3">
         <v>586700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>637900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>664400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>655900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>659700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>696400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>781000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>788500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>829600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147500</v>
+        <v>141600</v>
       </c>
       <c r="E52" s="3">
-        <v>138200</v>
+        <v>142500</v>
       </c>
       <c r="F52" s="3">
-        <v>116300</v>
+        <v>133500</v>
       </c>
       <c r="G52" s="3">
-        <v>115800</v>
+        <v>112400</v>
       </c>
       <c r="H52" s="3">
-        <v>117800</v>
+        <v>111900</v>
       </c>
       <c r="I52" s="3">
-        <v>110600</v>
+        <v>113900</v>
       </c>
       <c r="J52" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K52" s="3">
         <v>109900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>112600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>115500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>109900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>115200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>127300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>127200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>135100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7572400</v>
+        <v>7427700</v>
       </c>
       <c r="E54" s="3">
-        <v>7233600</v>
+        <v>7318900</v>
       </c>
       <c r="F54" s="3">
-        <v>7208100</v>
+        <v>6991500</v>
       </c>
       <c r="G54" s="3">
-        <v>7614300</v>
+        <v>6966800</v>
       </c>
       <c r="H54" s="3">
-        <v>7622500</v>
+        <v>7359400</v>
       </c>
       <c r="I54" s="3">
-        <v>7054900</v>
+        <v>7367300</v>
       </c>
       <c r="J54" s="3">
+        <v>6818700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6785200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6773900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6915100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6518800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6548700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6616900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7279800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7374600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7611900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1174300</v>
+        <v>1114200</v>
       </c>
       <c r="E57" s="3">
-        <v>1124000</v>
+        <v>1134900</v>
       </c>
       <c r="F57" s="3">
-        <v>878500</v>
+        <v>1086400</v>
       </c>
       <c r="G57" s="3">
-        <v>1263800</v>
+        <v>849100</v>
       </c>
       <c r="H57" s="3">
-        <v>1237500</v>
+        <v>1221500</v>
       </c>
       <c r="I57" s="3">
-        <v>1104100</v>
+        <v>1196100</v>
       </c>
       <c r="J57" s="3">
+        <v>1067200</v>
+      </c>
+      <c r="K57" s="3">
         <v>834900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1094200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1193800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1033800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>742900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1040800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1261400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1214700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1321600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>115600</v>
+        <v>81100</v>
       </c>
       <c r="E58" s="3">
-        <v>86000</v>
+        <v>111700</v>
       </c>
       <c r="F58" s="3">
-        <v>117200</v>
+        <v>83100</v>
       </c>
       <c r="G58" s="3">
-        <v>255500</v>
+        <v>113300</v>
       </c>
       <c r="H58" s="3">
-        <v>259900</v>
+        <v>246900</v>
       </c>
       <c r="I58" s="3">
-        <v>269700</v>
+        <v>251200</v>
       </c>
       <c r="J58" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K58" s="3">
         <v>269800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>97500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>119100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>87000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>107800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>81600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500500</v>
+        <v>495700</v>
       </c>
       <c r="E59" s="3">
-        <v>465600</v>
+        <v>483800</v>
       </c>
       <c r="F59" s="3">
-        <v>767600</v>
+        <v>450000</v>
       </c>
       <c r="G59" s="3">
-        <v>522800</v>
+        <v>741900</v>
       </c>
       <c r="H59" s="3">
-        <v>537400</v>
+        <v>505300</v>
       </c>
       <c r="I59" s="3">
-        <v>494200</v>
+        <v>519400</v>
       </c>
       <c r="J59" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K59" s="3">
         <v>780700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>482800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>508600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>449000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>858700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>494500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>536500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>484400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>451900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1790300</v>
+        <v>1691000</v>
       </c>
       <c r="E60" s="3">
-        <v>1675600</v>
+        <v>1730400</v>
       </c>
       <c r="F60" s="3">
-        <v>1763300</v>
+        <v>1619500</v>
       </c>
       <c r="G60" s="3">
-        <v>2042000</v>
+        <v>1704200</v>
       </c>
       <c r="H60" s="3">
-        <v>2034800</v>
+        <v>1973600</v>
       </c>
       <c r="I60" s="3">
-        <v>1868000</v>
+        <v>1966700</v>
       </c>
       <c r="J60" s="3">
+        <v>1805500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1885500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1674400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1821600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1569800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1709500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1616900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1853200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1749300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1910600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123400</v>
+        <v>121100</v>
       </c>
       <c r="E61" s="3">
-        <v>113800</v>
+        <v>119300</v>
       </c>
       <c r="F61" s="3">
-        <v>275200</v>
+        <v>110000</v>
       </c>
       <c r="G61" s="3">
-        <v>121800</v>
+        <v>266000</v>
       </c>
       <c r="H61" s="3">
-        <v>117100</v>
+        <v>117700</v>
       </c>
       <c r="I61" s="3">
-        <v>32000</v>
+        <v>113200</v>
       </c>
       <c r="J61" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K61" s="3">
         <v>248600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>175700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>179300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>172800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>435100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>196800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>240600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>242000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>590200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>508000</v>
+        <v>500600</v>
       </c>
       <c r="E62" s="3">
-        <v>462500</v>
+        <v>491000</v>
       </c>
       <c r="F62" s="3">
-        <v>301500</v>
+        <v>447000</v>
       </c>
       <c r="G62" s="3">
-        <v>469800</v>
+        <v>291400</v>
       </c>
       <c r="H62" s="3">
+        <v>454100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>527900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>515000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>285700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>535700</v>
+      </c>
+      <c r="M62" s="3">
+        <v>541700</v>
+      </c>
+      <c r="N62" s="3">
         <v>546200</v>
       </c>
-      <c r="I62" s="3">
-        <v>532900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>285700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>535700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>541700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>546200</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>279900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>574500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>626100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>683700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>328100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3029800</v>
+        <v>2930600</v>
       </c>
       <c r="E66" s="3">
-        <v>2884500</v>
+        <v>2928400</v>
       </c>
       <c r="F66" s="3">
-        <v>2956400</v>
+        <v>2787900</v>
       </c>
       <c r="G66" s="3">
-        <v>3282800</v>
+        <v>2857400</v>
       </c>
       <c r="H66" s="3">
-        <v>3308600</v>
+        <v>3172900</v>
       </c>
       <c r="I66" s="3">
-        <v>3014800</v>
+        <v>3197900</v>
       </c>
       <c r="J66" s="3">
+        <v>2913800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2954200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2920600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3059800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2817700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2935000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2906800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3271700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3268400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3444100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4591200</v>
+        <v>4534100</v>
       </c>
       <c r="E72" s="3">
-        <v>4466000</v>
+        <v>4437500</v>
       </c>
       <c r="F72" s="3">
-        <v>4430200</v>
+        <v>4316500</v>
       </c>
       <c r="G72" s="3">
-        <v>4326000</v>
+        <v>4281900</v>
       </c>
       <c r="H72" s="3">
-        <v>4261600</v>
+        <v>4181200</v>
       </c>
       <c r="I72" s="3">
-        <v>4164100</v>
+        <v>4118900</v>
       </c>
       <c r="J72" s="3">
+        <v>4024700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4122900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4247700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4248500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3957500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4014600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4174400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4470400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4615900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4531600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4542600</v>
+        <v>4497200</v>
       </c>
       <c r="E76" s="3">
-        <v>4349200</v>
+        <v>4390500</v>
       </c>
       <c r="F76" s="3">
-        <v>4251700</v>
+        <v>4203600</v>
       </c>
       <c r="G76" s="3">
-        <v>4331500</v>
+        <v>4109400</v>
       </c>
       <c r="H76" s="3">
-        <v>4313900</v>
+        <v>4186500</v>
       </c>
       <c r="I76" s="3">
-        <v>4040100</v>
+        <v>4169400</v>
       </c>
       <c r="J76" s="3">
+        <v>3904800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3831000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3853300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3855300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3701100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3613700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3710100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4008100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4106200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4167800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>124700</v>
+        <v>174800</v>
       </c>
       <c r="E81" s="3">
-        <v>113500</v>
+        <v>120500</v>
       </c>
       <c r="F81" s="3">
-        <v>104000</v>
+        <v>109700</v>
       </c>
       <c r="G81" s="3">
-        <v>142300</v>
+        <v>100500</v>
       </c>
       <c r="H81" s="3">
-        <v>102600</v>
+        <v>137500</v>
       </c>
       <c r="I81" s="3">
-        <v>115600</v>
+        <v>99200</v>
       </c>
       <c r="J81" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K81" s="3">
         <v>74200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>158500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>89900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>162000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>169300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70800</v>
+        <v>73700</v>
       </c>
       <c r="E83" s="3">
-        <v>71000</v>
+        <v>68500</v>
       </c>
       <c r="F83" s="3">
-        <v>77400</v>
+        <v>68600</v>
       </c>
       <c r="G83" s="3">
-        <v>69500</v>
+        <v>74800</v>
       </c>
       <c r="H83" s="3">
-        <v>71600</v>
+        <v>67200</v>
       </c>
       <c r="I83" s="3">
-        <v>66500</v>
+        <v>69200</v>
       </c>
       <c r="J83" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K83" s="3">
         <v>65800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>70400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>66400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>81800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>260100</v>
+        <v>222300</v>
       </c>
       <c r="E89" s="3">
-        <v>295400</v>
+        <v>251300</v>
       </c>
       <c r="F89" s="3">
-        <v>168700</v>
+        <v>285500</v>
       </c>
       <c r="G89" s="3">
-        <v>125200</v>
+        <v>163000</v>
       </c>
       <c r="H89" s="3">
-        <v>171100</v>
+        <v>121000</v>
       </c>
       <c r="I89" s="3">
-        <v>168600</v>
+        <v>165300</v>
       </c>
       <c r="J89" s="3">
+        <v>163000</v>
+      </c>
+      <c r="K89" s="3">
         <v>171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>288200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>158600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>322600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>244700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>260800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>389800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>240200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12269000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8066000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7601000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9529000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8001000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8738000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6682000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9393000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9395000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-74300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-68600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11800</v>
+        <v>-420400</v>
       </c>
       <c r="E94" s="3">
-        <v>-196500</v>
+        <v>11400</v>
       </c>
       <c r="F94" s="3">
-        <v>80800</v>
+        <v>-189900</v>
       </c>
       <c r="G94" s="3">
-        <v>-98700</v>
+        <v>78100</v>
       </c>
       <c r="H94" s="3">
-        <v>-110500</v>
+        <v>-95400</v>
       </c>
       <c r="I94" s="3">
-        <v>79300</v>
+        <v>-106800</v>
       </c>
       <c r="J94" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-183500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-194500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-142800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-183300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>28700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-112700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-238900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-77500</v>
-      </c>
       <c r="F96" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="G96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-77900</v>
-      </c>
       <c r="H96" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-73800</v>
-      </c>
       <c r="J96" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-68000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-74500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-73600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-161700</v>
+        <v>-182000</v>
       </c>
       <c r="E100" s="3">
-        <v>-93000</v>
+        <v>-156300</v>
       </c>
       <c r="F100" s="3">
-        <v>-232400</v>
+        <v>-89800</v>
       </c>
       <c r="G100" s="3">
-        <v>-169500</v>
+        <v>-224600</v>
       </c>
       <c r="H100" s="3">
-        <v>28800</v>
+        <v>-163800</v>
       </c>
       <c r="I100" s="3">
-        <v>-50500</v>
+        <v>27800</v>
       </c>
       <c r="J100" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-107200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-64700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-111000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-103200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48400</v>
+        <v>14100</v>
       </c>
       <c r="E101" s="3">
-        <v>18000</v>
+        <v>46800</v>
       </c>
       <c r="F101" s="3">
-        <v>-57000</v>
+        <v>17400</v>
       </c>
       <c r="G101" s="3">
-        <v>12000</v>
+        <v>-55100</v>
       </c>
       <c r="H101" s="3">
-        <v>39500</v>
+        <v>11600</v>
       </c>
       <c r="I101" s="3">
-        <v>48100</v>
+        <v>38100</v>
       </c>
       <c r="J101" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K101" s="3">
         <v>23400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-54800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>56400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-34700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>158600</v>
+        <v>-366000</v>
       </c>
       <c r="E102" s="3">
-        <v>23900</v>
+        <v>153300</v>
       </c>
       <c r="F102" s="3">
-        <v>-39900</v>
+        <v>23100</v>
       </c>
       <c r="G102" s="3">
-        <v>-131100</v>
+        <v>-38600</v>
       </c>
       <c r="H102" s="3">
-        <v>128800</v>
+        <v>-126700</v>
       </c>
       <c r="I102" s="3">
-        <v>245600</v>
+        <v>124500</v>
       </c>
       <c r="J102" s="3">
+        <v>237300</v>
+      </c>
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-206600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>210000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>139200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>226300</v>
       </c>
     </row>
